--- a/sa/output02.xlsx
+++ b/sa/output02.xlsx
@@ -506,12 +506,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['선생에게 물었다. “‘사물에', '이른다.［격물(格物)］’ 라는 것은', '외물(外物)에 이르는 것입니까?']</t>
+          <t>['선생에게 물었다.', '“‘사물에 이른다.［격물(格物)］’ 라는', '것은 외물(外物)에 이르는 것입니까?']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '格物은', 'tgt': '이른다.［격물(格物)］’ 라는 것은', 'score': 0.70263671875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '是外物이니잇가', 'tgt': '외물(外物)에 이르는 것입니까?', 'score': 0.77783203125}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '是外物이니잇가', 'tgt': '것은 외물(外物)에 이르는 것입니까?', 'score': 0.5398547849492898}]</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '是性分中物이니잇가', 'tgt': '본성(本性) 안의 물(物)에 이르는 것입니까?”', 'score': 0.57177734375}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['선생이 말하였다.', '“모두 구애받지 않는다.']</t>
+          <t>['선생이 말하였다. “모두', '구애받지 않는다.']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '曰', 'tgt': '선생이 말하였다.', 'score': 0.5634765625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '不拘라', 'tgt': '“모두 구애받지 않는다.', 'score': 0.56640625}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -638,12 +638,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['눈에 보이는 모든 것이 물(物) 아닌 것이 없으니, 물(物)마다', '모두 이치가 있다.']</t>
+          <t>['눈에 보이는 모든 것이 물(物) 아닌 것이 없으니,', '물(物)마다 모두 이치가 있다.']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '凡眼前無非是物이니', 'tgt': '눈에 보이는 모든 것이 물(物) 아닌 것이 없으니, 물(物)마다', 'score': 0.70068359375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '物皆有理라', 'tgt': '모두 이치가 있다.', 'score': 0.77197265625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '凡眼前無非是物이니', 'tgt': '눈에 보이는 모든 것이 물(物) 아닌 것이 없으니,', 'score': 0.5630216817726582}, {'src_idx': 1, 'tgt_idx': 1, 'src': '物皆有理라', 'tgt': '물(物)마다 모두 이치가 있다.', 'score': 0.5610121567192368}]</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如火之所以熱과', 'tgt': '예컨대 불이 뜨거운 이유와', 'score': 0.73193359375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '水之所以寒하여', 'tgt': '물이 차가운 이유부터', 'score': 0.79296875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '至於君臣父子間하야도', 'tgt': '군신(君臣)과 부자(父子)의 관계에 이르기까지', 'score': 0.716796875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '皆是理라', 'tgt': '모두 이러한 이치가 있다.”', 'score': 0.6240234375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如火之所以熱과', 'tgt': '예컨대 불이 뜨거운 이유와', 'score': 0.5019158437198805}, {'src_idx': 1, 'tgt_idx': 1, 'src': '水之所以寒하여', 'tgt': '물이 차가운 이유부터', 'score': 0.5764375205358986}, {'src_idx': 2, 'tgt_idx': 2, 'src': '至於君臣父子間하야도', 'tgt': '군신(君臣)과 부자(父子)의 관계에 이르기까지', 'score': 0.5552005577885821}]</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -726,12 +726,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['또 물었다.', '“하나의 물(物)을 궁구하여', '이 하나의 물(物)의 이치를 보기만 하면', '바로 여러 물(物)의 이치를 알 수 있습니까?”']</t>
+          <t>['또 물었다.', '“하나의 물(物)을 궁구하여 이 하나의 물(物)의 이치를', '보기만 하면', '바로 여러 물(物)의 이치를 알 수 있습니까?”']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '又問호되', 'tgt': '또 물었다.', 'score': 0.76708984375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只窮一物하여', 'tgt': '“하나의 물(物)을 궁구하여', 'score': 0.59912109375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '見此一物이면', 'tgt': '이 하나의 물(物)의 이치를 보기만 하면', 'score': 0.7041015625}, {'src_idx': 3, 'tgt_idx': 0, 'src': '還便見得諸理否잇가', 'tgt': '또 물었다.', 'score': 0.5771484375}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '見此一物이면', 'tgt': '보기만 하면', 'score': 0.5245442270292525}]</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -770,12 +770,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['선생이 말하였다. “모름지기 여러 물(物)의 이치를 두루', '구해야', '하니, 안자(顔子) 같은 분도', '하나를 듣고 열을 알 수 있었을 뿐이다.']</t>
+          <t>['선생이 말하였다. “모름지기 여러 물(物)의 이치를 두루', '구해야 하니,', '안자(顔子) 같은', '분도 하나를 듣고 열을 알 수 있었을 뿐이다.']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '須是徧求니', 'tgt': '구해야', 'score': 0.63671875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '雖顔子라도', 'tgt': '하니, 안자(顔子) 같은 분도', 'score': 0.65576171875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '亦只能聞一知十이라', 'tgt': '하나를 듣고 열을 알 수 있었을 뿐이다.', 'score': 0.75732421875}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '雖顔子라도', 'tgt': '안자(顔子) 같은', 'score': 0.5279649918149629}]</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -785,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '若到後來達理了면', 'tgt': '만약 훗날 이치를 통달하게', 'score': 0.76123046875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '雖億萬이라도', 'tgt': '되면 억만 가지 이치라도', 'score': 0.76171875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦可通이라', 'tgt': '통달할 수 있다.”', 'score': 0.67529296875}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -858,12 +858,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['또 물었다.', '“예컨대 형공(荊公)(왕안석(王安石))이 물(物)을', '궁구한 것은 ≪자해(字解)≫ 한 부인데,', '대부분 오행(五行)에서 추론하여 지어낸 것입니다.']</t>
+          <t>['또 물었다.', '“예컨대 형공(荊公)(왕안석(王安石))이 물(物)을 궁구한 것은', '≪자해(字解)≫ 한', '부인데, 대부분 오행(五行)에서 추론하여 지어낸 것입니다.']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '又問호되', 'tgt': '또 물었다.', 'score': 0.76708984375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '如荊公窮物은', 'tgt': '“예컨대 형공(荊公)(왕안석(王安石))이 물(物)을', 'score': 0.5322265625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '一部字解인대', 'tgt': '궁구한 것은 ≪자해(字解)≫ 한 부인데,', 'score': 0.61767578125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '多是推五行生成이라', 'tgt': '대부분 오행(五行)에서 추론하여 지어낸 것입니다.', 'score': 0.77392578125}]</t>
+          <t>[{'src_idx': 3, 'tgt_idx': 3, 'src': '多是推五行生成이라', 'tgt': '부인데, 대부분 오행(五行)에서 추론하여 지어낸 것입니다.', 'score': 0.5740977129519532}]</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -902,12 +902,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['지금 이치를 궁구하는 일도', '그저 이와 같이 공부할 뿐이니 이는', '어떻습니까?”']</t>
+          <t>['지금 이치를 궁구하는 일도 그저', '이와 같이 공부할 뿐이니 이는', '어떻습니까?”']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如今窮理도', 'tgt': '지금 이치를 궁구하는 일도', 'score': 0.65380859375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '亦只如此著工夫니', 'tgt': '그저 이와 같이 공부할 뿐이니 이는', 'score': 0.73291015625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '如何잇가', 'tgt': '어떻습니까?”', 'score': 0.5078125}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -917,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -946,12 +946,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['선생이 말하였다.', '“형공이 예전에 한 말은', '확실히 깨달은 것이었는데,', '나중에는', '도리어 스스로 옳지 않다고', '여겼고, 만년에', '하는 말은 모두 지리하였다.”']</t>
+          <t>['선생이 말하였다.', '“형공이 예전에 한 말은', '확실히 깨달은 것이었는데,', '나중에는', '도리어 스스로 옳지 않다고 여겼고,', '만년에', '하는 말은 모두 지리하였다.”']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '曰', 'tgt': '선생이 말하였다.', 'score': 0.5634765625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '荊公舊年說話는', 'tgt': '“형공이 예전에 한 말은', 'score': 0.6904296875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '後來엔', 'tgt': '나중에는', 'score': 0.88916015625}, {'src_idx': 4, 'tgt_idx': 4, 'src': '却自以爲不是요', 'tgt': '도리어 스스로 옳지 않다고', 'score': 0.712890625}, {'src_idx': 5, 'tgt_idx': 3, 'src': '晩年엔', 'tgt': '나중에는', 'score': 0.6572265625}, {'src_idx': 6, 'tgt_idx': 6, 'src': '盡支離了라', 'tgt': '하는 말은 모두 지리하였다.”', 'score': 0.57763671875}]</t>
+          <t>[{'src_idx': 3, 'tgt_idx': 3, 'src': '後來엔', 'tgt': '나중에는', 'score': 0.810380774175367}, {'src_idx': 5, 'tgt_idx': 3, 'src': '晩年엔', 'tgt': '나중에는', 'score': 0.5161445594643409}]</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -961,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '古之學者는', 'tgt': '“‘옛날의 배우는 자들은', 'score': 0.5517578125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '爲己라하니', 'tgt': '자기를 위한', 'score': 0.75146484375}, {'src_idx': 4, 'tgt_idx': 4, 'src': '初設心時에', 'tgt': '처음 마음을 먹을 적에', 'score': 0.7060546875}, {'src_idx': 5, 'tgt_idx': 2, 'src': '是要爲己이니잇가', 'tgt': '자기를 위한', 'score': 0.7470703125}]</t>
+          <t>[{'src_idx': 4, 'tgt_idx': 4, 'src': '初設心時에', 'tgt': '처음 마음을 먹을 적에', 'score': 0.5284305217469346}, {'src_idx': 5, 'tgt_idx': 2, 'src': '是要爲己이니잇가', 'tgt': '자기를 위한', 'score': 0.5423734045809542}]</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1005,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '是要爲人이니잇가', 'tgt': '남을 위한 학문을 해야 합니까?”', 'score': 0.6142578125}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['선생이 말하였다.', '“우선 자기를 위한 학문을 해야', '남에게 미칠 수 있다.']</t>
+          <t>['선생이 말하였다.', '“우선 자기를', '위한 학문을 해야 남에게 미칠 수 있다.']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '曰', 'tgt': '선생이 말하였다.', 'score': 0.5634765625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '須先爲己라야', 'tgt': '“우선 자기를 위한 학문을 해야', 'score': 0.7490234375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '方能及人이라', 'tgt': '남에게 미칠 수 있다.', 'score': 0.5341796875}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '須先爲己라야', 'tgt': '“우선 자기를', 'score': 0.506406413219271}]</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '初學은', 'tgt': '처음 배우는 자는', 'score': 0.61083984375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只是爲己라', 'tgt': '단지 자기를 위한 학문을 할 뿐이다.', 'score': 0.7646484375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '初學은', 'tgt': '처음 배우는 자는', 'score': 0.551965098171831}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只是爲己라', 'tgt': '단지 자기를 위한 학문을 할 뿐이다.', 'score': 0.5117574872932674}]</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['정굉중(鄭宏中)이', '말하기를', '‘배우는 자는', '먼저 인(仁)을 구해야 한다.’ 라고 하였는데,', '인(仁)은', '남을 사랑하는 것이니,', '이 말은 그야말로 전도된 설이다.”']</t>
+          <t>['정굉중(鄭宏中)이', '말하기를', '‘배우는 자는', '먼저 인(仁)을 구해야 한다.’ 라고 하였는데,', '인(仁)은 남을', '사랑하는 것이니,', '이 말은 그야말로 전도된 설이다.”']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '鄭宏中이', 'tgt': '정굉중(鄭宏中)이', 'score': 0.7392578125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '學者는', 'tgt': '‘배우는 자는', 'score': 0.6318359375}, {'src_idx': 3, 'tgt_idx': 3, 'src': '先須要仁이라한대', 'tgt': '먼저 인(仁)을 구해야 한다.’ 라고 하였는데,', 'score': 0.716796875}, {'src_idx': 4, 'tgt_idx': 4, 'src': '仁은', 'tgt': '인(仁)은', 'score': 0.755859375}, {'src_idx': 5, 'tgt_idx': 5, 'src': '所以愛人이니', 'tgt': '남을 사랑하는 것이니,', 'score': 0.7255859375}, {'src_idx': 6, 'tgt_idx': 6, 'src': '正是顚倒說却이라', 'tgt': '이 말은 그야말로 전도된 설이다.”', 'score': 0.52099609375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '鄭宏中이', 'tgt': '정굉중(鄭宏中)이', 'score': 0.7020850877238352}, {'src_idx': 3, 'tgt_idx': 3, 'src': '先須要仁이라한대', 'tgt': '먼저 인(仁)을 구해야 한다.’ 라고 하였는데,', 'score': 0.5479023060543402}, {'src_idx': 4, 'tgt_idx': 4, 'src': '仁은', 'tgt': '인(仁)은 남을', 'score': 0.6674485330792173}, {'src_idx': 5, 'tgt_idx': 5, 'src': '所以愛人이니', 'tgt': '사랑하는 것이니,', 'score': 0.6197424542708485}]</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1181,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1210,12 +1210,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['“백성을 새롭게 한다.” 라는 것은', '명덕(明德)으로', '백성을 새롭게 하는 것이다.']</t>
+          <t>['“백성을 새롭게 한다.” 라는', '것은 명덕(明德)으로', '백성을 새롭게 하는 것이다.']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以明德으로', 'tgt': '명덕(明德)으로', 'score': 0.80322265625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '新民이라', 'tgt': '백성을 새롭게 하는 것이다.', 'score': 0.5078125}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以明德으로', 'tgt': '것은 명덕(明德)으로', 'score': 0.6948395455075791}]</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1225,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1254,12 +1254,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['선생에게 물었다.', '“‘날마다 새롭게 한다.’ 라는 것은', '진보함이 있다는 뜻입니까?']</t>
+          <t>['선생에게 물었다. “‘날마다', '새롭게', '한다.’ 라는 것은 진보함이 있다는 뜻입니까?']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '有進意잇가', 'tgt': '진보함이 있다는 뜻입니까?', 'score': 0.59814453125}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '日新은', 'tgt': '새롭게', 'score': 0.5451349373155153}]</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '抑只是無弊意잇가', 'tgt': '아니면 단지 폐단이 없다는 뜻입니까?”', 'score': 0.54638671875}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['선생이 말하였다.', '“진보함이 있다는 뜻이다.']</t>
+          <t>['선생이 말하였다. “진보함이', '있다는 뜻이다.']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '曰', 'tgt': '선생이 말하였다.', 'score': 0.5634765625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '有進意라', 'tgt': '“진보함이 있다는 뜻이다.', 'score': 0.626953125}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['배우는 자가', '유익함이 있기를 구한다면', '모름지기 날마다 자신을 새롭게 해야 한다.”']</t>
+          <t>['배우는 자가', '유익함이 있기를', '구한다면 모름지기 날마다 자신을 새롭게 해야 한다.”']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '學者가', 'tgt': '배우는 자가', 'score': 0.71142578125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '求有益이어든', 'tgt': '유익함이 있기를 구한다면', 'score': 0.75634765625}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '求有益이어든', 'tgt': '유익함이 있기를', 'score': 0.6652417968641707}]</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1401,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1430,12 +1430,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['선생에게 물었다. “‘마음에 성내는 바,', '두려워하는 바, 걱정하는 바가 있으면', '마음이 그 바름을 얻지 못한다.’ 라고 하였는데, 이 몇 가지 감정을', '없애면', '마음이 바르게 됩니까?”']</t>
+          <t>['선생에게 물었다.', '“‘마음에 성내는 바, 두려워하는 바, 걱정하는 바가 있으면', '마음이 그 바름을 얻지 못한다.’ 라고 하였는데, 이 몇 가지 감정을', '없애면', '마음이 바르게 됩니까?”']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '有所忿懥恐懼憂患이면', 'tgt': '두려워하는 바, 걱정하는 바가 있으면', 'score': 0.79931640625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '心不得其正이라한대', 'tgt': '마음이 그 바름을 얻지 못한다.’ 라고 하였는데, 이 몇 가지 감정을', 'score': 0.6376953125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '是要無此數者면', 'tgt': '없애면', 'score': 0.6201171875}, {'src_idx': 4, 'tgt_idx': 4, 'src': '心乃正乎잇가', 'tgt': '마음이 바르게 됩니까?”', 'score': 0.5615234375}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '有所忿懥恐懼憂患이면', 'tgt': '“‘마음에 성내는 바, 두려워하는 바, 걱정하는 바가 있으면', 'score': 0.5168466030484271}, {'src_idx': 4, 'tgt_idx': 4, 'src': '心乃正乎잇가', 'tgt': '마음이 바르게 됩니까?”', 'score': 0.5250692417846462}]</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1445,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1474,12 +1474,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['선생이 말하였다. “이는 이런 감정을 없애야 한다고 말하는', '것이 아니다.']</t>
+          <t>['선생이 말하였다. “이는 이런 감정을', '없애야 한다고 말하는 것이 아니다.']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '非是謂無라', 'tgt': '것이 아니다.', 'score': 0.58203125}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1489,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '只是不以此動其心이라', 'tgt': '단지 이러한 감정 때문에 그 마음을 동요하지 않는 것이다.', 'score': 0.78759765625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '只是不以此動其心이라', 'tgt': '단지 이러한 감정 때문에 그 마음을 동요하지 않는 것이다.', 'score': 0.6280082241161117}]</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1562,12 +1562,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['배우는 자가', '마음을 동요하지 않는 경지에 아직 이르지 않았다면 모름지기', '자기의 의지를 잡고 지켜야 한다.”']</t>
+          <t>['배우는', '자가 마음을 동요하지 않는 경지에 아직 이르지 않았다면', '모름지기 자기의 의지를 잡고 지켜야 한다.”']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '學者가', 'tgt': '배우는 자가', 'score': 0.71142578125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '未到不動處어든', 'tgt': '마음을 동요하지 않는 경지에 아직 이르지 않았다면 모름지기', 'score': 0.54296875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '須是執持其志라', 'tgt': '자기의 의지를 잡고 지켜야 한다.”', 'score': 0.67626953125}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1577,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['“군대를 출동하되 규율에 맞게 해야 하니,', '그렇지 않으면', '승리하더라도', '흉하리라.” 라고', '하였는데, 규율에는 두 가지 의미가 있다.']</t>
+          <t>['“군대를 출동하되 규율에 맞게 해야 하니,', '그렇지 않으면', '승리하더라도', '흉하리라.”', '라고 하였는데, 규율에는 두 가지 의미가 있다.']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '師出以律이니', 'tgt': '“군대를 출동하되 규율에 맞게 해야 하니,', 'score': 0.60986328125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '否면', 'tgt': '그렇지 않으면', 'score': 0.666015625}, {'src_idx': 3, 'tgt_idx': 3, 'src': '凶하리라한대', 'tgt': '흉하리라.” 라고', 'score': 0.56201171875}, {'src_idx': 4, 'tgt_idx': 4, 'src': '律有二義라', 'tgt': '하였는데, 규율에는 두 가지 의미가 있다.', 'score': 0.6796875}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '否면', 'tgt': '그렇지 않으면', 'score': 0.7300514541333228}]</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1621,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['군대를 출동할 적에 의(義)로써 하지 않는 경우가 있고, 군대를', '움직이면서 호령과 절제가 없는 경우가 있으니,', '모두 규율을 잃은 것이다.']</t>
+          <t>['군대를 출동할 적에 의(義)로써 하지', '않는 경우가 있고, 군대를 움직이면서 호령과 절제가 없는 경우가', '있으니, 모두 규율을 잃은 것이다.']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '有出師不以義者요', 'tgt': '군대를 출동할 적에 의(義)로써 하지 않는 경우가 있고, 군대를', 'score': 0.66552734375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '有行師而無號令節制者니', 'tgt': '움직이면서 호령과 절제가 없는 경우가 있으니,', 'score': 0.70166015625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '皆失律也라', 'tgt': '모두 규율을 잃은 것이다.', 'score': 0.69384765625}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '皆失律也라', 'tgt': '있으니, 모두 규율을 잃은 것이다.', 'score': 0.579559188426253}]</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1665,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1694,12 +1694,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['군대를 출동할 적에는', '마땅히 규율에 맞게 해야 하니,', '그렇지 않으면', '비록 승리하더라도', '흉한 것이다.']</t>
+          <t>['군대를 출동할 적에는 마땅히 규율에', '맞게 해야 하니,', '그렇지 않으면', '비록 승리하더라도', '흉한 것이다.']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '當以律이니', 'tgt': '마땅히 규율에 맞게 해야 하니,', 'score': 0.68359375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不然이면', 'tgt': '그렇지 않으면', 'score': 0.89453125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '雖臧이라도', 'tgt': '비록 승리하더라도', 'score': 0.6728515625}, {'src_idx': 4, 'tgt_idx': 4, 'src': '亦凶이라', 'tgt': '흉한 것이다.', 'score': 0.5947265625}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '不然이면', 'tgt': '그렇지 않으면', 'score': 0.795790178239296}]</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今人用師는', 'tgt': '요즘 사람들이 군대를 운용하는 것은', 'score': 0.53125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '惟勝而已라', 'tgt': '오직 이기고자 할 따름이다.', 'score': 0.81787109375}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1753,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1782,12 +1782,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['“자제(子弟)들이 여럿이 주장하면 하는 일이', '바르더라도', '흉하리라.” 라고 하였다.']</t>
+          <t>['“자제(子弟)들이 여럿이 주장하면 하는', '일이 바르더라도', '흉하리라.” 라고 하였다.']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '弟子輿尸하면', 'tgt': '“자제(子弟)들이 여럿이 주장하면 하는 일이', 'score': 0.52734375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '貞이라도', 'tgt': '바르더라도', 'score': 0.5751953125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '凶하리라', 'tgt': '흉하리라.” 라고 하였다.', 'score': 0.59326171875}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1826,12 +1826,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['장자(長子)가 군대를', '거느렸는데 지금 자제들이 여럿이 그 일을', '주장한다면 또한 이는 규율을 잃은 것이다.']</t>
+          <t>['장자(長子)가', '군대를 거느렸는데 지금 자제들이 여럿이 그 일을 주장한다면', '또한 이는 규율을 잃은 것이다.']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '帥師以長子한대', 'tgt': '장자(長子)가 군대를', 'score': 0.60791015625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '今以弟子衆主之어든', 'tgt': '거느렸는데 지금 자제들이 여럿이 그 일을', 'score': 0.6259765625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦是失律이라', 'tgt': '주장한다면 또한 이는 규율을 잃은 것이다.', 'score': 0.68115234375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '帥師以長子한대', 'tgt': '장자(長子)가', 'score': 0.6031579305878378}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦是失律이라', 'tgt': '또한 이는 규율을 잃은 것이다.', 'score': 0.54602621805089}]</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1841,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1870,12 +1870,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['그러므로 하는 일이', '바르더라도', '흉한 것이다.']</t>
+          <t>['그러므로', '하는 일이 바르더라도', '흉한 것이다.']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '雖貞이라도', 'tgt': '바르더라도', 'score': 0.66552734375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦凶也라', 'tgt': '흉한 것이다.', 'score': 0.505859375}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1914,12 +1914,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['“멧돼지를 거세하여 이빨을 쓰지 못하게 한다.” 라고 하였으니, 멧돼지의', '이빨은', '사람을 매우 잘 깨물어 해치지만,', '단지 그 이빨만을 다스려서', '어떻게 멧돼지를 제압할 수 있겠는가?']</t>
+          <t>['“멧돼지를 거세하여 이빨을 쓰지 못하게 한다.”', '라고 하였으니, 멧돼지의 이빨은', '사람을 매우 잘 깨물어 해치지만,', '단지 그 이빨만을', '다스려서 어떻게 멧돼지를 제압할 수 있겠는가?']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 1, 'src': '獖豕之牙라하니', 'tgt': '이빨은', 'score': 0.5}, {'src_idx': 1, 'tgt_idx': 1, 'src': '豕牙는', 'tgt': '이빨은', 'score': 0.64208984375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '最能嚙害人이나', 'tgt': '사람을 매우 잘 깨물어 해치지만,', 'score': 0.611328125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只制其牙하여', 'tgt': '단지 그 이빨만을 다스려서', 'score': 0.77783203125}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1929,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1958,12 +1958,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['요즘 사람들이 악(惡)을 행할 적에', '단지 그의 악행만을', '금지시키면 근원적인 악을 금지할 길이 없다.']</t>
+          <t>['요즘 사람들이 악(惡)을 행할', '적에 단지 그의 악행만을 금지시키면 근원적인 악을', '금지할 길이 없다.']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今人爲惡할새', 'tgt': '요즘 사람들이 악(惡)을 행할 적에', 'score': 0.6630859375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '却只就他惡禁之면', 'tgt': '단지 그의 악행만을', 'score': 0.77392578125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '便無由禁止라', 'tgt': '금지시키면 근원적인 악을 금지할 길이 없다.', 'score': 0.560546875}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今人爲惡할새', 'tgt': '요즘 사람들이 악(惡)을 행할', 'score': 0.6567298863249762}, {'src_idx': 1, 'tgt_idx': 1, 'src': '却只就他惡禁之면', 'tgt': '적에 단지 그의 악행만을 금지시키면 근원적인 악을', 'score': 0.5339682104221349}, {'src_idx': 2, 'tgt_idx': 2, 'src': '便無由禁止라', 'tgt': '금지할 길이 없다.', 'score': 0.5782863024137747}]</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此見聖人機會處라', 'tgt': '여기에서 성인(聖人)이 긴요하게 여긴 점을 볼 수 있다.', 'score': 0.66455078125}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '喪羊于易(이)라', 'tgt': '“양(羊)을 화이(和易)함에서 잃는다.” 라고 하였다.', 'score': 0.630859375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '喪羊于易(이)라', 'tgt': '“양(羊)을 화이(和易)함에서 잃는다.” 라고 하였다.', 'score': 0.6801574910735}]</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '羊은', 'tgt': '양은', 'score': 0.68212890625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '群行而觸物이라', 'tgt': '무리지어 다니면서 사물을 떠받는다.', 'score': 0.65966796875}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2105,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '大壯은', 'tgt': '대장괘(大壯卦)는', 'score': 0.6943359375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '衆陽竝進이어늘', 'tgt': '여러 양(陽)이 함께 나아가는', 'score': 0.67724609375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '六五가', 'tgt': '형상인데, 육오효(六五爻)가', 'score': 0.59033203125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '以陰居位하니', 'tgt': '음(陰)으로서 임금 자리에 거처하니', 'score': 0.76220703125}, {'src_idx': 4, 'tgt_idx': 4, 'src': '惟和易然後에', 'tgt': '오직 화이(和易)한 뒤에', 'score': 0.7470703125}, {'src_idx': 5, 'tgt_idx': 5, 'src': '可以喪羊이라', 'tgt': '양을 잃을 수 있다.', 'score': 0.69482421875}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '六五가', 'tgt': '형상인데, 육오효(六五爻)가', 'score': 0.515193535082139}, {'src_idx': 3, 'tgt_idx': 3, 'src': '以陰居位하니', 'tgt': '음(陰)으로서 임금 자리에 거처하니', 'score': 0.581611750045873}, {'src_idx': 4, 'tgt_idx': 4, 'src': '惟和易然後에', 'tgt': '오직 화이(和易)한 뒤에', 'score': 0.6117757237609643}]</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2178,12 +2178,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['이(易)는', '난이(難易)의 이(易)가 아니라,', '화이(和易)․낙이(樂易)의 이(易)이다.']</t>
+          <t>['이(易)는', '난이(難易)의 이(易)가', '아니라, 화이(和易)․낙이(樂易)의 이(易)이다.']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '易는', 'tgt': '이(易)는', 'score': 0.79541015625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '非難易之易요', 'tgt': '난이(難易)의 이(易)가 아니라,', 'score': 0.71435546875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '乃和易樂易(낙이)之易라', 'tgt': '화이(和易)․낙이(樂易)의 이(易)이다.', 'score': 0.7275390625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '易는', 'tgt': '이(易)는', 'score': 0.5154701595075536}, {'src_idx': 1, 'tgt_idx': 1, 'src': '非難易之易요', 'tgt': '난이(難易)의 이(易)가', 'score': 0.5191687567872854}, {'src_idx': 2, 'tgt_idx': 2, 'src': '乃和易樂易(낙이)之易라', 'tgt': '아니라, 화이(和易)․낙이(樂易)의 이(易)이다.', 'score': 0.6311142968802816}]</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['≪주역(周易)≫은', '1백여 개의', '학파가 있어 그 설을 두루 살펴보기가 어렵다.']</t>
+          <t>['≪주역(周易)≫은', '1백여 개의 학파가 있어 그 설을', '두루 살펴보기가 어렵다.']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '易은', 'tgt': '≪주역(周易)≫은', 'score': 0.5654296875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '有百餘家니', 'tgt': '1백여 개의', 'score': 0.736328125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '難爲徧觀이라', 'tgt': '학파가 있어 그 설을 두루 살펴보기가 어렵다.', 'score': 0.66064453125}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2237,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['만약 평소 ≪주역≫을 읽지 않으면', '글의 의미를 깨닫지 못한다.']</t>
+          <t>['만약 평소 ≪주역≫을 읽지 않으면 글의', '의미를 깨닫지 못한다.']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如素未讀이어든', 'tgt': '만약 평소 ≪주역≫을 읽지 않으면', 'score': 0.55615234375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '不曉文義라', 'tgt': '글의 의미를 깨닫지 못한다.', 'score': 0.560546875}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2281,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2310,12 +2310,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['또 반드시 왕필(王弼)․호선생(胡先生)(호원(胡瑗))․형공(荊公)(왕안석(王安石)) 삼가(三家)의 설을 보고서 글의', '의미를 이해하고,', '또 숙독을', '한 뒤에야', '마음을 쓸 곳이 있게 된다.']</t>
+          <t>['또 반드시 왕필(王弼)․호선생(胡先生)(호원(胡瑗))․형공(荊公)(왕안석(王安石)) 삼가(三家)의 설을 보고서 글의', '의미를', '이해하고, 또 숙독을', '한 뒤에야', '마음을 쓸 곳이 있게 된다.']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '且須看王弼胡先生荊公三家하여', 'tgt': '또 반드시 왕필(王弼)․호선생(胡先生)(호원(胡瑗))․형공(荊公)(왕안석(王安石)) 삼가(三家)의 설을 보고서 글의', 'score': 0.70458984375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '理會得文義하고', 'tgt': '의미를 이해하고,', 'score': 0.626953125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '且要熟讀이라야', 'tgt': '또 숙독을', 'score': 0.6484375}, {'src_idx': 3, 'tgt_idx': 3, 'src': '然後에', 'tgt': '한 뒤에야', 'score': 0.74560546875}, {'src_idx': 4, 'tgt_idx': 4, 'src': '却有用心處라', 'tgt': '마음을 쓸 곳이 있게 된다.', 'score': 0.583984375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '且須看王弼胡先生荊公三家하여', 'tgt': '또 반드시 왕필(王弼)․호선생(胡先生)(호원(胡瑗))․형공(荊公)(왕안석(王安石)) 삼가(三家)의 설을 보고서 글의', 'score': 0.6064588712342762}, {'src_idx': 2, 'tgt_idx': 2, 'src': '且要熟讀이라야', 'tgt': '이해하고, 또 숙독을', 'score': 0.5921576913179211}, {'src_idx': 3, 'tgt_idx': 3, 'src': '然後에', 'tgt': '한 뒤에야', 'score': 0.5870258208839461}]</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2325,7 +2325,7 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '讀易은', 'tgt': '≪주역(周易)≫을 읽을', 'score': 0.654296875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '須先識卦體라', 'tgt': '적에는 모름지기 괘(卦)의 체(體)를 먼저 알아야 한다.', 'score': 0.7685546875}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2369,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2398,12 +2398,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['예컨대 건괘(乾卦)는', '원(元)․형(亨)․이(利)․정(貞) 네 가지 덕(德)이', '있는데, 이 중에 하나라도 없으면', '건괘(乾卦)가 아니니, 모름지기', '이 점을 잘 알아야 한다.']</t>
+          <t>['예컨대 건괘(乾卦)는', '원(元)․형(亨)․이(利)․정(貞) 네 가지 덕(德)이 있는데, 이', '중에 하나라도 없으면', '건괘(乾卦)가 아니니, 모름지기 이 점을', '잘 알아야 한다.']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如乾은', 'tgt': '예컨대 건괘(乾卦)는', 'score': 0.51025390625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '有元亨利貞四德한대', 'tgt': '원(元)․형(亨)․이(利)․정(貞) 네 가지 덕(德)이', 'score': 0.6298828125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '缺却一箇면', 'tgt': '있는데, 이 중에 하나라도 없으면', 'score': 0.59228515625}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便不是乾이니', 'tgt': '건괘(乾卦)가 아니니, 모름지기', 'score': 0.69140625}, {'src_idx': 4, 'tgt_idx': 4, 'src': '須要認得이라', 'tgt': '이 점을 잘 알아야 한다.', 'score': 0.70849609375}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '缺却一箇면', 'tgt': '중에 하나라도 없으면', 'score': 0.560306854592722}]</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2413,7 +2413,7 @@
         <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['“반복하기를 도(道)로써 한다.” 라는 것은', '종일토록 힘쓰고 반복하는 것이', '모두 도를 말미암는다는 말이다.']</t>
+          <t>['“반복하기를 도(道)로써', '한다.” 라는 것은 종일토록 힘쓰고 반복하는', '것이 모두 도를 말미암는다는 말이다.']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '反復道也는', 'tgt': '“반복하기를 도(道)로써 한다.” 라는 것은', 'score': 0.66943359375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '皆由於道也라', 'tgt': '모두 도를 말미암는다는 말이다.', 'score': 0.701171875}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '反復道也는', 'tgt': '“반복하기를 도(道)로써', 'score': 0.534167914761118}]</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2457,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에 있어', '나아가 올라갈 수도', '있고, 물러나 내려갈 수도 있다.']</t>
+          <t>['삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에', '있어 나아가 올라갈 수도', '있고, 물러나 내려갈 수도 있다.']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '三位在二體之中하여', 'tgt': '삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에 있어', 'score': 0.6796875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '可進而上하고', 'tgt': '나아가 올라갈 수도', 'score': 0.8388671875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '可退而下라', 'tgt': '있고, 물러나 내려갈 수도 있다.', 'score': 0.79638671875}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '三位在二體之中하여', 'tgt': '삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에', 'score': 0.6487743783035319}, {'src_idx': 1, 'tgt_idx': 1, 'src': '可進而上하고', 'tgt': '있어 나아가 올라갈 수도', 'score': 0.5067618732454586}, {'src_idx': 2, 'tgt_idx': 2, 'src': '可退而下라', 'tgt': '있고, 물러나 내려갈 수도 있다.', 'score': 0.5118575969153467}]</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2530,12 +2530,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['그러므로', '반복한다고 말한', '것이다. “이를 곳을 알아 그곳에 이른다.” 라는 것은', '지금 배우는 자가 이를 곳이 있는 것을 먼저 알게 되면', '이로부터 그곳에 이르는', '것과 같으니, 이것이 “더불어 기미를 알 수 있다.” 라는 것이다.']</t>
+          <t>['그러므로', '반복한다고 말한', '것이다. “이를 곳을 알아 그곳에 이른다.” 라는', '것은 지금 배우는 자가 이를 곳이 있는 것을 먼저 알게', '되면 이로부터 그곳에 이르는', '것과 같으니, 이것이 “더불어 기미를 알 수 있다.” 라는 것이다.']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '言反復이라', 'tgt': '반복한다고 말한', 'score': 0.7783203125}, {'src_idx': 2, 'tgt_idx': 4, 'src': '知至至之는', 'tgt': '이로부터 그곳에 이르는', 'score': 0.50390625}, {'src_idx': 3, 'tgt_idx': 3, 'src': '如今學者且先知有至處면', 'tgt': '지금 배우는 자가 이를 곳이 있는 것을 먼저 알게 되면', 'score': 0.638671875}, {'src_idx': 4, 'tgt_idx': 4, 'src': '便從此至之니', 'tgt': '이로부터 그곳에 이르는', 'score': 0.75927734375}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '言反復이라', 'tgt': '반복한다고 말한', 'score': 0.7260030787535792}]</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2545,7 +2545,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2574,12 +2574,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['기미를 아는 자가 아니라면 어찌', '이를 곳을 먼저 알 수', '있겠는가? “마칠 바를 알아 그것을 마친다.” 라는 것은', '배움이 마치는 곳을 알아 그것을 마치는 것이니,', '그러한 뒤에', '더불어 의(義)를 지킬 수 있다.']</t>
+          <t>['기미를 아는 자가 아니라면 어찌 이를', '곳을 먼저 알 수 있겠는가? “마칠 바를 알아', '그것을 마친다.” 라는 것은', '배움이 마치는 곳을 알아 그것을 마치는 것이니, 그러한', '뒤에', '더불어 의(義)를 지킬 수 있다.']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '非知幾者면', 'tgt': '기미를 아는 자가 아니라면 어찌', 'score': 0.58056640625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '安能先識至處리오', 'tgt': '이를 곳을 먼저 알 수', 'score': 0.537109375}, {'src_idx': 2, 'tgt_idx': 3, 'src': '知終終之는', 'tgt': '배움이 마치는 곳을 알아 그것을 마치는 것이니,', 'score': 0.61865234375}, {'src_idx': 3, 'tgt_idx': 3, 'src': '知學之終處而終之니', 'tgt': '배움이 마치는 곳을 알아 그것을 마치는 것이니,', 'score': 0.70458984375}, {'src_idx': 4, 'tgt_idx': 4, 'src': '然後에', 'tgt': '그러한 뒤에', 'score': 0.80126953125}, {'src_idx': 5, 'tgt_idx': 5, 'src': '可與守義라', 'tgt': '더불어 의(義)를 지킬 수 있다.', 'score': 0.66259765625}]</t>
+          <t>[{'src_idx': 3, 'tgt_idx': 3, 'src': '知學之終處而終之니', 'tgt': '배움이 마치는 곳을 알아 그것을 마치는 것이니, 그러한', 'score': 0.51407279115957}, {'src_idx': 4, 'tgt_idx': 4, 'src': '然後에', 'tgt': '뒤에', 'score': 0.6101825190030464}, {'src_idx': 5, 'tgt_idx': 5, 'src': '可與守義라', 'tgt': '더불어 의(義)를 지킬 수 있다.', 'score': 0.5004593140274624}]</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2589,7 +2589,7 @@
         <v>6</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2618,12 +2618,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['왕형공(王荊公)(왕안석(王安石))이', '말하기를', '“구삼효(九三爻)는', '구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고', '하였는데, 이런 해석은 대단히 일을 그르친다.']</t>
+          <t>['왕형공(王荊公)(왕안석(王安石))이', '말하기를', '“구삼효(九三爻)는', '구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고 하였는데, 이런 해석은', '대단히 일을 그르친다.']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '王荊公이', 'tgt': '왕형공(王荊公)(왕안석(王安石))이', 'score': 0.55517578125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '九三은', 'tgt': '“구삼효(九三爻)는', 'score': 0.5498046875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '知九五之位可至而至之라하니', 'tgt': '구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고', 'score': 0.7138671875}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '王荊公이', 'tgt': '왕형공(王荊公)(왕안석(王安石))이', 'score': 0.7111588894348211}, {'src_idx': 2, 'tgt_idx': 2, 'src': '九三은', 'tgt': '“구삼효(九三爻)는', 'score': 0.5007476124769591}, {'src_idx': 3, 'tgt_idx': 3, 'src': '知九五之位可至而至之라하니', 'tgt': '구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고 하였는데, 이런 해석은', 'score': 0.5553505519384756}]</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2662,12 +2662,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['가령 인신(人臣)이', '항상 이러한 마음을 품으면 이는', '세상을 크게 어지럽히는 도(道)이고,', '또한 탕(湯)․무(武)를 알지 못하는', '것이다. “이를 바를 알아 그곳에 이른다.” 라는', '것은 단지 그 도에 이르는 것일 뿐이다.']</t>
+          <t>['가령 인신(人臣)이', '항상 이러한 마음을 품으면', '이는 세상을 크게 어지럽히는 도(道)이고,', '또한 탕(湯)․무(武)를 알지 못하는', '것이다. “이를 바를 알아 그곳에 이른다.” 라는 것은', '단지 그 도에 이르는 것일 뿐이다.']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '使人臣이', 'tgt': '가령 인신(人臣)이', 'score': 0.58984375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '常懷此心이면', 'tgt': '항상 이러한 마음을 품으면 이는', 'score': 0.8623046875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '大亂之道요', 'tgt': '세상을 크게 어지럽히는 도(道)이고,', 'score': 0.5283203125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '亦自不識湯武라', 'tgt': '또한 탕(湯)․무(武)를 알지 못하는', 'score': 0.7490234375}, {'src_idx': 5, 'tgt_idx': 5, 'src': '只是至其道也라', 'tgt': '것은 단지 그 도에 이르는 것일 뿐이다.', 'score': 0.75146484375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '使人臣이', 'tgt': '가령 인신(人臣)이', 'score': 0.5953286499860085}, {'src_idx': 1, 'tgt_idx': 1, 'src': '常懷此心이면', 'tgt': '항상 이러한 마음을 품으면', 'score': 0.6137677737730086}, {'src_idx': 3, 'tgt_idx': 3, 'src': '亦自不識湯武라', 'tgt': '또한 탕(湯)․무(武)를 알지 못하는', 'score': 0.5489344074496179}, {'src_idx': 5, 'tgt_idx': 5, 'src': '只是至其道也라', 'tgt': '단지 그 도에 이르는 것일 뿐이다.', 'score': 0.5184349965113837}]</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2677,7 +2677,7 @@
         <v>6</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2706,12 +2706,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['형공(荊公)(왕안석(王安石))이', '“용구(用九)는', '단지 상구효(上九爻)', '한 효(爻)에', '해당된다.” 라고 말한 것은 옳지 않다.']</t>
+          <t>['형공(荊公)(왕안석(王安石))이', '“용구(用九)는 단지', '상구효(上九爻)', '한 효(爻)에 해당된다.” 라고 말한 것은 옳지', '않다.']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '荊公이', 'tgt': '형공(荊公)(왕안석(王安石))이', 'score': 0.58056640625}, {'src_idx': 2, 'tgt_idx': 1, 'src': '用九는', 'tgt': '“용구(用九)는', 'score': 0.76904296875}, {'src_idx': 3, 'tgt_idx': 2, 'src': '只在上九一爻라함은', 'tgt': '단지 상구효(上九爻)', 'score': 0.6806640625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '荊公이', 'tgt': '형공(荊公)(왕안석(王安石))이', 'score': 0.5569731686088838}]</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2721,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2750,12 +2750,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['여섯 효가', '모두 구(九)를 쓴다.']</t>
+          <t>['여섯', '효가 모두 구(九)를 쓴다.']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '六爻는', 'tgt': '여섯 효가', 'score': 0.6318359375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '皆用九라', 'tgt': '모두 구(九)를 쓴다.', 'score': 0.6640625}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2765,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 4, 'src': '曰', 'tgt': '길하리라.” 라고 한 것이다.', 'score': 0.53955078125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '見群龍호되', 'tgt': '용(龍)을 보되', 'score': 0.65087890625}, {'src_idx': 3, 'tgt_idx': 3, 'src': '无首하면', 'tgt': '앞장서지 말면', 'score': 0.62158203125}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '見群龍호되', 'tgt': '용(龍)을 보되', 'score': 0.5128547820285748}]</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2809,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['구(九)를 쓰는 것은', '곧 강건함을 행하는 것이다. “용구(用九)는', '천덕(天德)은', '우두머리가 되어서는 안 된다는 것이다.” 라는', '것은 ‘건(乾)은 지극히 강건하니,', '또한 어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.']</t>
+          <t>['구(九)를', '쓰는 것은 곧 강건함을 행하는 것이다. “용구(用九)는', '천덕(天德)은', '우두머리가 되어서는 안 된다는 것이다.” 라는 것은', '‘건(乾)은 지극히 강건하니, 또한', '어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '用九는', 'tgt': '구(九)를 쓰는 것은', 'score': 0.68798828125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '便是行健處라', 'tgt': '곧 강건함을 행하는 것이다. “용구(用九)는', 'score': 0.51171875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '天德은', 'tgt': '천덕(天德)은', 'score': 0.7861328125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '不可爲首라함은', 'tgt': '우두머리가 되어서는 안 된다는 것이다.” 라는', 'score': 0.7099609375}, {'src_idx': 4, 'tgt_idx': 4, 'src': '言乾以至剛健하니', 'tgt': '것은 ‘건(乾)은 지극히 강건하니,', 'score': 0.71630859375}, {'src_idx': 5, 'tgt_idx': 5, 'src': '又安可更爲物先이리오', 'tgt': '또한 어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.', 'score': 0.5419921875}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '用九는', 'tgt': '구(九)를', 'score': 0.6943291898355256}, {'src_idx': 2, 'tgt_idx': 2, 'src': '天德은', 'tgt': '천덕(天德)은', 'score': 0.596887405880553}, {'src_idx': 4, 'tgt_idx': 4, 'src': '言乾以至剛健하니', 'tgt': '‘건(乾)은 지극히 강건하니, 또한', 'score': 0.5330265770558751}]</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2853,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2882,12 +2882,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['남보다 앞장서면', '화(禍)가 있으니,', '이른바 “감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.']</t>
+          <t>['남보다 앞장서면', '화(禍)가 있으니, 이른바', '“감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '爲物先이면', 'tgt': '남보다 앞장서면', 'score': 0.662109375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '則有禍하니', 'tgt': '화(禍)가 있으니,', 'score': 0.77978515625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '所謂不敢爲天下先이라', 'tgt': '이른바 “감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.', 'score': 0.6904296875}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '則有禍하니', 'tgt': '화(禍)가 있으니, 이른바', 'score': 0.6467068456527755}]</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2897,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2926,12 +2926,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['건(乾)은 때에 순응하여 움직이니,', '지나치지', '않는 것이 곧 우두머리가 되지 않는 것이다.']</t>
+          <t>['건(乾)은 때에 순응하여 움직이니, 지나치지 않는', '것이', '곧 우두머리가 되지 않는 것이다.']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '乾順時而動이니', 'tgt': '건(乾)은 때에 순응하여 움직이니,', 'score': 0.78076171875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '便是不爲首라', 'tgt': '않는 것이 곧 우두머리가 되지 않는 것이다.', 'score': 0.6943359375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '乾順時而動이니', 'tgt': '건(乾)은 때에 순응하여 움직이니, 지나치지 않는', 'score': 0.5269154118771822}]</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2941,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '六爻皆同이라', 'tgt': '건괘(乾卦)는 여섯 효가 모두 동일하다.', 'score': 0.734375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '六爻皆同이라', 'tgt': '건괘(乾卦)는 여섯 효가 모두 동일하다.', 'score': 0.5908347425446743}]</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '胡先生은', 'tgt': '“호선생(胡先生)(호원(胡瑗))은', 'score': 0.6669921875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '解九四하여', 'tgt': '건괘(乾卦) 구사효(九四爻)를', 'score': 0.5400390625}, {'src_idx': 3, 'tgt_idx': 3, 'src': '作太子한대', 'tgt': '태자(太子)로', 'score': 0.609375}, {'src_idx': 4, 'tgt_idx': 4, 'src': '恐不是卦義니이다', 'tgt': '풀이하였는데, 이는 괘(卦)의 뜻이 아닌 듯합니다.”', 'score': 0.74462890625}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '胡先生은', 'tgt': '“호선생(胡先生)(호원(胡瑗))은', 'score': 0.6278044458485427}, {'src_idx': 3, 'tgt_idx': 3, 'src': '作太子한대', 'tgt': '태자(太子)로', 'score': 0.6042690857951225}]</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -3029,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先生이', 'tgt': '선생이', 'score': 0.68701171875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦不妨하니', 'tgt': '“그 또한 무방하니,', 'score': 0.72802734375}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只看如何用이라', 'tgt': '단지 어떻게 쓰는지를 볼 뿐이다.', 'score': 0.8330078125}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先生이', 'tgt': '선생이', 'score': 0.6303623388829723}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦不妨하니', 'tgt': '“그 또한 무방하니,', 'score': 0.517029179945821}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只看如何用이라', 'tgt': '단지 어떻게 쓰는지를 볼 뿐이다.', 'score': 0.6439903774681929}]</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['태자로 보는 것이 합당하면', '태자로 보는 것이다.']</t>
+          <t>['태자로 보는 것이', '합당하면 태자로 보는 것이다.']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '則做儲貳라', 'tgt': '태자로 보는 것이다.', 'score': 0.537109375}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '使九四近君이면', 'tgt': '만약 구사효(九四爻)가 임금에 가까우면', 'score': 0.68896484375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦不害라', 'tgt': '무방하다.', 'score': 0.65380859375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '使九四近君이면', 'tgt': '만약 구사효(九四爻)가 임금에 가까우면', 'score': 0.531099196151548}]</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -3161,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3190,12 +3190,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['다만 한 가지에 구애되어서는 안', '되니, 만약 한 가지 일만', '고집한다면 384효(爻)가', '단지 384건의 일이 되는 데에서 그칠 뿐이다.”']</t>
+          <t>['다만 한 가지에 구애되어서는 안 되니,', '만약 한 가지 일만 고집한다면', '384효(爻)가', '단지 384건의 일이 되는 데에서 그칠 뿐이다.”']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '但不要拘一이니', 'tgt': '다만 한 가지에 구애되어서는 안', 'score': 0.73974609375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '若執一事면', 'tgt': '되니, 만약 한 가지 일만', 'score': 0.74853515625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '則三百八十四爻가', 'tgt': '고집한다면 384효(爻)가', 'score': 0.7021484375}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只作得三百八十四件事便休也라', 'tgt': '단지 384건의 일이 되는 데에서 그칠 뿐이다.”', 'score': 0.693359375}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '則三百八十四爻가', 'tgt': '384효(爻)가', 'score': 0.6283787784925972}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只作得三百八十四件事便休也라', 'tgt': '단지 384건의 일이 되는 데에서 그칠 뿐이다.”', 'score': 0.5216515749755769}]</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -3205,7 +3205,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '看易에', 'tgt': '&lt;선생이 말하였다.&gt; “≪주역(周易)≫을 볼 적에는 우선', 'score': 0.5595703125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '且要知時라', 'tgt': '때를 알아야 한다.', 'score': 0.74072265625}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3249,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '凡六爻는', 'tgt': '무릇 한 괘(卦)의 여섯 효(爻)는', 'score': 0.65283203125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '人人有用이니', 'tgt': '사람마다 용도가 따로 있다.', 'score': 0.7626953125}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '凡六爻는', 'tgt': '무릇 한 괘(卦)의 여섯 효(爻)는', 'score': 0.5457206584748329}, {'src_idx': 1, 'tgt_idx': 1, 'src': '人人有用이니', 'tgt': '사람마다 용도가 따로 있다.', 'score': 0.5371954119713808}]</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3322,12 +3322,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['성인(聖人)에게는', '성인의 용도가 있고,', '현인(賢人)에게는', '현인의 용도가 있다.']</t>
+          <t>['성인(聖人)에게는', '성인의 용도가 있고,', '현인(賢人)에게는 현인의', '용도가 있다.']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '聖人은', 'tgt': '성인(聖人)에게는', 'score': 0.74169921875}, {'src_idx': 1, 'tgt_idx': 0, 'src': '自有聖人用하고', 'tgt': '성인(聖人)에게는', 'score': 0.64111328125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '賢人은', 'tgt': '현인(賢人)에게는', 'score': 0.7783203125}, {'src_idx': 3, 'tgt_idx': 2, 'src': '自有賢人用하고', 'tgt': '현인(賢人)에게는', 'score': 0.6591796875}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '聖人은', 'tgt': '성인(聖人)에게는', 'score': 0.6424917552020923}, {'src_idx': 1, 'tgt_idx': 0, 'src': '自有聖人用하고', 'tgt': '성인(聖人)에게는', 'score': 0.5145831356448191}, {'src_idx': 2, 'tgt_idx': 2, 'src': '賢人은', 'tgt': '현인(賢人)에게는 현인의', 'score': 0.5789076222447425}]</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3337,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '衆人은', 'tgt': '일반인에게는', 'score': 0.63916015625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '自有衆人用하고', 'tgt': '일반인의 용도가 있고,', 'score': 0.708984375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '學者는', 'tgt': '학자에게는', 'score': 0.7998046875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '自有學者用하고', 'tgt': '학자의 용도가 있다.', 'score': 0.6845703125}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '自有衆人用하고', 'tgt': '일반인의 용도가 있고,', 'score': 0.5859165368477675}, {'src_idx': 2, 'tgt_idx': 2, 'src': '學者는', 'tgt': '학자에게는', 'score': 0.54367835142319}, {'src_idx': 3, 'tgt_idx': 3, 'src': '自有學者用하고', 'tgt': '학자의 용도가 있다.', 'score': 0.6373630720101159}]</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3381,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3410,12 +3410,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['임금에게는 임금의 용도가', '있고, 신하에게는 신하의 용도가', '있어 통하지 않는 바가 없다.”']</t>
+          <t>['임금에게는 임금의 용도가 있고, 신하에게는 신하의', '용도가 있어', '통하지 않는 바가 없다.”']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 1, 'src': '君有君用하고', 'tgt': '있고, 신하에게는 신하의 용도가', 'score': 0.6455078125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '臣有臣用하여', 'tgt': '있고, 신하에게는 신하의 용도가', 'score': 0.73388671875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '無所不通이라', 'tgt': '있어 통하지 않는 바가 없다.”', 'score': 0.67529296875}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 1, 'src': '君有君用하고', 'tgt': '용도가 있어', 'score': 0.5656554191374202}]</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3425,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 2, 'src': '因問호되', 'tgt': '신하의 일이니,', 'score': 0.57275390625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '坤卦는', 'tgt': '“곤괘(坤卦)는', 'score': 0.73486328125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '是臣之事니', 'tgt': '신하의 일이니,', 'score': 0.70751953125}, {'src_idx': 4, 'tgt_idx': 4, 'src': '有用處否잇가', 'tgt': '쓸 곳이 있겠습니까?”', 'score': 0.66162109375}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '坤卦는', 'tgt': '“곤괘(坤卦)는', 'score': 0.6936514022996529}]</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3469,7 +3469,7 @@
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先生曰', 'tgt': '선생이 말하였다.', 'score': 0.716796875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '是何無用이리오', 'tgt': '“어찌 쓸 곳이 없겠는가?', 'score': 0.509765625}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3513,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3542,12 +3542,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['예컨대 ‘두터운 덕으로 만물을 실어준다.’', '라는 것을 임금이', '어찌 쓰지 않을 수 있겠는가?”']</t>
+          <t>['예컨대 ‘두터운 덕으로 만물을', '실어준다.’ 라는 것을 임금이 어찌 쓰지', '않을 수 있겠는가?”']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如厚德載物을', 'tgt': '예컨대 ‘두터운 덕으로 만물을 실어준다.’', 'score': 0.64990234375}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3557,7 +3557,7 @@
         <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '陰爲小人이요', 'tgt': '음(陰)은 소인(小人)이고', 'score': 0.81640625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '利爲不善이나', 'tgt': '이(利)는 불선(不善)이나,', 'score': 0.748046875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不可一槪論이라', 'tgt': '일률적으로 논해서는 안 된다.', 'score': 0.7490234375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '陰爲小人이요', 'tgt': '음(陰)은 소인(小人)이고', 'score': 0.6545390275019817}, {'src_idx': 1, 'tgt_idx': 1, 'src': '利爲不善이나', 'tgt': '이(利)는 불선(不善)이나,', 'score': 0.6377292911737751}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不可一槪論이라', 'tgt': '일률적으로 논해서는 안 된다.', 'score': 0.510356705672252}]</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3630,12 +3630,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['음(陰)이 양(陽)을 도와 만물을 이루는 것이', '군자(君子)이고, 음(陰)이', '양(陽)을 해치는', '것이 소인(小人)이다.']</t>
+          <t>['음(陰)이 양(陽)을 도와 만물을 이루는 것이', '군자(君子)이고, 음(陰)이', '양(陽)을 해치는 것이', '소인(小人)이다.']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '夫陰助陽以成物者가', 'tgt': '음(陰)이 양(陽)을 도와 만물을 이루는 것이', 'score': 0.78955078125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '君子也요', 'tgt': '군자(君子)이고, 음(陰)이', 'score': 0.59521484375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '其害陽者가', 'tgt': '양(陽)을 해치는', 'score': 0.7998046875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '小人也라', 'tgt': '것이 소인(小人)이다.', 'score': 0.54541015625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '夫陰助陽以成物者가', 'tgt': '음(陰)이 양(陽)을 도와 만물을 이루는 것이', 'score': 0.5734579239961899}, {'src_idx': 1, 'tgt_idx': 1, 'src': '君子也요', 'tgt': '군자(君子)이고, 음(陰)이', 'score': 0.5317268680477322}, {'src_idx': 2, 'tgt_idx': 2, 'src': '其害陽者가', 'tgt': '양(陽)을 해치는 것이', 'score': 0.5525040792470909}, {'src_idx': 3, 'tgt_idx': 3, 'src': '小人也라', 'tgt': '소인(小人)이다.', 'score': 0.6504258698404551}]</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3674,12 +3674,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['이(利)가 의(義)에 조화로운', '것이 선(善)이고, 이(利)가', '의(義)를 해치는 것이', '불선(不善)이다.']</t>
+          <t>['이(利)가 의(義)에 조화로운 것이', '선(善)이고,', '이(利)가 의(義)를 해치는 것이', '불선(不善)이다.']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '夫利和義者가', 'tgt': '이(利)가 의(義)에 조화로운', 'score': 0.6298828125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '其害義者가', 'tgt': '의(義)를 해치는 것이', 'score': 0.73974609375}, {'src_idx': 3, 'tgt_idx': 3, 'src': '不善也라', 'tgt': '불선(不善)이다.', 'score': 0.6376953125}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '夫利和義者가', 'tgt': '이(利)가 의(義)에 조화로운 것이', 'score': 0.5016373198652305}, {'src_idx': 2, 'tgt_idx': 2, 'src': '其害義者가', 'tgt': '이(利)가 의(義)를 해치는 것이', 'score': 0.5166569282663768}]</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3689,7 +3689,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 2, 'src': '利貞者는', 'tgt': '정(貞)이', 'score': 0.55908203125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '性情也라함은', 'tgt': '성정(性情)이다.’ 라는 것은 이(利)와', 'score': 0.62255859375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言利貞이', 'tgt': '정(貞)이', 'score': 0.62255859375}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是乾之性情이라', 'tgt': '곧 건(乾)의 성정(性情)임을 말한다.”', 'score': 0.71142578125}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 2, 'src': '利貞者는', 'tgt': '정(貞)이', 'score': 0.5012454399799873}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言利貞이', 'tgt': '정(貞)이', 'score': 0.5487254565067421}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是乾之性情이라', 'tgt': '곧 건(乾)의 성정(性情)임을 말한다.”', 'score': 0.6165992372154988}]</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3733,7 +3733,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3762,12 +3762,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['인하여 선생에게 물었다.', '“이 이(利)와 ‘이(利)를 근본으로 삼는다.’ 라는 말의', '이(利)는 같습니까?”']</t>
+          <t>['인하여 선생에게 물었다. “이 이(利)와', '‘이(利)를 근본으로 삼는다.’ 라는 말의 이(利)는', '같습니까?”']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '因問호되', 'tgt': '인하여 선생에게 물었다.', 'score': 0.5712890625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '利與以利爲本之利는', 'tgt': '“이 이(利)와 ‘이(利)를 근본으로 삼는다.’ 라는 말의', 'score': 0.73974609375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '同否잇가', 'tgt': '이(利)는 같습니까?”', 'score': 0.5}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '利與以利爲本之利는', 'tgt': '‘이(利)를 근본으로 삼는다.’ 라는 말의 이(利)는', 'score': 0.6572623615545898}]</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先生曰', 'tgt': '선생이 말하였다.', 'score': 0.716796875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '凡字只有一箇나', 'tgt': '“무릇 글자는 하나이지만', 'score': 0.59375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '用有不同하니', 'tgt': '쓰임에는 같지 않음이 있으니,', 'score': 0.7666015625}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只看如何用이라', 'tgt': '어떻게 쓰는지를 볼 뿐이다.', 'score': 0.83544921875}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '用有不同하니', 'tgt': '쓰임에는 같지 않음이 있으니,', 'score': 0.5071732611645435}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只看如何用이라', 'tgt': '어떻게 쓰는지를 볼 뿐이다.', 'score': 0.6299823311204087}]</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3821,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '凡順理無害處가', 'tgt': '무릇 이치에 순응하여 해침이 없는 것이 곧', 'score': 0.66845703125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '便是利니', 'tgt': '이(利)이니,', 'score': 0.62646484375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '君子未嘗不欲利라', 'tgt': '군자(君子)는 일찍이 이(利)를 바라지 않은 적이 없다.', 'score': 0.70654296875}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '便是利니', 'tgt': '이(利)이니,', 'score': 0.5169611991084793}, {'src_idx': 2, 'tgt_idx': 2, 'src': '君子未嘗不欲利라', 'tgt': '군자(君子)는 일찍이 이(利)를 바라지 않은 적이 없다.', 'score': 0.5878066377889426}]</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3865,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3894,12 +3894,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’', '라고 말한 경우는 대개 이(利)만을 마음에 두면', '해로움이 있기 때문이다.']</t>
+          <t>['그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’ 라고 말한', '경우는 대개 이(利)만을 마음에 두면', '해로움이 있기 때문이다.']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然孟子言何必曰利者는', 'tgt': '그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’', 'score': 0.72509765625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '蓋只以利爲心이면', 'tgt': '라고 말한 경우는 대개 이(利)만을 마음에 두면', 'score': 0.71484375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '則有害일새라', 'tgt': '해로움이 있기 때문이다.', 'score': 0.6015625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然孟子言何必曰利者는', 'tgt': '그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’ 라고 말한', 'score': 0.5425640587062547}, {'src_idx': 1, 'tgt_idx': 1, 'src': '蓋只以利爲心이면', 'tgt': '경우는 대개 이(利)만을 마음에 두면', 'score': 0.552670206300659}]</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3909,7 +3909,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如上下交征利而國危는', 'tgt': '예컨대 ‘윗사람과 아랫사람이 서로 이(利)를 취한다면 나라가 위태로울', 'score': 0.74951171875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '便是有害라', 'tgt': '것이다.’ 라는 것은 바로 해로움이 있는 것이다.', 'score': 0.64501953125}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3953,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3982,12 +3982,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['‘인(仁)하면서도 자기 어버이를 버리는 자는', '있지 않으며, 의로우면서도 자기 임금을 뒤로하는 자는', '있지 않다.’ 라고 하였으니, 자기 어버이를 버리지 않고', '자기 임금을 뒤로하지 않는 것이 곧', '이(利)이다.']</t>
+          <t>['‘인(仁)하면서도 자기 어버이를 버리는 자는 있지 않으며, 의로우면서도', '자기 임금을 뒤로하는 자는 있지 않다.’ 라고', '하였으니, 자기 어버이를 버리지 않고', '자기 임금을 뒤로하지 않는 것이 곧', '이(利)이다.']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '未有仁而遺其親이며', 'tgt': '‘인(仁)하면서도 자기 어버이를 버리는 자는', 'score': 0.66650390625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '未有義而後其君이라하니', 'tgt': '있지 않으며, 의로우면서도 자기 임금을 뒤로하는 자는', 'score': 0.626953125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不遺其親하고', 'tgt': '있지 않다.’ 라고 하였으니, 자기 어버이를 버리지 않고', 'score': 0.7119140625}, {'src_idx': 3, 'tgt_idx': 1, 'src': '不後其君이', 'tgt': '있지 않으며, 의로우면서도 자기 임금을 뒤로하는 자는', 'score': 0.544921875}, {'src_idx': 4, 'tgt_idx': 4, 'src': '便是利라', 'tgt': '이(利)이다.', 'score': 0.568359375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '未有仁而遺其親이며', 'tgt': '‘인(仁)하면서도 자기 어버이를 버리는 자는 있지 않으며, 의로우면서도', 'score': 0.5377928934059717}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不遺其親하고', 'tgt': '하였으니, 자기 어버이를 버리지 않고', 'score': 0.5113320271066581}]</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3997,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '仁義는', 'tgt': '인(仁)과 의(義)는', 'score': 0.70654296875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '未嘗不利라', 'tgt': '일찍이 이롭지 않은 적이 없다.”', 'score': 0.5400390625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '仁義는', 'tgt': '인(仁)과 의(義)는', 'score': 0.6910577045514334}]</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -4041,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['사사직(謝師直)(사영온(謝景溫))은', '장안(長安)의 조사(漕司)이고', '명도(明道)는', '호현(鄠縣)의 주부(主簿)였을 적에', '≪주역(周易)≫과 ≪춘추(春秋)≫를 논하였는데,', '명도가', '말하기를', '“전운사(轉運使)께서는', '≪춘추≫에는', '오히려 장점이 있으나,', '≪주역≫은', '전혀 이해를 못하십니다.” 라고 하였다.']</t>
+          <t>['사사직(謝師直)(사영온(謝景溫))은', '장안(長安)의 조사(漕司)이고', '명도(明道)는', '호현(鄠縣)의 주부(主簿)였을 적에', '≪주역(周易)≫과 ≪춘추(春秋)≫를 논하였는데,', '명도가', '말하기를', '“전운사(轉運使)께서는', '≪춘추≫에는', '오히려 장점이 있으나, ≪주역≫은 전혀', '이해를', '못하십니다.” 라고 하였다.']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '謝師直은', 'tgt': '사사직(謝師直)(사영온(謝景溫))은', 'score': 0.57958984375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '爲長安漕하고', 'tgt': '장안(長安)의 조사(漕司)이고', 'score': 0.6552734375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '明道는', 'tgt': '명도(明道)는', 'score': 0.8154296875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '爲鄠縣簿할새', 'tgt': '호현(鄠縣)의 주부(主簿)였을 적에', 'score': 0.65185546875}, {'src_idx': 4, 'tgt_idx': 4, 'src': '論易及春秋라', 'tgt': '≪주역(周易)≫과 ≪춘추(春秋)≫를 논하였는데,', 'score': 0.66162109375}, {'src_idx': 5, 'tgt_idx': 2, 'src': '明道가', 'tgt': '명도(明道)는', 'score': 0.67041015625}, {'src_idx': 7, 'tgt_idx': 7, 'src': '運使는', 'tgt': '“전운사(轉運使)께서는', 'score': 0.61962890625}, {'src_idx': 8, 'tgt_idx': 8, 'src': '春秋엔', 'tgt': '≪춘추≫에는', 'score': 0.5625}, {'src_idx': 9, 'tgt_idx': 9, 'src': '猶有所長이나', 'tgt': '오히려 장점이 있으나,', 'score': 0.53857421875}, {'src_idx': 11, 'tgt_idx': 11, 'src': '則全理會不得이라', 'tgt': '전혀 이해를 못하십니다.” 라고 하였다.', 'score': 0.5283203125}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '謝師直은', 'tgt': '사사직(謝師直)(사영온(謝景溫))은', 'score': 0.6618159526391757}, {'src_idx': 1, 'tgt_idx': 1, 'src': '爲長安漕하고', 'tgt': '장안(長安)의 조사(漕司)이고', 'score': 0.5156618235972776}, {'src_idx': 2, 'tgt_idx': 2, 'src': '明道는', 'tgt': '명도(明道)는', 'score': 0.6113440980793339}, {'src_idx': 4, 'tgt_idx': 4, 'src': '論易及春秋라', 'tgt': '≪주역(周易)≫과 ≪춘추(春秋)≫를 논하였는데,', 'score': 0.59600841289149}, {'src_idx': 5, 'tgt_idx': 2, 'src': '明道가', 'tgt': '명도(明道)는', 'score': 0.5611354459660229}, {'src_idx': 7, 'tgt_idx': 7, 'src': '運使는', 'tgt': '“전운사(轉運使)께서는', 'score': 0.5545049417880219}, {'src_idx': 9, 'tgt_idx': 9, 'src': '猶有所長이나', 'tgt': '오히려 장점이 있으나, ≪주역≫은 전혀', 'score': 0.5072925631742194}]</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -4085,7 +4085,7 @@
         <v>12</v>
       </c>
       <c r="I83" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4114,12 +4114,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['사직(師直)이', '어느 날 선생에게 그 말을 하자,', '선생이', '답하였다.', '“제가 보기로는', '두 분 모두 ≪주역≫을 깊이 아는 분입니다.”']</t>
+          <t>['사직(師直)이', '어느 날 선생에게 그 말을 하자,', '선생이', '답하였다. “제가', '보기로는', '두 분 모두 ≪주역≫을 깊이 아는 분입니다.”']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '師直이', 'tgt': '사직(師直)이', 'score': 0.6904296875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '一日說與先生하니', 'tgt': '어느 날 선생에게 그 말을 하자,', 'score': 0.74658203125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '先生이', 'tgt': '선생이', 'score': 0.68701171875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '答曰', 'tgt': '답하였다.', 'score': 0.7353515625}, {'src_idx': 4, 'tgt_idx': 4, 'src': '據某所見컨대', 'tgt': '“제가 보기로는', 'score': 0.7802734375}, {'src_idx': 5, 'tgt_idx': 5, 'src': '二公皆深知易者라', 'tgt': '두 분 모두 ≪주역≫을 깊이 아는 분입니다.”', 'score': 0.72119140625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '師直이', 'tgt': '사직(師直)이', 'score': 0.7658790031704541}, {'src_idx': 2, 'tgt_idx': 2, 'src': '先生이', 'tgt': '선생이', 'score': 0.6303623388829723}, {'src_idx': 5, 'tgt_idx': 5, 'src': '二公皆深知易者라', 'tgt': '두 분 모두 ≪주역≫을 깊이 아는 분입니다.”', 'score': 0.5150063051752297}]</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -4129,7 +4129,7 @@
         <v>6</v>
       </c>
       <c r="I84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '師直曰', 'tgt': '사직이 말하였다.', 'score': 0.55078125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '何故아', 'tgt': '“어째서입니까?”', 'score': 0.67529296875}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -4173,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4202,12 +4202,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['선생이 말하였다.', '“전운사로서 능히 절조를 굽혀 일개 주부에게 물었으며, 일개 주부로서 전운사에게 ≪주역≫을', '알지 못한다고 감히 말하였으니, ≪주역≫의', '도를 깊이 아는 사람이 아니라면 그렇게', '할 수 없습니다.”']</t>
+          <t>['선생이 말하였다.', '“전운사로서 능히 절조를 굽혀 일개', '주부에게 물었으며, 일개 주부로서 전운사에게 ≪주역≫을 알지 못한다고 감히 말하였으니, ≪주역≫의 도를', '깊이 아는 사람이 아니라면 그렇게', '할 수 없습니다.”']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先生曰', 'tgt': '선생이 말하였다.', 'score': 0.716796875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '以運使能屈節問一主簿하고', 'tgt': '“전운사로서 능히 절조를 굽혀 일개 주부에게 물었으며, 일개 주부로서 전운사에게 ≪주역≫을', 'score': 0.650390625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '以一主簿敢言運使不知易하니', 'tgt': '알지 못한다고 감히 말하였으니, ≪주역≫의', 'score': 0.64453125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '非深知易道者어든', 'tgt': '도를 깊이 아는 사람이 아니라면 그렇게', 'score': 0.6669921875}, {'src_idx': 4, 'tgt_idx': 4, 'src': '不能이라', 'tgt': '할 수 없습니다.”', 'score': 0.74462890625}]</t>
+          <t>[{'src_idx': 4, 'tgt_idx': 4, 'src': '不能이라', 'tgt': '할 수 없습니다.”', 'score': 0.5501015805310907}]</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -4217,7 +4217,7 @@
         <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['“구름이 가고 비가 내린다.” 라는 것은', '건(乾)이 형통한 것이다.']</t>
+          <t>['“구름이 가고 비가 내린다.” 라는', '것은 건(乾)이 형통한 것이다.']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '雲行雨施는', 'tgt': '“구름이 가고 비가 내린다.” 라는 것은', 'score': 0.53955078125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '是乾之亨處라', 'tgt': '건(乾)이 형통한 것이다.', 'score': 0.62060546875}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -4261,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4290,12 +4290,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['건괘(乾卦)의 여섯 효(爻)에서', '만일 성인(聖人)이 일찍이 실천한 점을 보고자', '한다면 마땅히 순(舜)임금의 일에서 볼 수 있다.']</t>
+          <t>['건괘(乾卦)의 여섯 효(爻)에서', '만일 성인(聖人)이 일찍이 실천한 점을 보고자 한다면', '마땅히 순(舜)임금의 일에서 볼 수 있다.']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '乾六爻에', 'tgt': '건괘(乾卦)의 여섯 효(爻)에서', 'score': 0.744140625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '如欲見聖人曾履處어든', 'tgt': '만일 성인(聖人)이 일찍이 실천한 점을 보고자', 'score': 0.6767578125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '當以舜可見이라', 'tgt': '한다면 마땅히 순(舜)임금의 일에서 볼 수 있다.', 'score': 0.7607421875}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '乾六爻에', 'tgt': '건괘(乾卦)의 여섯 효(爻)에서', 'score': 0.647498811005428}, {'src_idx': 2, 'tgt_idx': 2, 'src': '當以舜可見이라', 'tgt': '마땅히 순(舜)임금의 일에서 볼 수 있다.', 'score': 0.5309788036928609}]</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -4305,7 +4305,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['순임금이 미천한 지위에', '있었던 것이 곧 ‘잠(潛)’ 이고, 질그릇을 굽고', '물고기를 잡았을 때가', '곧 ‘견(見)’ 이고, 그윽한 덕이', '위로 올라가 알려진 때가', '곧 ‘건건(乾乾)’ 이고,', '대록(大麓)에 들어갔을 때가', '곧 ‘약(躍)’이다.']</t>
+          <t>['순임금이 미천한 지위에', '있었던 것이 곧 ‘잠(潛)’ 이고, 질그릇을', '굽고 물고기를 잡았을 때가', '곧 ‘견(見)’ 이고, 그윽한 덕이 위로 올라가 알려진', '때가', '곧 ‘건건(乾乾)’', '이고, 대록(大麓)에 들어갔을 때가', '곧 ‘약(躍)’이다.']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '在側陋가', 'tgt': '순임금이 미천한 지위에', 'score': 0.51416015625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '便是潛이요', 'tgt': '있었던 것이 곧 ‘잠(潛)’ 이고, 질그릇을 굽고', 'score': 0.69970703125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '陶漁時가', 'tgt': '물고기를 잡았을 때가', 'score': 0.560546875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是見(현)이요', 'tgt': '곧 ‘견(見)’ 이고, 그윽한 덕이', 'score': 0.7041015625}, {'src_idx': 4, 'tgt_idx': 4, 'src': '升聞時가', 'tgt': '위로 올라가 알려진 때가', 'score': 0.64794921875}, {'src_idx': 5, 'tgt_idx': 5, 'src': '便是乾乾이요', 'tgt': '곧 ‘건건(乾乾)’ 이고,', 'score': 0.72119140625}, {'src_idx': 6, 'tgt_idx': 6, 'src': '納于大麓時가', 'tgt': '대록(大麓)에 들어갔을 때가', 'score': 0.6923828125}, {'src_idx': 7, 'tgt_idx': 7, 'src': '便是躍이라', 'tgt': '곧 ‘약(躍)’이다.', 'score': 0.7548828125}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '陶漁時가', 'tgt': '굽고 물고기를 잡았을 때가', 'score': 0.5177518780388678}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是見(현)이요', 'tgt': '곧 ‘견(見)’ 이고, 그윽한 덕이 위로 올라가 알려진', 'score': 0.5133104949670142}, {'src_idx': 5, 'tgt_idx': 5, 'src': '便是乾乾이요', 'tgt': '곧 ‘건건(乾乾)’', 'score': 0.5866886230728213}]</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -4349,7 +4349,7 @@
         <v>8</v>
       </c>
       <c r="I89" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4378,12 +4378,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['개보(介甫)(왕안석(王安石))는', '무왕(武王)이 군대를 사열한 것을 건괘(乾卦)', '구사효(九四爻)의 의미로 여겼으니,', '이는 대단히 의리가 없다.']</t>
+          <t>['개보(介甫)(왕안석(王安石))는', '무왕(武王)이 군대를', '사열한 것을 건괘(乾卦) 구사효(九四爻)의', '의미로 여겼으니, 이는 대단히 의리가 없다.']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以武王觀兵으로', 'tgt': '무왕(武王)이 군대를 사열한 것을 건괘(乾卦)', 'score': 0.58447265625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '爲九四하니', 'tgt': '구사효(九四爻)의 의미로 여겼으니,', 'score': 0.56640625}, {'src_idx': 3, 'tgt_idx': 3, 'src': '大無義理요', 'tgt': '이는 대단히 의리가 없다.', 'score': 0.5361328125}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以武王觀兵으로', 'tgt': '무왕(武王)이 군대를', 'score': 0.6188382972570446}]</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4393,7 +4393,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '兼觀兵之說도', 'tgt': '아울러 무왕이 군대를 사열했다는 설', 'score': 0.53515625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '亦自無此事라', 'tgt': '또한 본래 그런 일이 없었다.', 'score': 0.65966796875}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4437,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如今日天命絶이면', 'tgt': '만약 오늘 천명(天命)이 끊어졌다면', 'score': 0.7431640625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '則今日便是獨夫니', 'tgt': '오늘 바로 독부(獨夫)이니,', 'score': 0.83984375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '豈容更留之三年이리오', 'tgt': '그가 다시 3년 동안 제위에 머무는 것을 어찌 용납하겠는가?', 'score': 0.5869140625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如今日天命絶이면', 'tgt': '만약 오늘 천명(天命)이 끊어졌다면', 'score': 0.6975741746794508}, {'src_idx': 1, 'tgt_idx': 1, 'src': '則今日便是獨夫니', 'tgt': '오늘 바로 독부(獨夫)이니,', 'score': 0.6235139222032032}, {'src_idx': 2, 'tgt_idx': 2, 'src': '豈容更留之三年이리오', 'tgt': '그가 다시 3년 동안 제위에 머무는 것을 어찌 용납하겠는가?', 'score': 0.5420147595333984}]</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -4510,12 +4510,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['오늘 천명(天命)이 아직 끊어지지 않았다면 아직', '임금이니, 신하된', '자가 어찌', '군대를 이끌고 자기 임금을 협박할 수 있겠는가.']</t>
+          <t>['오늘 천명(天命)이 아직 끊어지지 않았다면 아직', '임금이니,', '신하된 자가', '어찌 군대를 이끌고 자기 임금을 협박할 수 있겠는가.']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今日天命未絶이면', 'tgt': '오늘 천명(天命)이 아직 끊어지지 않았다면 아직', 'score': 0.82080078125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '便是君也니', 'tgt': '임금이니, 신하된', 'score': 0.52294921875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '爲人臣子가', 'tgt': '자가 어찌', 'score': 0.61376953125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '豈可以兵脅其君이리오', 'tgt': '군대를 이끌고 자기 임금을 협박할 수 있겠는가.', 'score': 0.6572265625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今日天命未絶이면', 'tgt': '오늘 천명(天命)이 아직 끊어지지 않았다면 아직', 'score': 0.6679280785085487}]</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4525,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4598,12 +4598,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['또 주(紂)는 사나움이 이와 같았는데', '태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고 하였으니,', '옳은지 알 수 없다.']</t>
+          <t>['또 주(紂)는', '사나움이 이와 같았는데 태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고', '하였으니, 옳은지 알 수 없다.']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '又紂鷙很若此한대', 'tgt': '또 주(紂)는 사나움이 이와 같았는데', 'score': 0.7021484375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '太史公謂有七十萬衆이라하니', 'tgt': '태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고 하였으니,', 'score': 0.7451171875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '未知是否라', 'tgt': '옳은지 알 수 없다.', 'score': 0.630859375}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '太史公謂有七十萬衆이라하니', 'tgt': '사나움이 이와 같았는데 태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고', 'score': 0.5531504813280341}, {'src_idx': 2, 'tgt_idx': 2, 'src': '未知是否라', 'tgt': '하였으니, 옳은지 알 수 없다.', 'score': 0.5011343199215351}]</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4613,7 +4613,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然書亦自云호되', 'tgt': '그러나 ≪서경(書經)≫에 또한', 'score': 0.6455078125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '紂之衆若林이라하니', 'tgt': '“주(紂)의 무리가 숲처럼 많다.” 고 하였으니,', 'score': 0.759765625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '三年之中에', 'tgt': '3년 동안', 'score': 0.724609375}, {'src_idx': 3, 'tgt_idx': 3, 'src': '豈肯容武王如此便休得也리오', 'tgt': '그가 어찌 무왕(武王)이 이와 같이 하는 것을 용납하여 내버려두려고 하였겠는가.', 'score': 0.64794921875}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '紂之衆若林이라하니', 'tgt': '“주(紂)의 무리가 숲처럼 많다.” 고 하였으니,', 'score': 0.5357935956959695}, {'src_idx': 2, 'tgt_idx': 2, 'src': '三年之中에', 'tgt': '3년 동안', 'score': 0.6208542826292135}, {'src_idx': 3, 'tgt_idx': 3, 'src': '豈肯容武王如此便休得也리오', 'tgt': '그가 어찌 무왕(武王)이 이와 같이 하는 것을 용납하여 내버려두려고 하였겠는가.', 'score': 0.5256352768444967}]</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -4657,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4686,12 +4686,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['단지 &lt;태서(泰誓)&gt; 한 편의 전서(前序)에', '‘십유일년(十有一年)’ 이라 하고, 그', '뒤 정경(正經)에', '‘유십유삼년(惟十有三年)’ 이라', '하여 선유(先儒)들이 잘못', '인식해서 드디어 군대를 사열했다는 설로 변한 것이다.']</t>
+          <t>['단지 &lt;태서(泰誓)&gt; 한 편의 전서(前序)에', '‘십유일년(十有一年)’ 이라 하고,', '그 뒤 정경(正經)에', '‘유십유삼년(惟十有三年)’ 이라 하여', '선유(先儒)들이 잘못', '인식해서 드디어 군대를 사열했다는 설로 변한 것이다.']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '只是太誓一篇前序云', 'tgt': '단지 &lt;태서(泰誓)&gt; 한 편의 전서(前序)에', 'score': 0.7861328125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '十有一年이라하고', 'tgt': '‘십유일년(十有一年)’ 이라 하고, 그', 'score': 0.82275390625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '後面正經에', 'tgt': '뒤 정경(正經)에', 'score': 0.83544921875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便說惟十有三年이라하여', 'tgt': '‘유십유삼년(惟十有三年)’ 이라', 'score': 0.8359375}, {'src_idx': 4, 'tgt_idx': 4, 'src': '先儒誤妄하여', 'tgt': '하여 선유(先儒)들이 잘못', 'score': 0.8017578125}, {'src_idx': 5, 'tgt_idx': 5, 'src': '遂轉爲觀兵之說이라', 'tgt': '인식해서 드디어 군대를 사열했다는 설로 변한 것이다.', 'score': 0.638671875}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '十有一年이라하고', 'tgt': '‘십유일년(十有一年)’ 이라 하고,', 'score': 0.6733361509046848}, {'src_idx': 2, 'tgt_idx': 2, 'src': '後面正經에', 'tgt': '그 뒤 정경(正經)에', 'score': 0.5517502871025743}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便說惟十有三年이라하여', 'tgt': '‘유십유삼년(惟十有三年)’ 이라 하여', 'score': 0.6452441098581372}, {'src_idx': 4, 'tgt_idx': 4, 'src': '先儒誤妄하여', 'tgt': '선유(先儒)들이 잘못', 'score': 0.569954280150373}]</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4701,7 +4701,7 @@
         <v>6</v>
       </c>
       <c r="I97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先王은', 'tgt': '선왕(先王)은', 'score': 0.81298828125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '無觀兵之事니', 'tgt': '군대를 사열한 일이 없었으니,', 'score': 0.56103515625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不是前序一字錯却이면', 'tgt': '전서(前序)의 ‘일(一)’ 자가 잘못된 것이 아니라면', 'score': 0.7685546875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是後面正經三字錯却이라', 'tgt': '그 뒤 정경(正經)의 ‘삼(三)’ 자가 잘못된 것이다.', 'score': 0.705078125}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先王은', 'tgt': '선왕(先王)은', 'score': 0.675724783667581}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不是前序一字錯却이면', 'tgt': '전서(前序)의 ‘일(一)’ 자가 잘못된 것이 아니라면', 'score': 0.5685330317073563}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是後面正經三字錯却이라', 'tgt': '그 뒤 정경(正經)의 ‘삼(三)’ 자가 잘못된 것이다.', 'score': 0.622741469497785}]</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4745,7 +4745,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先儒가', 'tgt': '선유(先儒)가', 'score': 0.81396484375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '以六爲老陰하고', 'tgt': '육(六)을 노음(老陰)이라 하고', 'score': 0.822265625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '八爲少陰하니', 'tgt': '팔(八)을 소음(少陰)이라 하였으니, 참으로', 'score': 0.6025390625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先儒가', 'tgt': '선유(先儒)가', 'score': 0.666319509703569}, {'src_idx': 1, 'tgt_idx': 1, 'src': '以六爲老陰하고', 'tgt': '육(六)을 노음(老陰)이라 하고', 'score': 0.6866173884368193}, {'src_idx': 2, 'tgt_idx': 2, 'src': '八爲少陰하니', 'tgt': '팔(八)을 소음(少陰)이라 하였으니, 참으로', 'score': 0.5406813079746049}]</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['개보(介甫)(왕안석(王安石))는', '‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니,', '이는 성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.']</t>
+          <t>['개보(介甫)(왕안석(王安石))는', '‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니, 이는', '성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以爲進君子而退小人하니', 'tgt': '‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니,', 'score': 0.69189453125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '則是聖人旋安排義理也라', 'tgt': '이는 성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.', 'score': 0.70166015625}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以爲進君子而退小人하니', 'tgt': '‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니, 이는', 'score': 0.5744441840457051}]</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4833,7 +4833,7 @@
         <v>3</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4862,12 +4862,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['이는', '음양(陰陽)의 수를 정한 것이니,', '어찌 의리를 말한 것이겠는가.']</t>
+          <t>['이는', '음양(陰陽)의 수를 정한', '것이니, 어찌 의리를 말한 것이겠는가.']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此는', 'tgt': '이는', 'score': 0.90576171875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '且定陰陽之數니', 'tgt': '음양(陰陽)의 수를 정한 것이니,', 'score': 0.7822265625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '豈便說得義理리오', 'tgt': '어찌 의리를 말한 것이겠는가.', 'score': 0.6240234375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此는', 'tgt': '이는', 'score': 0.8462833429025385}, {'src_idx': 1, 'tgt_idx': 1, 'src': '且定陰陽之數니', 'tgt': '음양(陰陽)의 수를 정한', 'score': 0.5882152038392583}]</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4877,7 +4877,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '九六은', 'tgt': '구(九)와 육(六)은', 'score': 0.5341796875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只是取純陰純陽이라', 'tgt': '단지 순음(純陰)과 순양(純陽)에서 취한 것이다.', 'score': 0.79931640625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '九六은', 'tgt': '구(九)와 육(六)은', 'score': 0.5402171282122058}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只是取純陰純陽이라', 'tgt': '단지 순음(純陰)과 순양(純陽)에서 취한 것이다.', 'score': 0.5994242017624432}]</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4950,12 +4950,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['오직 육(六)만이 순음(純陰)이', '되니, 단지 하도(河圖)의 수(數)에서 취하여 살펴보건대', '육(六)을 지나면 하나의 양(陽)이 생겨나니,', '팔(八)에 이르면', '곧 순음(純陰)이 아니다.']</t>
+          <t>['오직 육(六)만이 순음(純陰)이', '되니, 단지 하도(河圖)의 수(數)에서 취하여', '살펴보건대 육(六)을 지나면 하나의 양(陽)이 생겨나니,', '팔(八)에 이르면 곧', '순음(純陰)이 아니다.']</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '惟六爲純陰이니', 'tgt': '오직 육(六)만이 순음(純陰)이', 'score': 0.84033203125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只取河圖數見之컨대', 'tgt': '되니, 단지 하도(河圖)의 수(數)에서 취하여 살펴보건대', 'score': 0.83544921875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '過六則一陽生하니', 'tgt': '육(六)을 지나면 하나의 양(陽)이 생겨나니,', 'score': 0.765625}, {'src_idx': 3, 'tgt_idx': 3, 'src': '至八이면', 'tgt': '팔(八)에 이르면', 'score': 0.74365234375}, {'src_idx': 4, 'tgt_idx': 4, 'src': '便不是純陰이라', 'tgt': '곧 순음(純陰)이 아니다.', 'score': 0.7421875}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '惟六爲純陰이니', 'tgt': '오직 육(六)만이 순음(純陰)이', 'score': 0.7213009093040569}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只取河圖數見之컨대', 'tgt': '되니, 단지 하도(河圖)의 수(數)에서 취하여', 'score': 0.6061722876563085}, {'src_idx': 2, 'tgt_idx': 2, 'src': '過六則一陽生하니', 'tgt': '살펴보건대 육(六)을 지나면 하나의 양(陽)이 생겨나니,', 'score': 0.580553233642126}, {'src_idx': 3, 'tgt_idx': 3, 'src': '至八이면', 'tgt': '팔(八)에 이르면 곧', 'score': 0.5666911706090173}, {'src_idx': 4, 'tgt_idx': 4, 'src': '便不是純陰이라', 'tgt': '순음(純陰)이 아니다.', 'score': 0.6319199226944423}]</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘湄', 'tgt': '전(傳)의 [미(湄)', 'score': 0.724609375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '水隒’', 'tgt': '수엄(水隒)]', 'score': 0.720703125}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘湄', 'tgt': '전(傳)의 [미(湄)', 'score': 0.7275981683773499}, {'src_idx': 1, 'tgt_idx': 1, 'src': '水隒’', 'tgt': '수엄(水隒)]', 'score': 0.5370298545004953}]</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['정의왈(正義曰)：≪이아(爾雅)≫', '&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고', '하였으니 물과 풀이 만나는 곳을 말하니', '강기슭이다.']</t>
+          <t>['정의왈(正義曰)：≪이아(爾雅)≫', '&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고 하였으니', '물과 풀이 만나는 곳을 말하니', '강기슭이다.']</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰', 'tgt': '정의왈(正義曰)：≪이아(爾雅)≫', 'score': 0.734375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '釋水云“水草交爲湄.”', 'tgt': '&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고', 'score': 0.6298828125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '謂水草交際之處,', 'tgt': '하였으니 물과 풀이 만나는 곳을 말하니', 'score': 0.80908203125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '水之岸也.', 'tgt': '강기슭이다.', 'score': 0.7373046875}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰', 'tgt': '정의왈(正義曰)：≪이아(爾雅)≫', 'score': 0.5716891622291173}, {'src_idx': 1, 'tgt_idx': 1, 'src': '釋水云“水草交爲湄.”', 'tgt': '&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고 하였으니', 'score': 0.5270516527810607}]</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -5053,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['≪이아(爾雅)≫ &lt;석산(釋山)&gt;에', '“두 개의 시루가 포개진 것과 같은 곳이', '엄(隒)이다.”라고', '하였으니 엄(隒)은', '산기슭이고', '미(湄)는', '강기슭이다.']</t>
+          <t>['≪이아(爾雅)≫ &lt;석산(釋山)&gt;에', '“두 개의 시루가 포개진 것과 같은 곳이', '엄(隒)이다.”라고 하였으니', '엄(隒)은', '산기슭이고', '미(湄)는', '강기슭이다.']</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 2, 'src': '“重甗(언),', 'tgt': '엄(隒)이다.”라고', 'score': 0.6806640625}, {'src_idx': 2, 'tgt_idx': 2, 'src': '隒(엄).”', 'tgt': '엄(隒)이다.”라고', 'score': 0.9013671875}, {'src_idx': 3, 'tgt_idx': 3, 'src': '隒,', 'tgt': '하였으니 엄(隒)은', 'score': 0.6337890625}, {'src_idx': 4, 'tgt_idx': 4, 'src': '是山岸,', 'tgt': '산기슭이고', 'score': 0.7587890625}, {'src_idx': 5, 'tgt_idx': 5, 'src': '湄,', 'tgt': '미(湄)는', 'score': 0.78662109375}, {'src_idx': 6, 'tgt_idx': 6, 'src': '是水岸,', 'tgt': '강기슭이다.', 'score': 0.76708984375}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '隒(엄).”', 'tgt': '엄(隒)이다.”라고 하였으니', 'score': 0.7035896038535772}, {'src_idx': 3, 'tgt_idx': 3, 'src': '隒,', 'tgt': '엄(隒)은', 'score': 0.5400372135301672}, {'src_idx': 5, 'tgt_idx': 5, 'src': '湄,', 'tgt': '미(湄)는', 'score': 0.6792358169451176}]</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -5097,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="I106" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故云‘水隒.’', 'tgt': '그리하여 ‘수엄(水隒)’이라고 한 것이다.', 'score': 0.66015625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故云‘水隒.’', 'tgt': '그리하여 ‘수엄(水隒)’이라고 한 것이다.', 'score': 0.6203263784571073}]</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡洄從之하니', 'tgt': '거슬러 올라가 따르려하니', 'score': 0.62939453125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '道阻且躋러니', 'tgt': '길은 험하고 오르막이더니', 'score': 0.607421875}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -5185,7 +5185,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '躋는', 'tgt': '제(躋)는', 'score': 0.6728515625}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '躋는', 'tgt': '제(躋)는', 'score': 0.6843381782920488}]</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -5258,12 +5258,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['승(升)은', '이르기', '어려움을 말하니', '비탈을 오르는 것과 같은 것이다.']</t>
+          <t>['승(升)은 이르기', '어려움을', '말하니', '비탈을 오르는 것과 같은 것이다.']</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 0, 'src': '升者는', 'tgt': '승(升)은', 'score': 0.70751953125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言其難至니', 'tgt': '어려움을 말하니', 'score': 0.724609375}, {'src_idx': 3, 'tgt_idx': 3, 'src': '如升阪이라', 'tgt': '비탈을 오르는 것과 같은 것이다.', 'score': 0.61962890625}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 0, 'src': '升者는', 'tgt': '승(升)은 이르기', 'score': 0.5114923402971174}]</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -5273,7 +5273,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '躋는', 'tgt': '제(躋)는', 'score': 0.6728515625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '本又作隮라', 'tgt': '제(隮)로 되어 있는 본도 있다.', 'score': 0.59130859375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '躋는', 'tgt': '제(躋)는', 'score': 0.6843381782920488}]</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡游從之하니', 'tgt': '물살 따라 가니', 'score': 0.55322265625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '宛在水中坻(지)로다', 'tgt': '가만히 강 가운데 모래톱에 있다네', 'score': 0.5771484375}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -5361,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '坻는', 'tgt': '지(坻)는', 'score': 0.7001953125}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '坻는', 'tgt': '지(坻)는', 'score': 0.5771957606595481}]</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘坻', 'tgt': '전(傳)의', 'score': 0.62158203125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '小渚’', 'tgt': '[지소저(坻小渚)]', 'score': 0.72802734375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘坻', 'tgt': '전(傳)의', 'score': 0.530710428929088}]</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -5449,7 +5449,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5478,12 +5478,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['정의왈(正義曰)：≪이아(爾雅)≫', '&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라 하고,', '저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은 모래톱[소지(小沚)]을', '지(坻)라고 한다.”라고', '하였다. 그렇다면 지(坻)는']</t>
+          <t>['정의왈(正義曰)：≪이아(爾雅)≫', '&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라', '하고, 저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은', '모래톱[소지(小沚)]을 지(坻)라고 한다.”라고 하였다. 그렇다면', '지(坻)는']</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '정의왈(正義曰)：≪이아(爾雅)≫', 'score': 0.7158203125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '釋水云“小洲曰渚,', 'tgt': '&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라 하고,', 'score': 0.6923828125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '小渚曰沚,', 'tgt': '저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은 모래톱[소지(小沚)]을', 'score': 0.697265625}, {'src_idx': 3, 'tgt_idx': 3, 'src': '小沚曰坻.”', 'tgt': '지(坻)라고 한다.”라고', 'score': 0.6796875}, {'src_idx': 4, 'tgt_idx': 4, 'src': '然則坻,', 'tgt': '하였다. 그렇다면 지(坻)는', 'score': 0.62255859375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '정의왈(正義曰)：≪이아(爾雅)≫', 'score': 0.5686394892995523}, {'src_idx': 1, 'tgt_idx': 1, 'src': '釋水云“小洲曰渚,', 'tgt': '&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라', 'score': 0.5715376381573453}, {'src_idx': 2, 'tgt_idx': 2, 'src': '小渚曰沚,', 'tgt': '하고, 저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은', 'score': 0.5601782148479313}, {'src_idx': 3, 'tgt_idx': 3, 'src': '小沚曰坻.”', 'tgt': '모래톱[소지(小沚)]을 지(坻)라고 한다.”라고 하였다. 그렇다면', 'score': 0.5557303112307799}, {'src_idx': 4, 'tgt_idx': 4, 'src': '然則坻,', 'tgt': '지(坻)는', 'score': 0.551107047325382}]</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -5522,12 +5522,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['‘소지(小沚)’인데', '&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은,', '저(渚)나 지(沚)가', '모두 물 가운데 있는 땅으로 그', '크기가 다른데', '‘저(渚)’가 알기 쉽기', '때문에 저(渚)를 붙여 말한 것이다.']</t>
+          <t>['‘소지(小沚)’인데', '&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은, 저(渚)나', '지(沚)가', '모두 물 가운데 있는 땅으로', '그 크기가 다른데', '‘저(渚)’가 알기 쉽기', '때문에 저(渚)를 붙여 말한 것이다.']</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '是小沚,', 'tgt': '‘소지(小沚)’인데', 'score': 0.75927734375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '言小渚者,', 'tgt': '&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은,', 'score': 0.7001953125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '渚․沚', 'tgt': '저(渚)나 지(沚)가', 'score': 0.7236328125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '皆水中之地,', 'tgt': '모두 물 가운데 있는 땅으로 그', 'score': 0.7880859375}, {'src_idx': 4, 'tgt_idx': 4, 'src': '小大異也.', 'tgt': '크기가 다른데', 'score': 0.7763671875}, {'src_idx': 5, 'tgt_idx': 5, 'src': '以渚易知,', 'tgt': '‘저(渚)’가 알기 쉽기', 'score': 0.724609375}, {'src_idx': 6, 'tgt_idx': 6, 'src': '故繫渚言之.', 'tgt': '때문에 저(渚)를 붙여 말한 것이다.', 'score': 0.8173828125}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '言小渚者,', 'tgt': '&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은, 저(渚)나', 'score': 0.5712918206106274}, {'src_idx': 2, 'tgt_idx': 2, 'src': '渚․沚', 'tgt': '지(沚)가', 'score': 0.5461217630025857}, {'src_idx': 3, 'tgt_idx': 3, 'src': '皆水中之地,', 'tgt': '모두 물 가운데 있는 땅으로', 'score': 0.5908038457726768}, {'src_idx': 5, 'tgt_idx': 5, 'src': '以渚易知,', 'tgt': '‘저(渚)’가 알기 쉽기', 'score': 0.513844007803037}]</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -5537,7 +5537,7 @@
         <v>7</v>
       </c>
       <c r="I116" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '白露未已로다', 'tgt': '백로(白露) 아직 그치지 않았네', 'score': 0.70556640625}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '白露未已로다', 'tgt': '백로(白露) 아직 그치지 않았네', 'score': 0.5807940409944778}]</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '采采는', 'tgt': '‘채채(采采)’는', 'score': 0.81689453125}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '采采는', 'tgt': '‘채채(采采)’는', 'score': 0.5849349166075112}, {'src_idx': 1, 'tgt_idx': 1, 'src': '猶萋萋也라', 'tgt': '‘처처(萋萋)’와 같다.', 'score': 0.5102156306332434}]</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -5625,7 +5625,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '未已는', 'tgt': '‘미이(未已)’는', 'score': 0.73681640625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '猶未止也라', 'tgt': '‘미지(未止)’와 같다.', 'score': 0.62548828125}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '未已는', 'tgt': '‘미이(未已)’는', 'score': 0.5081757013766639}, {'src_idx': 1, 'tgt_idx': 1, 'src': '猶未止也라', 'tgt': '‘미지(未止)’와 같다.', 'score': 0.5457066008372539}]</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '所謂伊人이', 'tgt': '이른바 그 분이', 'score': 0.62158203125}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '涘는', 'tgt': '사(涘)는', 'score': 0.69921875}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '涘는', 'tgt': '사(涘)는', 'score': 0.6328112254354776}]</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡洄從之하니', 'tgt': '물살 거슬러 따라가니', 'score': 0.603515625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '道阻且右러니', 'tgt': '길이 험하고 우회하더니', 'score': 0.6005859375}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -5801,7 +5801,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '右는', 'tgt': '우(右)는', 'score': 0.837890625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '出其右也라', 'tgt': '우측으로 돌아서 나가는 것이다.', 'score': 0.61865234375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '右는', 'tgt': '우(右)는', 'score': 0.7066582091315746}]</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -5845,7 +5845,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '전운(箋云)：우(右)는', 'score': 0.595703125}, {'src_idx': 1, 'tgt_idx': 0, 'src': '右者는', 'tgt': '전운(箋云)：우(右)는', 'score': 0.626953125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言其迂迴也라', 'tgt': '말한 것이다.', 'score': 0.51904296875}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 0, 'src': '右者는', 'tgt': '전운(箋云)：우(右)는', 'score': 0.5354953685727056}]</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -5889,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘右', 'tgt': '전(傳)의 [우(右)', 'score': 0.7216796875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '出其右’', 'tgt': '출기우(出其右)]', 'score': 0.7568359375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘右', 'tgt': '전(傳)의 [우(右)', 'score': 0.7017144363424485}, {'src_idx': 1, 'tgt_idx': 1, 'src': '出其右’', 'tgt': '출기우(出其右)]', 'score': 0.6786485451734554}]</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -5962,12 +5962,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['정의왈(正義曰)：이는', '길이 험난함을 말하면서', '‘차우(且右)’라고', '하였기 때문에 우(右)가 우측으로 돌아 나가는 것임을 안 것이다.']</t>
+          <t>['정의왈(正義曰)：이는', '길이 험난함을 말하면서', '‘차우(且右)’라고 하였기', '때문에 우(右)가 우측으로 돌아 나가는 것임을 안 것이다.']</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '정의왈(正義曰)：이는', 'score': 0.7919921875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '此說道路艱難,', 'tgt': '길이 험난함을 말하면서', 'score': 0.8154296875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '而云‘且右’,', 'tgt': '‘차우(且右)’라고', 'score': 0.7978515625}, {'src_idx': 3, 'tgt_idx': 3, 'src': '故知右謂出其右也.', 'tgt': '하였기 때문에 우(右)가 우측으로 돌아 나가는 것임을 안 것이다.', 'score': 0.74365234375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '정의왈(正義曰)：이는', 'score': 0.5824349554096911}, {'src_idx': 2, 'tgt_idx': 2, 'src': '而云‘且右’,', 'tgt': '‘차우(且右)’라고 하였기', 'score': 0.5196010632920008}]</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -5977,7 +5977,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -6006,12 +6006,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['만약 물살 흐르는 대로', '따라가면 쉽게 이르는데', '지금 오히려 우측으로 돌아 나가니 이는 이르기', '어려운 것이다.']</t>
+          <t>['만약 물살 흐르는 대로', '따라가면 쉽게', '이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기', '어려운 것이다.']</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 1, 'src': '若正與相當,', 'tgt': '따라가면 쉽게 이르는데', 'score': 0.595703125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '行則易到,', 'tgt': '따라가면 쉽게 이르는데', 'score': 0.7158203125}, {'src_idx': 2, 'tgt_idx': 2, 'src': '今乃出其右廂,', 'tgt': '지금 오히려 우측으로 돌아 나가니 이는 이르기', 'score': 0.7080078125}, {'src_idx': 3, 'tgt_idx': 3, 'src': '是難至也.', 'tgt': '어려운 것이다.', 'score': 0.7734375}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -6021,7 +6021,7 @@
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -6050,12 +6050,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['전(箋)에', '‘우(右)는', '우회함을 말한 것이다.’라고 하였는데,', '좌측으로 돌아 나가는 것도', '역시 우회하는 것이다.']</t>
+          <t>['전(箋)에', '‘우(右)는', '우회함을 말한 것이다.’라고 하였는데,', '좌측으로', '돌아 나가는 것도 역시 우회하는 것이다.']</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '전(箋)에', 'score': 0.5751953125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '‘右', 'tgt': '‘우(右)는', 'score': 0.841796875}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言其迂迴’,', 'tgt': '우회함을 말한 것이다.’라고 하였는데,', 'score': 0.7119140625}, {'src_idx': 3, 'tgt_idx': 3, 'src': '出其左,', 'tgt': '좌측으로 돌아 나가는 것도', 'score': 0.71484375}, {'src_idx': 4, 'tgt_idx': 4, 'src': '亦迂迴,', 'tgt': '역시 우회하는 것이다.', 'score': 0.755859375}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '전(箋)에', 'score': 0.5378014727720111}, {'src_idx': 1, 'tgt_idx': 1, 'src': '‘右', 'tgt': '‘우(右)는', 'score': 0.700133039385562}]</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -6065,7 +6065,7 @@
         <v>5</v>
       </c>
       <c r="I128" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -6094,12 +6094,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['그런데 우(右)라고 한', '것은 사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.']</t>
+          <t>['그런데 우(右)라고 한 것은', '사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.']</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '言右,', 'tgt': '그런데 우(右)라고 한', 'score': 0.77099609375}, {'src_idx': 1, 'tgt_idx': 1, 'src': '取其與涘․沚爲韻.', 'tgt': '것은 사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.', 'score': 0.71044921875}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '取其與涘․沚爲韻.', 'tgt': '사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.', 'score': 0.5968758982373628}]</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -6109,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡游從之하니', 'tgt': '물살 따라 가니', 'score': 0.55322265625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '宛在水中沚로다', 'tgt': '가만히 물 가운데 작은 모래톱에 있네', 'score': 0.56396484375}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -6153,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '小渚曰沚라', 'tgt': '작은 모래톱을 지(沚)라고 한다.', 'score': 0.55029296875}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '蒹葭', 'tgt': '&lt;겸가(蒹葭)&gt;', 'score': 0.56982421875}, {'src_idx': 1, 'tgt_idx': 1, 'src': '三章이니', 'tgt': '3장(章)이니', 'score': 0.75927734375}, {'src_idx': 2, 'tgt_idx': 2, 'src': '章八句라', 'tgt': '장(章)마다 8구(句)이다.', 'score': 0.57958984375}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '三章이니', 'tgt': '3장(章)이니', 'score': 0.7683697025803298}, {'src_idx': 2, 'tgt_idx': 2, 'src': '章八句라', 'tgt': '장(章)마다 8구(句)이다.', 'score': 0.5176316016660634}]</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -6241,7 +6241,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>

--- a/sa/output02.xlsx
+++ b/sa/output02.xlsx
@@ -506,12 +506,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['선생에게 물었다.', '“‘사물에 이른다.［격물(格物)］’ 라는', '것은 외물(外物)에 이르는 것입니까?']</t>
+          <t>['선생에게 물었다. “‘사물에', '이른다.［격물(格物)］’ 라는 것은', '외물(外物)에 이르는 것입니까?']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '是外物이니잇가', 'tgt': '것은 외물(外物)에 이르는 것입니까?', 'score': 0.5398547849492898}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '格物은', 'tgt': '이른다.［격물(格物)］’ 라는 것은', 'score': 0.7023547291755676}, {'src_idx': 2, 'tgt_idx': 2, 'src': '是外物이니잇가', 'tgt': '외물(外物)에 이르는 것입니까?', 'score': 0.7775695323944092}]</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '是性分中物이니잇가', 'tgt': '본성(本性) 안의 물(物)에 이르는 것입니까?”', 'score': 0.5718322396278381}]</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['선생이 말하였다. “모두', '구애받지 않는다.']</t>
+          <t>['선생이 말하였다.', '“모두 구애받지 않는다.']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '曰', 'tgt': '선생이 말하였다.', 'score': 0.5638673901557922}, {'src_idx': 1, 'tgt_idx': 1, 'src': '不拘라', 'tgt': '“모두 구애받지 않는다.', 'score': 0.5658208131790161}]</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -638,12 +638,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['눈에 보이는 모든 것이 물(物) 아닌 것이 없으니,', '물(物)마다 모두 이치가 있다.']</t>
+          <t>['눈에 보이는 모든 것이 물(物) 아닌 것이 없으니, 물(物)마다', '모두 이치가 있다.']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '凡眼前無非是物이니', 'tgt': '눈에 보이는 모든 것이 물(物) 아닌 것이 없으니,', 'score': 0.5630216817726582}, {'src_idx': 1, 'tgt_idx': 1, 'src': '物皆有理라', 'tgt': '물(物)마다 모두 이치가 있다.', 'score': 0.5610121567192368}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '凡眼前無非是物이니', 'tgt': '눈에 보이는 모든 것이 물(物) 아닌 것이 없으니, 물(物)마다', 'score': 0.7001325488090515}, {'src_idx': 1, 'tgt_idx': 1, 'src': '物皆有理라', 'tgt': '모두 이치가 있다.', 'score': 0.7714227437973022}]</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如火之所以熱과', 'tgt': '예컨대 불이 뜨거운 이유와', 'score': 0.5019158437198805}, {'src_idx': 1, 'tgt_idx': 1, 'src': '水之所以寒하여', 'tgt': '물이 차가운 이유부터', 'score': 0.5764375205358986}, {'src_idx': 2, 'tgt_idx': 2, 'src': '至於君臣父子間하야도', 'tgt': '군신(君臣)과 부자(父子)의 관계에 이르기까지', 'score': 0.5552005577885821}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如火之所以熱과', 'tgt': '예컨대 불이 뜨거운 이유와', 'score': 0.731793999671936}, {'src_idx': 1, 'tgt_idx': 1, 'src': '水之所以寒하여', 'tgt': '물이 차가운 이유부터', 'score': 0.7926859855651855}, {'src_idx': 2, 'tgt_idx': 2, 'src': '至於君臣父子間하야도', 'tgt': '군신(君臣)과 부자(父子)의 관계에 이르기까지', 'score': 0.7166823744773865}, {'src_idx': 3, 'tgt_idx': 3, 'src': '皆是理라', 'tgt': '모두 이러한 이치가 있다.”', 'score': 0.6238129138946533}]</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -726,12 +726,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['또 물었다.', '“하나의 물(物)을 궁구하여 이 하나의 물(物)의 이치를', '보기만 하면', '바로 여러 물(物)의 이치를 알 수 있습니까?”']</t>
+          <t>['또 물었다.', '“하나의 물(物)을 궁구하여', '이 하나의 물(物)의 이치를 보기만 하면', '바로 여러 물(物)의 이치를 알 수 있습니까?”']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '見此一物이면', 'tgt': '보기만 하면', 'score': 0.5245442270292525}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '又問호되', 'tgt': '또 물었다.', 'score': 0.7666587829589844}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只窮一物하여', 'tgt': '“하나의 물(物)을 궁구하여', 'score': 0.598884105682373}, {'src_idx': 2, 'tgt_idx': 2, 'src': '見此一物이면', 'tgt': '이 하나의 물(物)의 이치를 보기만 하면', 'score': 0.7037772536277771}, {'src_idx': 3, 'tgt_idx': 0, 'src': '還便見得諸理否잇가', 'tgt': '또 물었다.', 'score': 0.5771632790565491}]</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -770,12 +770,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['선생이 말하였다. “모름지기 여러 물(物)의 이치를 두루', '구해야 하니,', '안자(顔子) 같은', '분도 하나를 듣고 열을 알 수 있었을 뿐이다.']</t>
+          <t>['선생이 말하였다. “모름지기 여러 물(物)의 이치를 두루', '구해야', '하니, 안자(顔子) 같은 분도', '하나를 듣고 열을 알 수 있었을 뿐이다.']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '雖顔子라도', 'tgt': '안자(顔子) 같은', 'score': 0.5279649918149629}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '須是徧求니', 'tgt': '구해야', 'score': 0.6365095376968384}, {'src_idx': 2, 'tgt_idx': 2, 'src': '雖顔子라도', 'tgt': '하니, 안자(顔子) 같은 분도', 'score': 0.655199408531189}, {'src_idx': 3, 'tgt_idx': 3, 'src': '亦只能聞一知十이라', 'tgt': '하나를 듣고 열을 알 수 있었을 뿐이다.', 'score': 0.7570496201515198}]</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -785,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '若到後來達理了면', 'tgt': '만약 훗날 이치를 통달하게', 'score': 0.7609840631484985}, {'src_idx': 1, 'tgt_idx': 1, 'src': '雖億萬이라도', 'tgt': '되면 억만 가지 이치라도', 'score': 0.7614387273788452}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦可通이라', 'tgt': '통달할 수 있다.”', 'score': 0.6750199198722839}]</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -858,12 +858,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['또 물었다.', '“예컨대 형공(荊公)(왕안석(王安石))이 물(物)을 궁구한 것은', '≪자해(字解)≫ 한', '부인데, 대부분 오행(五行)에서 추론하여 지어낸 것입니다.']</t>
+          <t>['또 물었다.', '“예컨대 형공(荊公)(왕안석(王安石))이 물(物)을', '궁구한 것은 ≪자해(字解)≫ 한 부인데,', '대부분 오행(五行)에서 추론하여 지어낸 것입니다.']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[{'src_idx': 3, 'tgt_idx': 3, 'src': '多是推五行生成이라', 'tgt': '부인데, 대부분 오행(五行)에서 추론하여 지어낸 것입니다.', 'score': 0.5740977129519532}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '又問호되', 'tgt': '또 물었다.', 'score': 0.7666587829589844}, {'src_idx': 1, 'tgt_idx': 1, 'src': '如荊公窮物은', 'tgt': '“예컨대 형공(荊公)(왕안석(王安石))이 물(物)을', 'score': 0.5317033529281616}, {'src_idx': 2, 'tgt_idx': 2, 'src': '一部字解인대', 'tgt': '궁구한 것은 ≪자해(字解)≫ 한 부인데,', 'score': 0.6171432137489319}, {'src_idx': 3, 'tgt_idx': 3, 'src': '多是推五行生成이라', 'tgt': '대부분 오행(五行)에서 추론하여 지어낸 것입니다.', 'score': 0.773343026638031}]</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -902,12 +902,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['지금 이치를 궁구하는 일도 그저', '이와 같이 공부할 뿐이니 이는', '어떻습니까?”']</t>
+          <t>['지금 이치를 궁구하는 일도', '그저 이와 같이 공부할 뿐이니 이는', '어떻습니까?”']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如今窮理도', 'tgt': '지금 이치를 궁구하는 일도', 'score': 0.6534993052482605}, {'src_idx': 1, 'tgt_idx': 1, 'src': '亦只如此著工夫니', 'tgt': '그저 이와 같이 공부할 뿐이니 이는', 'score': 0.7325336933135986}, {'src_idx': 2, 'tgt_idx': 2, 'src': '如何잇가', 'tgt': '어떻습니까?”', 'score': 0.5072797536849976}]</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -917,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -946,12 +946,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['선생이 말하였다.', '“형공이 예전에 한 말은', '확실히 깨달은 것이었는데,', '나중에는', '도리어 스스로 옳지 않다고 여겼고,', '만년에', '하는 말은 모두 지리하였다.”']</t>
+          <t>['선생이 말하였다.', '“형공이 예전에 한 말은', '확실히 깨달은 것이었는데,', '나중에는', '도리어 스스로 옳지 않다고', '여겼고, 만년에', '하는 말은 모두 지리하였다.”']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[{'src_idx': 3, 'tgt_idx': 3, 'src': '後來엔', 'tgt': '나중에는', 'score': 0.810380774175367}, {'src_idx': 5, 'tgt_idx': 3, 'src': '晩年엔', 'tgt': '나중에는', 'score': 0.5161445594643409}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '曰', 'tgt': '선생이 말하였다.', 'score': 0.5638673901557922}, {'src_idx': 1, 'tgt_idx': 1, 'src': '荊公舊年說話는', 'tgt': '“형공이 예전에 한 말은', 'score': 0.6904042363166809}, {'src_idx': 3, 'tgt_idx': 3, 'src': '後來엔', 'tgt': '나중에는', 'score': 0.8886996507644653}, {'src_idx': 4, 'tgt_idx': 4, 'src': '却自以爲不是요', 'tgt': '도리어 스스로 옳지 않다고', 'score': 0.7119420766830444}, {'src_idx': 5, 'tgt_idx': 3, 'src': '晩年엔', 'tgt': '나중에는', 'score': 0.6567888855934143}, {'src_idx': 6, 'tgt_idx': 6, 'src': '盡支離了라', 'tgt': '하는 말은 모두 지리하였다.”', 'score': 0.577232301235199}]</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -961,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -990,12 +990,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['선생에게 물었다.', '“‘옛날의 배우는 자들은', '자기를 위한', '실질적인 학문을 하였다.’ 라고 하였는데, 모르겠습니다만', '처음 마음을 먹을 적에', '자기를 위한 학문을 해야 합니까?']</t>
+          <t>['선생에게 물었다.', '“‘옛날의 배우는 자들은 자기를 위한 실질적인 학문을 하였다.’ 라고', '하였는데,', '모르겠습니다만', '처음 마음을 먹을 적에', '자기를 위한 학문을 해야 합니까?']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[{'src_idx': 4, 'tgt_idx': 4, 'src': '初設心時에', 'tgt': '처음 마음을 먹을 적에', 'score': 0.5284305217469346}, {'src_idx': 5, 'tgt_idx': 2, 'src': '是要爲己이니잇가', 'tgt': '자기를 위한', 'score': 0.5423734045809542}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '古之學者는', 'tgt': '“‘옛날의 배우는 자들은 자기를 위한 실질적인 학문을 하였다.’ 라고', 'score': 0.5762628316879272}, {'src_idx': 2, 'tgt_idx': 2, 'src': '爲己라하니', 'tgt': '하였는데,', 'score': 0.5930469632148743}, {'src_idx': 3, 'tgt_idx': 3, 'src': '不知케라', 'tgt': '모르겠습니다만', 'score': 0.5952005386352539}, {'src_idx': 4, 'tgt_idx': 4, 'src': '初設心時에', 'tgt': '처음 마음을 먹을 적에', 'score': 0.7058430910110474}, {'src_idx': 5, 'tgt_idx': 5, 'src': '是要爲己이니잇가', 'tgt': '자기를 위한 학문을 해야 합니까?', 'score': 0.7149884104728699}]</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1005,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '是要爲人이니잇가', 'tgt': '남을 위한 학문을 해야 합니까?”', 'score': 0.613967776298523}]</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['선생이 말하였다.', '“우선 자기를', '위한 학문을 해야 남에게 미칠 수 있다.']</t>
+          <t>['선생이 말하였다.', '“우선 자기를 위한 학문을 해야', '남에게 미칠 수 있다.']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '須先爲己라야', 'tgt': '“우선 자기를', 'score': 0.506406413219271}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '曰', 'tgt': '선생이 말하였다.', 'score': 0.5638673901557922}, {'src_idx': 1, 'tgt_idx': 1, 'src': '須先爲己라야', 'tgt': '“우선 자기를 위한 학문을 해야', 'score': 0.7489209175109863}, {'src_idx': 2, 'tgt_idx': 2, 'src': '方能及人이라', 'tgt': '남에게 미칠 수 있다.', 'score': 0.53376704454422}]</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '初學은', 'tgt': '처음 배우는 자는', 'score': 0.551965098171831}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只是爲己라', 'tgt': '단지 자기를 위한 학문을 할 뿐이다.', 'score': 0.5117574872932674}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '初學은', 'tgt': '처음 배우는 자는', 'score': 0.6102882027626038}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只是爲己라', 'tgt': '단지 자기를 위한 학문을 할 뿐이다.', 'score': 0.7646573781967163}]</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['정굉중(鄭宏中)이', '말하기를', '‘배우는 자는', '먼저 인(仁)을 구해야 한다.’ 라고 하였는데,', '인(仁)은 남을', '사랑하는 것이니,', '이 말은 그야말로 전도된 설이다.”']</t>
+          <t>['정굉중(鄭宏中)이', '말하기를', '‘배우는 자는', '먼저 인(仁)을 구해야 한다.’ 라고 하였는데,', '인(仁)은', '남을 사랑하는 것이니,', '이 말은 그야말로 전도된 설이다.”']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '鄭宏中이', 'tgt': '정굉중(鄭宏中)이', 'score': 0.7020850877238352}, {'src_idx': 3, 'tgt_idx': 3, 'src': '先須要仁이라한대', 'tgt': '먼저 인(仁)을 구해야 한다.’ 라고 하였는데,', 'score': 0.5479023060543402}, {'src_idx': 4, 'tgt_idx': 4, 'src': '仁은', 'tgt': '인(仁)은 남을', 'score': 0.6674485330792173}, {'src_idx': 5, 'tgt_idx': 5, 'src': '所以愛人이니', 'tgt': '사랑하는 것이니,', 'score': 0.6197424542708485}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '鄭宏中이', 'tgt': '정굉중(鄭宏中)이', 'score': 0.7388965487480164}, {'src_idx': 2, 'tgt_idx': 2, 'src': '學者는', 'tgt': '‘배우는 자는', 'score': 0.6318673491477966}, {'src_idx': 3, 'tgt_idx': 3, 'src': '先須要仁이라한대', 'tgt': '먼저 인(仁)을 구해야 한다.’ 라고 하였는데,', 'score': 0.7166317105293274}, {'src_idx': 4, 'tgt_idx': 4, 'src': '仁은', 'tgt': '인(仁)은', 'score': 0.7564817070960999}, {'src_idx': 5, 'tgt_idx': 5, 'src': '所以愛人이니', 'tgt': '남을 사랑하는 것이니,', 'score': 0.7254658937454224}, {'src_idx': 6, 'tgt_idx': 6, 'src': '正是顚倒說却이라', 'tgt': '이 말은 그야말로 전도된 설이다.”', 'score': 0.5208781957626343}]</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1181,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1210,12 +1210,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['“백성을 새롭게 한다.” 라는', '것은 명덕(明德)으로', '백성을 새롭게 하는 것이다.']</t>
+          <t>['“백성을 새롭게 한다.” 라는 것은', '명덕(明德)으로', '백성을 새롭게 하는 것이다.']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以明德으로', 'tgt': '것은 명덕(明德)으로', 'score': 0.6948395455075791}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以明德으로', 'tgt': '명덕(明德)으로', 'score': 0.8028412461280823}, {'src_idx': 2, 'tgt_idx': 2, 'src': '新民이라', 'tgt': '백성을 새롭게 하는 것이다.', 'score': 0.5073136687278748}]</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1225,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1254,12 +1254,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['선생에게 물었다. “‘날마다', '새롭게', '한다.’ 라는 것은 진보함이 있다는 뜻입니까?']</t>
+          <t>['선생에게 물었다.', '“‘날마다 새롭게 한다.’ 라는 것은', '진보함이 있다는 뜻입니까?']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '日新은', 'tgt': '새롭게', 'score': 0.5451349373155153}]</t>
+          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '有進意잇가', 'tgt': '진보함이 있다는 뜻입니까?', 'score': 0.5980032682418823}]</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '抑只是無弊意잇가', 'tgt': '아니면 단지 폐단이 없다는 뜻입니까?”', 'score': 0.5462738275527954}]</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['선생이 말하였다. “진보함이', '있다는 뜻이다.']</t>
+          <t>['선생이 말하였다.', '“진보함이 있다는 뜻이다.']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '曰', 'tgt': '선생이 말하였다.', 'score': 0.5638673901557922}, {'src_idx': 1, 'tgt_idx': 1, 'src': '有進意라', 'tgt': '“진보함이 있다는 뜻이다.', 'score': 0.6267840266227722}]</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['배우는 자가', '유익함이 있기를', '구한다면 모름지기 날마다 자신을 새롭게 해야 한다.”']</t>
+          <t>['배우는 자가', '유익함이 있기를 구한다면', '모름지기 날마다 자신을 새롭게 해야 한다.”']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '求有益이어든', 'tgt': '유익함이 있기를', 'score': 0.6652417968641707}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '學者가', 'tgt': '배우는 자가', 'score': 0.7114500403404236}, {'src_idx': 1, 'tgt_idx': 1, 'src': '求有益이어든', 'tgt': '유익함이 있기를 구한다면', 'score': 0.7561724185943604}]</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1401,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1430,12 +1430,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['선생에게 물었다.', '“‘마음에 성내는 바, 두려워하는 바, 걱정하는 바가 있으면', '마음이 그 바름을 얻지 못한다.’ 라고 하였는데, 이 몇 가지 감정을', '없애면', '마음이 바르게 됩니까?”']</t>
+          <t>['선생에게 물었다. “‘마음에 성내는 바,', '두려워하는 바, 걱정하는 바가 있으면', '마음이 그 바름을 얻지 못한다.’ 라고 하였는데, 이 몇 가지 감정을', '없애면', '마음이 바르게 됩니까?”']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '有所忿懥恐懼憂患이면', 'tgt': '“‘마음에 성내는 바, 두려워하는 바, 걱정하는 바가 있으면', 'score': 0.5168466030484271}, {'src_idx': 4, 'tgt_idx': 4, 'src': '心乃正乎잇가', 'tgt': '마음이 바르게 됩니까?”', 'score': 0.5250692417846462}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '有所忿懥恐懼憂患이면', 'tgt': '두려워하는 바, 걱정하는 바가 있으면', 'score': 0.7991225123405457}, {'src_idx': 2, 'tgt_idx': 2, 'src': '心不得其正이라한대', 'tgt': '마음이 그 바름을 얻지 못한다.’ 라고 하였는데, 이 몇 가지 감정을', 'score': 0.6375170350074768}, {'src_idx': 3, 'tgt_idx': 3, 'src': '是要無此數者면', 'tgt': '없애면', 'score': 0.619846761226654}, {'src_idx': 4, 'tgt_idx': 4, 'src': '心乃正乎잇가', 'tgt': '마음이 바르게 됩니까?”', 'score': 0.5617427229881287}]</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1445,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1474,12 +1474,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['선생이 말하였다. “이는 이런 감정을', '없애야 한다고 말하는 것이 아니다.']</t>
+          <t>['선생이 말하였다. “이는 이런 감정을 없애야 한다고 말하는', '것이 아니다.']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '非是謂無라', 'tgt': '것이 아니다.', 'score': 0.5817241072654724}]</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1489,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '只是不以此動其心이라', 'tgt': '단지 이러한 감정 때문에 그 마음을 동요하지 않는 것이다.', 'score': 0.6280082241161117}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '只是不以此動其心이라', 'tgt': '단지 이러한 감정 때문에 그 마음을 동요하지 않는 것이다.', 'score': 0.7874335050582886}]</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1562,12 +1562,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['배우는', '자가 마음을 동요하지 않는 경지에 아직 이르지 않았다면', '모름지기 자기의 의지를 잡고 지켜야 한다.”']</t>
+          <t>['배우는 자가', '마음을 동요하지 않는 경지에 아직 이르지 않았다면 모름지기', '자기의 의지를 잡고 지켜야 한다.”']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '學者가', 'tgt': '배우는 자가', 'score': 0.7114500403404236}, {'src_idx': 1, 'tgt_idx': 1, 'src': '未到不動處어든', 'tgt': '마음을 동요하지 않는 경지에 아직 이르지 않았다면 모름지기', 'score': 0.542701244354248}, {'src_idx': 2, 'tgt_idx': 2, 'src': '須是執持其志라', 'tgt': '자기의 의지를 잡고 지켜야 한다.”', 'score': 0.6758265495300293}]</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1577,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['“군대를 출동하되 규율에 맞게 해야 하니,', '그렇지 않으면', '승리하더라도', '흉하리라.”', '라고 하였는데, 규율에는 두 가지 의미가 있다.']</t>
+          <t>['“군대를 출동하되 규율에 맞게 해야 하니,', '그렇지 않으면', '승리하더라도', '흉하리라.” 라고', '하였는데, 규율에는 두 가지 의미가 있다.']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '否면', 'tgt': '그렇지 않으면', 'score': 0.7300514541333228}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '師出以律이니', 'tgt': '“군대를 출동하되 규율에 맞게 해야 하니,', 'score': 0.6095764636993408}, {'src_idx': 1, 'tgt_idx': 1, 'src': '否면', 'tgt': '그렇지 않으면', 'score': 0.6650351285934448}, {'src_idx': 3, 'tgt_idx': 3, 'src': '凶하리라한대', 'tgt': '흉하리라.” 라고', 'score': 0.5616708993911743}, {'src_idx': 4, 'tgt_idx': 4, 'src': '律有二義라', 'tgt': '하였는데, 규율에는 두 가지 의미가 있다.', 'score': 0.678918719291687}]</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1621,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['군대를 출동할 적에 의(義)로써 하지', '않는 경우가 있고, 군대를 움직이면서 호령과 절제가 없는 경우가', '있으니, 모두 규율을 잃은 것이다.']</t>
+          <t>['군대를 출동할 적에 의(義)로써 하지 않는 경우가 있고, 군대를', '움직이면서 호령과 절제가 없는 경우가 있으니,', '모두 규율을 잃은 것이다.']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '皆失律也라', 'tgt': '있으니, 모두 규율을 잃은 것이다.', 'score': 0.579559188426253}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '有出師不以義者요', 'tgt': '군대를 출동할 적에 의(義)로써 하지 않는 경우가 있고, 군대를', 'score': 0.6653415560722351}, {'src_idx': 1, 'tgt_idx': 1, 'src': '有行師而無號令節制者니', 'tgt': '움직이면서 호령과 절제가 없는 경우가 있으니,', 'score': 0.701528012752533}, {'src_idx': 2, 'tgt_idx': 2, 'src': '皆失律也라', 'tgt': '모두 규율을 잃은 것이다.', 'score': 0.6931731700897217}]</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1665,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1694,12 +1694,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['군대를 출동할 적에는 마땅히 규율에', '맞게 해야 하니,', '그렇지 않으면', '비록 승리하더라도', '흉한 것이다.']</t>
+          <t>['군대를 출동할 적에는', '마땅히 규율에 맞게 해야 하니,', '그렇지 않으면', '비록 승리하더라도', '흉한 것이다.']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '不然이면', 'tgt': '그렇지 않으면', 'score': 0.795790178239296}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '當以律이니', 'tgt': '마땅히 규율에 맞게 해야 하니,', 'score': 0.6836858987808228}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不然이면', 'tgt': '그렇지 않으면', 'score': 0.8938127160072327}, {'src_idx': 3, 'tgt_idx': 3, 'src': '雖臧이라도', 'tgt': '비록 승리하더라도', 'score': 0.672579824924469}, {'src_idx': 4, 'tgt_idx': 4, 'src': '亦凶이라', 'tgt': '흉한 것이다.', 'score': 0.5944269299507141}]</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今人用師는', 'tgt': '요즘 사람들이 군대를 운용하는 것은', 'score': 0.5311242938041687}, {'src_idx': 1, 'tgt_idx': 1, 'src': '惟勝而已라', 'tgt': '오직 이기고자 할 따름이다.', 'score': 0.8175764679908752}]</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1753,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1782,12 +1782,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['“자제(子弟)들이 여럿이 주장하면 하는', '일이 바르더라도', '흉하리라.” 라고 하였다.']</t>
+          <t>['“자제(子弟)들이 여럿이 주장하면 하는 일이', '바르더라도', '흉하리라.” 라고 하였다.']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '弟子輿尸하면', 'tgt': '“자제(子弟)들이 여럿이 주장하면 하는 일이', 'score': 0.5269663333892822}, {'src_idx': 1, 'tgt_idx': 1, 'src': '貞이라도', 'tgt': '바르더라도', 'score': 0.5747283101081848}, {'src_idx': 2, 'tgt_idx': 2, 'src': '凶하리라', 'tgt': '흉하리라.” 라고 하였다.', 'score': 0.5933287143707275}]</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1826,12 +1826,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['장자(長子)가', '군대를 거느렸는데 지금 자제들이 여럿이 그 일을 주장한다면', '또한 이는 규율을 잃은 것이다.']</t>
+          <t>['장자(長子)가 군대를', '거느렸는데 지금 자제들이 여럿이 그 일을', '주장한다면 또한 이는 규율을 잃은 것이다.']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '帥師以長子한대', 'tgt': '장자(長子)가', 'score': 0.6031579305878378}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦是失律이라', 'tgt': '또한 이는 규율을 잃은 것이다.', 'score': 0.54602621805089}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '帥師以長子한대', 'tgt': '장자(長子)가 군대를', 'score': 0.6076161861419678}, {'src_idx': 1, 'tgt_idx': 1, 'src': '今以弟子衆主之어든', 'tgt': '거느렸는데 지금 자제들이 여럿이 그 일을', 'score': 0.6259592771530151}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦是失律이라', 'tgt': '주장한다면 또한 이는 규율을 잃은 것이다.', 'score': 0.6808202266693115}]</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1841,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1870,12 +1870,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['그러므로', '하는 일이 바르더라도', '흉한 것이다.']</t>
+          <t>['그러므로 하는 일이', '바르더라도', '흉한 것이다.']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '雖貞이라도', 'tgt': '바르더라도', 'score': 0.6648079752922058}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦凶也라', 'tgt': '흉한 것이다.', 'score': 0.5058779716491699}]</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1914,12 +1914,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['“멧돼지를 거세하여 이빨을 쓰지 못하게 한다.”', '라고 하였으니, 멧돼지의 이빨은', '사람을 매우 잘 깨물어 해치지만,', '단지 그 이빨만을', '다스려서 어떻게 멧돼지를 제압할 수 있겠는가?']</t>
+          <t>['“멧돼지를 거세하여 이빨을 쓰지 못하게 한다.” 라고 하였으니, 멧돼지의', '이빨은', '사람을 매우 잘 깨물어 해치지만,', '단지 그 이빨만을 다스려서', '어떻게 멧돼지를 제압할 수 있겠는가?']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '豕牙는', 'tgt': '이빨은', 'score': 0.6419664025306702}, {'src_idx': 2, 'tgt_idx': 2, 'src': '最能嚙害人이나', 'tgt': '사람을 매우 잘 깨물어 해치지만,', 'score': 0.6110045313835144}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只制其牙하여', 'tgt': '단지 그 이빨만을 다스려서', 'score': 0.7780080437660217}]</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1929,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1958,12 +1958,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['요즘 사람들이 악(惡)을 행할', '적에 단지 그의 악행만을 금지시키면 근원적인 악을', '금지할 길이 없다.']</t>
+          <t>['요즘 사람들이 악(惡)을 행할 적에', '단지 그의 악행만을', '금지시키면 근원적인 악을 금지할 길이 없다.']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今人爲惡할새', 'tgt': '요즘 사람들이 악(惡)을 행할', 'score': 0.6567298863249762}, {'src_idx': 1, 'tgt_idx': 1, 'src': '却只就他惡禁之면', 'tgt': '적에 단지 그의 악행만을 금지시키면 근원적인 악을', 'score': 0.5339682104221349}, {'src_idx': 2, 'tgt_idx': 2, 'src': '便無由禁止라', 'tgt': '금지할 길이 없다.', 'score': 0.5782863024137747}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今人爲惡할새', 'tgt': '요즘 사람들이 악(惡)을 행할 적에', 'score': 0.6627887487411499}, {'src_idx': 1, 'tgt_idx': 1, 'src': '却只就他惡禁之면', 'tgt': '단지 그의 악행만을', 'score': 0.7739428281784058}, {'src_idx': 2, 'tgt_idx': 2, 'src': '便無由禁止라', 'tgt': '금지시키면 근원적인 악을 금지할 길이 없다.', 'score': 0.5602052211761475}]</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此見聖人機會處라', 'tgt': '여기에서 성인(聖人)이 긴요하게 여긴 점을 볼 수 있다.', 'score': 0.6641259789466858}]</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '喪羊于易(이)라', 'tgt': '“양(羊)을 화이(和易)함에서 잃는다.” 라고 하였다.', 'score': 0.6801574910735}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '喪羊于易(이)라', 'tgt': '“양(羊)을 화이(和易)함에서 잃는다.” 라고 하였다.', 'score': 0.6303936243057251}]</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '羊은', 'tgt': '양은', 'score': 0.6811605095863342}, {'src_idx': 1, 'tgt_idx': 1, 'src': '群行而觸物이라', 'tgt': '무리지어 다니면서 사물을 떠받는다.', 'score': 0.6601421236991882}]</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2105,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '六五가', 'tgt': '형상인데, 육오효(六五爻)가', 'score': 0.515193535082139}, {'src_idx': 3, 'tgt_idx': 3, 'src': '以陰居位하니', 'tgt': '음(陰)으로서 임금 자리에 거처하니', 'score': 0.581611750045873}, {'src_idx': 4, 'tgt_idx': 4, 'src': '惟和易然後에', 'tgt': '오직 화이(和易)한 뒤에', 'score': 0.6117757237609643}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '大壯은', 'tgt': '대장괘(大壯卦)는', 'score': 0.6936571002006531}, {'src_idx': 1, 'tgt_idx': 1, 'src': '衆陽竝進이어늘', 'tgt': '여러 양(陽)이 함께 나아가는', 'score': 0.6770115494728088}, {'src_idx': 2, 'tgt_idx': 2, 'src': '六五가', 'tgt': '형상인데, 육오효(六五爻)가', 'score': 0.5897945761680603}, {'src_idx': 3, 'tgt_idx': 3, 'src': '以陰居位하니', 'tgt': '음(陰)으로서 임금 자리에 거처하니', 'score': 0.7619900107383728}, {'src_idx': 4, 'tgt_idx': 4, 'src': '惟和易然後에', 'tgt': '오직 화이(和易)한 뒤에', 'score': 0.7468050122261047}, {'src_idx': 5, 'tgt_idx': 5, 'src': '可以喪羊이라', 'tgt': '양을 잃을 수 있다.', 'score': 0.6944758296012878}]</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2178,12 +2178,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['이(易)는', '난이(難易)의 이(易)가', '아니라, 화이(和易)․낙이(樂易)의 이(易)이다.']</t>
+          <t>['이(易)는', '난이(難易)의 이(易)가 아니라,', '화이(和易)․낙이(樂易)의 이(易)이다.']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '易는', 'tgt': '이(易)는', 'score': 0.5154701595075536}, {'src_idx': 1, 'tgt_idx': 1, 'src': '非難易之易요', 'tgt': '난이(難易)의 이(易)가', 'score': 0.5191687567872854}, {'src_idx': 2, 'tgt_idx': 2, 'src': '乃和易樂易(낙이)之易라', 'tgt': '아니라, 화이(和易)․낙이(樂易)의 이(易)이다.', 'score': 0.6311142968802816}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '易는', 'tgt': '이(易)는', 'score': 0.7952638268470764}, {'src_idx': 1, 'tgt_idx': 1, 'src': '非難易之易요', 'tgt': '난이(難易)의 이(易)가 아니라,', 'score': 0.7138586044311523}, {'src_idx': 2, 'tgt_idx': 2, 'src': '乃和易樂易(낙이)之易라', 'tgt': '화이(和易)․낙이(樂易)의 이(易)이다.', 'score': 0.7272968888282776}]</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['≪주역(周易)≫은', '1백여 개의 학파가 있어 그 설을', '두루 살펴보기가 어렵다.']</t>
+          <t>['≪주역(周易)≫은', '1백여 개의', '학파가 있어 그 설을 두루 살펴보기가 어렵다.']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '易은', 'tgt': '≪주역(周易)≫은', 'score': 0.5651229023933411}, {'src_idx': 1, 'tgt_idx': 1, 'src': '有百餘家니', 'tgt': '1백여 개의', 'score': 0.7360618114471436}, {'src_idx': 2, 'tgt_idx': 2, 'src': '難爲徧觀이라', 'tgt': '학파가 있어 그 설을 두루 살펴보기가 어렵다.', 'score': 0.6601137518882751}]</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2237,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['만약 평소 ≪주역≫을 읽지 않으면 글의', '의미를 깨닫지 못한다.']</t>
+          <t>['만약 평소 ≪주역≫을 읽지 않으면', '글의 의미를 깨닫지 못한다.']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如素未讀이어든', 'tgt': '만약 평소 ≪주역≫을 읽지 않으면', 'score': 0.5559017062187195}, {'src_idx': 1, 'tgt_idx': 1, 'src': '不曉文義라', 'tgt': '글의 의미를 깨닫지 못한다.', 'score': 0.5600509643554688}]</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2281,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2310,12 +2310,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['또 반드시 왕필(王弼)․호선생(胡先生)(호원(胡瑗))․형공(荊公)(왕안석(王安石)) 삼가(三家)의 설을 보고서 글의', '의미를', '이해하고, 또 숙독을', '한 뒤에야', '마음을 쓸 곳이 있게 된다.']</t>
+          <t>['또 반드시 왕필(王弼)․호선생(胡先生)(호원(胡瑗))․형공(荊公)(왕안석(王安石)) 삼가(三家)의 설을 보고서 글의', '의미를 이해하고,', '또 숙독을', '한 뒤에야', '마음을 쓸 곳이 있게 된다.']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '且須看王弼胡先生荊公三家하여', 'tgt': '또 반드시 왕필(王弼)․호선생(胡先生)(호원(胡瑗))․형공(荊公)(왕안석(王安石)) 삼가(三家)의 설을 보고서 글의', 'score': 0.6064588712342762}, {'src_idx': 2, 'tgt_idx': 2, 'src': '且要熟讀이라야', 'tgt': '이해하고, 또 숙독을', 'score': 0.5921576913179211}, {'src_idx': 3, 'tgt_idx': 3, 'src': '然後에', 'tgt': '한 뒤에야', 'score': 0.5870258208839461}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '且須看王弼胡先生荊公三家하여', 'tgt': '또 반드시 왕필(王弼)․호선생(胡先生)(호원(胡瑗))․형공(荊公)(왕안석(王安石)) 삼가(三家)의 설을 보고서 글의', 'score': 0.7042543292045593}, {'src_idx': 1, 'tgt_idx': 1, 'src': '理會得文義하고', 'tgt': '의미를 이해하고,', 'score': 0.6266120076179504}, {'src_idx': 2, 'tgt_idx': 2, 'src': '且要熟讀이라야', 'tgt': '또 숙독을', 'score': 0.648245096206665}, {'src_idx': 3, 'tgt_idx': 3, 'src': '然後에', 'tgt': '한 뒤에야', 'score': 0.7451416850090027}, {'src_idx': 4, 'tgt_idx': 4, 'src': '却有用心處라', 'tgt': '마음을 쓸 곳이 있게 된다.', 'score': 0.5838962197303772}]</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2325,7 +2325,7 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '讀易은', 'tgt': '≪주역(周易)≫을 읽을', 'score': 0.6537354588508606}, {'src_idx': 1, 'tgt_idx': 1, 'src': '須先識卦體라', 'tgt': '적에는 모름지기 괘(卦)의 체(體)를 먼저 알아야 한다.', 'score': 0.7684861421585083}]</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2369,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2398,12 +2398,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['예컨대 건괘(乾卦)는', '원(元)․형(亨)․이(利)․정(貞) 네 가지 덕(德)이 있는데, 이', '중에 하나라도 없으면', '건괘(乾卦)가 아니니, 모름지기 이 점을', '잘 알아야 한다.']</t>
+          <t>['예컨대 건괘(乾卦)는', '원(元)․형(亨)․이(利)․정(貞) 네 가지 덕(德)이', '있는데, 이 중에 하나라도 없으면', '건괘(乾卦)가 아니니, 모름지기', '이 점을 잘 알아야 한다.']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '缺却一箇면', 'tgt': '중에 하나라도 없으면', 'score': 0.560306854592722}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如乾은', 'tgt': '예컨대 건괘(乾卦)는', 'score': 0.5099170207977295}, {'src_idx': 1, 'tgt_idx': 1, 'src': '有元亨利貞四德한대', 'tgt': '원(元)․형(亨)․이(利)․정(貞) 네 가지 덕(德)이', 'score': 0.6293157935142517}, {'src_idx': 2, 'tgt_idx': 2, 'src': '缺却一箇면', 'tgt': '있는데, 이 중에 하나라도 없으면', 'score': 0.5920485854148865}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便不是乾이니', 'tgt': '건괘(乾卦)가 아니니, 모름지기', 'score': 0.6914613842964172}, {'src_idx': 4, 'tgt_idx': 4, 'src': '須要認得이라', 'tgt': '이 점을 잘 알아야 한다.', 'score': 0.7080422639846802}]</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2413,7 +2413,7 @@
         <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['“반복하기를 도(道)로써', '한다.” 라는 것은 종일토록 힘쓰고 반복하는', '것이 모두 도를 말미암는다는 말이다.']</t>
+          <t>['“반복하기를 도(道)로써 한다.” 라는 것은', '종일토록 힘쓰고 반복하는 것이', '모두 도를 말미암는다는 말이다.']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '反復道也는', 'tgt': '“반복하기를 도(道)로써', 'score': 0.534167914761118}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '反復道也는', 'tgt': '“반복하기를 도(道)로써 한다.” 라는 것은', 'score': 0.669252872467041}, {'src_idx': 2, 'tgt_idx': 2, 'src': '皆由於道也라', 'tgt': '모두 도를 말미암는다는 말이다.', 'score': 0.7010045647621155}]</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2457,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에', '있어 나아가 올라갈 수도', '있고, 물러나 내려갈 수도 있다.']</t>
+          <t>['삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에 있어', '나아가 올라갈 수도', '있고, 물러나 내려갈 수도 있다.']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '三位在二體之中하여', 'tgt': '삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에', 'score': 0.6487743783035319}, {'src_idx': 1, 'tgt_idx': 1, 'src': '可進而上하고', 'tgt': '있어 나아가 올라갈 수도', 'score': 0.5067618732454586}, {'src_idx': 2, 'tgt_idx': 2, 'src': '可退而下라', 'tgt': '있고, 물러나 내려갈 수도 있다.', 'score': 0.5118575969153467}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '三位在二體之中하여', 'tgt': '삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에 있어', 'score': 0.6797216534614563}, {'src_idx': 1, 'tgt_idx': 1, 'src': '可進而上하고', 'tgt': '나아가 올라갈 수도', 'score': 0.8385246396064758}, {'src_idx': 2, 'tgt_idx': 2, 'src': '可退而下라', 'tgt': '있고, 물러나 내려갈 수도 있다.', 'score': 0.7960315942764282}]</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2530,12 +2530,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['그러므로', '반복한다고 말한', '것이다. “이를 곳을 알아 그곳에 이른다.” 라는', '것은 지금 배우는 자가 이를 곳이 있는 것을 먼저 알게', '되면 이로부터 그곳에 이르는', '것과 같으니, 이것이 “더불어 기미를 알 수 있다.” 라는 것이다.']</t>
+          <t>['그러므로', '반복한다고 말한', '것이다. “이를 곳을 알아 그곳에 이른다.” 라는 것은', '지금 배우는 자가 이를 곳이 있는 것을 먼저 알게 되면', '이로부터 그곳에 이르는', '것과 같으니, 이것이 “더불어 기미를 알 수 있다.” 라는 것이다.']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '言反復이라', 'tgt': '반복한다고 말한', 'score': 0.7260030787535792}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '言反復이라', 'tgt': '반복한다고 말한', 'score': 0.7781184315681458}, {'src_idx': 2, 'tgt_idx': 4, 'src': '知至至之는', 'tgt': '이로부터 그곳에 이르는', 'score': 0.503813624382019}, {'src_idx': 3, 'tgt_idx': 3, 'src': '如今學者且先知有至處면', 'tgt': '지금 배우는 자가 이를 곳이 있는 것을 먼저 알게 되면', 'score': 0.6384221315383911}, {'src_idx': 4, 'tgt_idx': 4, 'src': '便從此至之니', 'tgt': '이로부터 그곳에 이르는', 'score': 0.759113073348999}]</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2545,7 +2545,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2574,12 +2574,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['기미를 아는 자가 아니라면 어찌 이를', '곳을 먼저 알 수 있겠는가? “마칠 바를 알아', '그것을 마친다.” 라는 것은', '배움이 마치는 곳을 알아 그것을 마치는 것이니, 그러한', '뒤에', '더불어 의(義)를 지킬 수 있다.']</t>
+          <t>['기미를 아는 자가 아니라면 어찌', '이를 곳을 먼저 알 수', '있겠는가? “마칠 바를 알아 그것을 마친다.” 라는 것은', '배움이 마치는 곳을 알아 그것을 마치는 것이니,', '그러한 뒤에', '더불어 의(義)를 지킬 수 있다.']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[{'src_idx': 3, 'tgt_idx': 3, 'src': '知學之終處而終之니', 'tgt': '배움이 마치는 곳을 알아 그것을 마치는 것이니, 그러한', 'score': 0.51407279115957}, {'src_idx': 4, 'tgt_idx': 4, 'src': '然後에', 'tgt': '뒤에', 'score': 0.6101825190030464}, {'src_idx': 5, 'tgt_idx': 5, 'src': '可與守義라', 'tgt': '더불어 의(義)를 지킬 수 있다.', 'score': 0.5004593140274624}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '非知幾者면', 'tgt': '기미를 아는 자가 아니라면 어찌', 'score': 0.5802072286605835}, {'src_idx': 1, 'tgt_idx': 1, 'src': '安能先識至處리오', 'tgt': '이를 곳을 먼저 알 수', 'score': 0.5370240807533264}, {'src_idx': 2, 'tgt_idx': 3, 'src': '知終終之는', 'tgt': '배움이 마치는 곳을 알아 그것을 마치는 것이니,', 'score': 0.6179723739624023}, {'src_idx': 3, 'tgt_idx': 3, 'src': '知學之終處而終之니', 'tgt': '배움이 마치는 곳을 알아 그것을 마치는 것이니,', 'score': 0.7043247818946838}, {'src_idx': 4, 'tgt_idx': 4, 'src': '然後에', 'tgt': '그러한 뒤에', 'score': 0.8008297085762024}, {'src_idx': 5, 'tgt_idx': 5, 'src': '可與守義라', 'tgt': '더불어 의(義)를 지킬 수 있다.', 'score': 0.6618909239768982}]</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2589,7 +2589,7 @@
         <v>6</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2618,12 +2618,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['왕형공(王荊公)(왕안석(王安石))이', '말하기를', '“구삼효(九三爻)는', '구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고 하였는데, 이런 해석은', '대단히 일을 그르친다.']</t>
+          <t>['왕형공(王荊公)(왕안석(王安石))이', '말하기를', '“구삼효(九三爻)는', '구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고', '하였는데, 이런 해석은 대단히 일을 그르친다.']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '王荊公이', 'tgt': '왕형공(王荊公)(왕안석(王安石))이', 'score': 0.7111588894348211}, {'src_idx': 2, 'tgt_idx': 2, 'src': '九三은', 'tgt': '“구삼효(九三爻)는', 'score': 0.5007476124769591}, {'src_idx': 3, 'tgt_idx': 3, 'src': '知九五之位可至而至之라하니', 'tgt': '구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고 하였는데, 이런 해석은', 'score': 0.5553505519384756}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '王荊公이', 'tgt': '왕형공(王荊公)(왕안석(王安石))이', 'score': 0.5547845959663391}, {'src_idx': 2, 'tgt_idx': 2, 'src': '九三은', 'tgt': '“구삼효(九三爻)는', 'score': 0.549818754196167}, {'src_idx': 3, 'tgt_idx': 3, 'src': '知九五之位可至而至之라하니', 'tgt': '구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고', 'score': 0.7135067582130432}]</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2662,12 +2662,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['가령 인신(人臣)이', '항상 이러한 마음을 품으면', '이는 세상을 크게 어지럽히는 도(道)이고,', '또한 탕(湯)․무(武)를 알지 못하는', '것이다. “이를 바를 알아 그곳에 이른다.” 라는 것은', '단지 그 도에 이르는 것일 뿐이다.']</t>
+          <t>['가령 인신(人臣)이', '항상 이러한 마음을 품으면 이는', '세상을 크게 어지럽히는 도(道)이고,', '또한 탕(湯)․무(武)를 알지 못하는', '것이다. “이를 바를 알아 그곳에 이른다.” 라는', '것은 단지 그 도에 이르는 것일 뿐이다.']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '使人臣이', 'tgt': '가령 인신(人臣)이', 'score': 0.5953286499860085}, {'src_idx': 1, 'tgt_idx': 1, 'src': '常懷此心이면', 'tgt': '항상 이러한 마음을 품으면', 'score': 0.6137677737730086}, {'src_idx': 3, 'tgt_idx': 3, 'src': '亦自不識湯武라', 'tgt': '또한 탕(湯)․무(武)를 알지 못하는', 'score': 0.5489344074496179}, {'src_idx': 5, 'tgt_idx': 5, 'src': '只是至其道也라', 'tgt': '단지 그 도에 이르는 것일 뿐이다.', 'score': 0.5184349965113837}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '使人臣이', 'tgt': '가령 인신(人臣)이', 'score': 0.5889853835105896}, {'src_idx': 1, 'tgt_idx': 1, 'src': '常懷此心이면', 'tgt': '항상 이러한 마음을 품으면 이는', 'score': 0.86219722032547}, {'src_idx': 2, 'tgt_idx': 2, 'src': '大亂之道요', 'tgt': '세상을 크게 어지럽히는 도(道)이고,', 'score': 0.527924656867981}, {'src_idx': 3, 'tgt_idx': 3, 'src': '亦自不識湯武라', 'tgt': '또한 탕(湯)․무(武)를 알지 못하는', 'score': 0.748884379863739}, {'src_idx': 5, 'tgt_idx': 5, 'src': '只是至其道也라', 'tgt': '것은 단지 그 도에 이르는 것일 뿐이다.', 'score': 0.7513406276702881}]</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2677,7 +2677,7 @@
         <v>6</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2706,12 +2706,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['형공(荊公)(왕안석(王安石))이', '“용구(用九)는 단지', '상구효(上九爻)', '한 효(爻)에 해당된다.” 라고 말한 것은 옳지', '않다.']</t>
+          <t>['형공(荊公)(왕안석(王安石))이', '“용구(用九)는', '단지 상구효(上九爻)', '한 효(爻)에', '해당된다.” 라고 말한 것은 옳지 않다.']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '荊公이', 'tgt': '형공(荊公)(왕안석(王安石))이', 'score': 0.5569731686088838}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '荊公이', 'tgt': '형공(荊公)(왕안석(王安石))이', 'score': 0.5805602073669434}, {'src_idx': 2, 'tgt_idx': 1, 'src': '用九는', 'tgt': '“용구(用九)는', 'score': 0.7684544920921326}, {'src_idx': 3, 'tgt_idx': 2, 'src': '只在上九一爻라함은', 'tgt': '단지 상구효(上九爻)', 'score': 0.6800058484077454}]</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2721,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2750,12 +2750,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['여섯', '효가 모두 구(九)를 쓴다.']</t>
+          <t>['여섯 효가', '모두 구(九)를 쓴다.']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '六爻는', 'tgt': '여섯 효가', 'score': 0.6314792633056641}, {'src_idx': 1, 'tgt_idx': 1, 'src': '皆用九라', 'tgt': '모두 구(九)를 쓴다.', 'score': 0.6638026833534241}]</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2765,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '見群龍호되', 'tgt': '용(龍)을 보되', 'score': 0.5128547820285748}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 4, 'src': '曰', 'tgt': '길하리라.” 라고 한 것이다.', 'score': 0.5394133925437927}, {'src_idx': 2, 'tgt_idx': 2, 'src': '見群龍호되', 'tgt': '용(龍)을 보되', 'score': 0.6504517793655396}, {'src_idx': 3, 'tgt_idx': 3, 'src': '无首하면', 'tgt': '앞장서지 말면', 'score': 0.6215209364891052}]</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2809,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['구(九)를', '쓰는 것은 곧 강건함을 행하는 것이다. “용구(用九)는', '천덕(天德)은', '우두머리가 되어서는 안 된다는 것이다.” 라는 것은', '‘건(乾)은 지극히 강건하니, 또한', '어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.']</t>
+          <t>['구(九)를 쓰는 것은', '곧 강건함을 행하는 것이다. “용구(用九)는', '천덕(天德)은', '우두머리가 되어서는 안 된다는 것이다.” 라는', '것은 ‘건(乾)은 지극히 강건하니,', '또한 어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '用九는', 'tgt': '구(九)를', 'score': 0.6943291898355256}, {'src_idx': 2, 'tgt_idx': 2, 'src': '天德은', 'tgt': '천덕(天德)은', 'score': 0.596887405880553}, {'src_idx': 4, 'tgt_idx': 4, 'src': '言乾以至剛健하니', 'tgt': '‘건(乾)은 지극히 강건하니, 또한', 'score': 0.5330265770558751}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '用九는', 'tgt': '구(九)를 쓰는 것은', 'score': 0.6875185370445251}, {'src_idx': 1, 'tgt_idx': 1, 'src': '便是行健處라', 'tgt': '곧 강건함을 행하는 것이다. “용구(用九)는', 'score': 0.5116056799888611}, {'src_idx': 2, 'tgt_idx': 2, 'src': '天德은', 'tgt': '천덕(天德)은', 'score': 0.7855331301689148}, {'src_idx': 3, 'tgt_idx': 3, 'src': '不可爲首라함은', 'tgt': '우두머리가 되어서는 안 된다는 것이다.” 라는', 'score': 0.7097237706184387}, {'src_idx': 4, 'tgt_idx': 4, 'src': '言乾以至剛健하니', 'tgt': '것은 ‘건(乾)은 지극히 강건하니,', 'score': 0.71639484167099}, {'src_idx': 5, 'tgt_idx': 5, 'src': '又安可更爲物先이리오', 'tgt': '또한 어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.', 'score': 0.54197096824646}]</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2853,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2882,12 +2882,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['남보다 앞장서면', '화(禍)가 있으니, 이른바', '“감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.']</t>
+          <t>['남보다 앞장서면', '화(禍)가 있으니,', '이른바 “감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '則有禍하니', 'tgt': '화(禍)가 있으니, 이른바', 'score': 0.6467068456527755}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '爲物先이면', 'tgt': '남보다 앞장서면', 'score': 0.6619474291801453}, {'src_idx': 1, 'tgt_idx': 1, 'src': '則有禍하니', 'tgt': '화(禍)가 있으니,', 'score': 0.7795127034187317}, {'src_idx': 2, 'tgt_idx': 2, 'src': '所謂不敢爲天下先이라', 'tgt': '이른바 “감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.', 'score': 0.6902548670768738}]</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2897,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2926,12 +2926,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['건(乾)은 때에 순응하여 움직이니, 지나치지 않는', '것이', '곧 우두머리가 되지 않는 것이다.']</t>
+          <t>['건(乾)은 때에 순응하여 움직이니,', '지나치지', '않는 것이 곧 우두머리가 되지 않는 것이다.']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '乾順時而動이니', 'tgt': '건(乾)은 때에 순응하여 움직이니, 지나치지 않는', 'score': 0.5269154118771822}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '乾順時而動이니', 'tgt': '건(乾)은 때에 순응하여 움직이니,', 'score': 0.7804235219955444}, {'src_idx': 2, 'tgt_idx': 2, 'src': '便是不爲首라', 'tgt': '않는 것이 곧 우두머리가 되지 않는 것이다.', 'score': 0.6937428712844849}]</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2941,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '六爻皆同이라', 'tgt': '건괘(乾卦)는 여섯 효가 모두 동일하다.', 'score': 0.5908347425446743}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '六爻皆同이라', 'tgt': '건괘(乾卦)는 여섯 효가 모두 동일하다.', 'score': 0.7339289784431458}]</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '胡先生은', 'tgt': '“호선생(胡先生)(호원(胡瑗))은', 'score': 0.6278044458485427}, {'src_idx': 3, 'tgt_idx': 3, 'src': '作太子한대', 'tgt': '태자(太子)로', 'score': 0.6042690857951225}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '胡先生은', 'tgt': '“호선생(胡先生)(호원(胡瑗))은', 'score': 0.6665823459625244}, {'src_idx': 2, 'tgt_idx': 2, 'src': '解九四하여', 'tgt': '건괘(乾卦) 구사효(九四爻)를', 'score': 0.5397431254386902}, {'src_idx': 3, 'tgt_idx': 3, 'src': '作太子한대', 'tgt': '태자(太子)로', 'score': 0.6090419292449951}, {'src_idx': 4, 'tgt_idx': 4, 'src': '恐不是卦義니이다', 'tgt': '풀이하였는데, 이는 괘(卦)의 뜻이 아닌 듯합니다.”', 'score': 0.7445827126502991}]</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -3029,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先生이', 'tgt': '선생이', 'score': 0.6303623388829723}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦不妨하니', 'tgt': '“그 또한 무방하니,', 'score': 0.517029179945821}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只看如何用이라', 'tgt': '단지 어떻게 쓰는지를 볼 뿐이다.', 'score': 0.6439903774681929}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先生이', 'tgt': '선생이', 'score': 0.6870141625404358}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦不妨하니', 'tgt': '“그 또한 무방하니,', 'score': 0.7279067039489746}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只看如何用이라', 'tgt': '단지 어떻게 쓰는지를 볼 뿐이다.', 'score': 0.8331798315048218}]</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['태자로 보는 것이', '합당하면 태자로 보는 것이다.']</t>
+          <t>['태자로 보는 것이 합당하면', '태자로 보는 것이다.']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '則做儲貳라', 'tgt': '태자로 보는 것이다.', 'score': 0.5371273159980774}]</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '使九四近君이면', 'tgt': '만약 구사효(九四爻)가 임금에 가까우면', 'score': 0.531099196151548}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '使九四近君이면', 'tgt': '만약 구사효(九四爻)가 임금에 가까우면', 'score': 0.6888653039932251}, {'src_idx': 2, 'tgt_idx': 2, 'src': '亦不害라', 'tgt': '무방하다.', 'score': 0.6530498266220093}]</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -3161,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3190,12 +3190,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['다만 한 가지에 구애되어서는 안 되니,', '만약 한 가지 일만 고집한다면', '384효(爻)가', '단지 384건의 일이 되는 데에서 그칠 뿐이다.”']</t>
+          <t>['다만 한 가지에 구애되어서는 안', '되니, 만약 한 가지 일만', '고집한다면 384효(爻)가', '단지 384건의 일이 되는 데에서 그칠 뿐이다.”']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '則三百八十四爻가', 'tgt': '384효(爻)가', 'score': 0.6283787784925972}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只作得三百八十四件事便休也라', 'tgt': '단지 384건의 일이 되는 데에서 그칠 뿐이다.”', 'score': 0.5216515749755769}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '但不要拘一이니', 'tgt': '다만 한 가지에 구애되어서는 안', 'score': 0.7396146655082703}, {'src_idx': 1, 'tgt_idx': 1, 'src': '若執一事면', 'tgt': '되니, 만약 한 가지 일만', 'score': 0.7483482360839844}, {'src_idx': 2, 'tgt_idx': 2, 'src': '則三百八十四爻가', 'tgt': '고집한다면 384효(爻)가', 'score': 0.7021551132202148}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只作得三百八十四件事便休也라', 'tgt': '단지 384건의 일이 되는 데에서 그칠 뿐이다.”', 'score': 0.6926729083061218}]</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -3205,7 +3205,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '看易에', 'tgt': '&lt;선생이 말하였다.&gt; “≪주역(周易)≫을 볼 적에는 우선', 'score': 0.5592129826545715}, {'src_idx': 1, 'tgt_idx': 1, 'src': '且要知時라', 'tgt': '때를 알아야 한다.', 'score': 0.7400676012039185}]</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3249,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '凡六爻는', 'tgt': '무릇 한 괘(卦)의 여섯 효(爻)는', 'score': 0.5457206584748329}, {'src_idx': 1, 'tgt_idx': 1, 'src': '人人有用이니', 'tgt': '사람마다 용도가 따로 있다.', 'score': 0.5371954119713808}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '凡六爻는', 'tgt': '무릇 한 괘(卦)의 여섯 효(爻)는', 'score': 0.6526031494140625}, {'src_idx': 1, 'tgt_idx': 1, 'src': '人人有用이니', 'tgt': '사람마다 용도가 따로 있다.', 'score': 0.7623465061187744}]</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3322,12 +3322,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['성인(聖人)에게는', '성인의 용도가 있고,', '현인(賢人)에게는 현인의', '용도가 있다.']</t>
+          <t>['성인(聖人)에게는', '성인의 용도가 있고,', '현인(賢人)에게는', '현인의 용도가 있다.']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '聖人은', 'tgt': '성인(聖人)에게는', 'score': 0.6424917552020923}, {'src_idx': 1, 'tgt_idx': 0, 'src': '自有聖人用하고', 'tgt': '성인(聖人)에게는', 'score': 0.5145831356448191}, {'src_idx': 2, 'tgt_idx': 2, 'src': '賢人은', 'tgt': '현인(賢人)에게는 현인의', 'score': 0.5789076222447425}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '聖人은', 'tgt': '성인(聖人)에게는', 'score': 0.741483747959137}, {'src_idx': 1, 'tgt_idx': 0, 'src': '自有聖人用하고', 'tgt': '성인(聖人)에게는', 'score': 0.6409683227539062}, {'src_idx': 2, 'tgt_idx': 2, 'src': '賢人은', 'tgt': '현인(賢人)에게는', 'score': 0.7772258520126343}, {'src_idx': 3, 'tgt_idx': 2, 'src': '自有賢人用하고', 'tgt': '현인(賢人)에게는', 'score': 0.6588730216026306}]</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3337,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '自有衆人用하고', 'tgt': '일반인의 용도가 있고,', 'score': 0.5859165368477675}, {'src_idx': 2, 'tgt_idx': 2, 'src': '學者는', 'tgt': '학자에게는', 'score': 0.54367835142319}, {'src_idx': 3, 'tgt_idx': 3, 'src': '自有學者用하고', 'tgt': '학자의 용도가 있다.', 'score': 0.6373630720101159}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '衆人은', 'tgt': '일반인에게는', 'score': 0.6391881108283997}, {'src_idx': 1, 'tgt_idx': 1, 'src': '自有衆人用하고', 'tgt': '일반인의 용도가 있고,', 'score': 0.7089567184448242}, {'src_idx': 2, 'tgt_idx': 2, 'src': '學者는', 'tgt': '학자에게는', 'score': 0.7994980812072754}, {'src_idx': 3, 'tgt_idx': 3, 'src': '自有學者用하고', 'tgt': '학자의 용도가 있다.', 'score': 0.684609591960907}]</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3381,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3410,12 +3410,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['임금에게는 임금의 용도가 있고, 신하에게는 신하의', '용도가 있어', '통하지 않는 바가 없다.”']</t>
+          <t>['임금에게는 임금의 용도가', '있고, 신하에게는 신하의 용도가', '있어 통하지 않는 바가 없다.”']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 1, 'src': '君有君用하고', 'tgt': '용도가 있어', 'score': 0.5656554191374202}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 1, 'src': '君有君用하고', 'tgt': '있고, 신하에게는 신하의 용도가', 'score': 0.6449755430221558}, {'src_idx': 1, 'tgt_idx': 1, 'src': '臣有臣用하여', 'tgt': '있고, 신하에게는 신하의 용도가', 'score': 0.7335309982299805}, {'src_idx': 2, 'tgt_idx': 2, 'src': '無所不通이라', 'tgt': '있어 통하지 않는 바가 없다.”', 'score': 0.6752111911773682}]</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3425,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '坤卦는', 'tgt': '“곤괘(坤卦)는', 'score': 0.6936514022996529}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 2, 'src': '因問호되', 'tgt': '신하의 일이니,', 'score': 0.5723926424980164}, {'src_idx': 1, 'tgt_idx': 1, 'src': '坤卦는', 'tgt': '“곤괘(坤卦)는', 'score': 0.7349950671195984}, {'src_idx': 2, 'tgt_idx': 2, 'src': '是臣之事니', 'tgt': '신하의 일이니,', 'score': 0.7076916098594666}, {'src_idx': 4, 'tgt_idx': 4, 'src': '有用處否잇가', 'tgt': '쓸 곳이 있겠습니까?”', 'score': 0.6615840792655945}]</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3469,7 +3469,7 @@
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先生曰', 'tgt': '선생이 말하였다.', 'score': 0.7168222665786743}, {'src_idx': 1, 'tgt_idx': 1, 'src': '是何無用이리오', 'tgt': '“어찌 쓸 곳이 없겠는가?', 'score': 0.5100370645523071}]</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3513,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3542,12 +3542,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['예컨대 ‘두터운 덕으로 만물을', '실어준다.’ 라는 것을 임금이 어찌 쓰지', '않을 수 있겠는가?”']</t>
+          <t>['예컨대 ‘두터운 덕으로 만물을 실어준다.’', '라는 것을 임금이', '어찌 쓰지 않을 수 있겠는가?”']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如厚德載物을', 'tgt': '예컨대 ‘두터운 덕으로 만물을 실어준다.’', 'score': 0.6498504281044006}]</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3557,7 +3557,7 @@
         <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '陰爲小人이요', 'tgt': '음(陰)은 소인(小人)이고', 'score': 0.6545390275019817}, {'src_idx': 1, 'tgt_idx': 1, 'src': '利爲不善이나', 'tgt': '이(利)는 불선(不善)이나,', 'score': 0.6377292911737751}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不可一槪論이라', 'tgt': '일률적으로 논해서는 안 된다.', 'score': 0.510356705672252}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '陰爲小人이요', 'tgt': '음(陰)은 소인(小人)이고', 'score': 0.8160805106163025}, {'src_idx': 1, 'tgt_idx': 1, 'src': '利爲不善이나', 'tgt': '이(利)는 불선(不善)이나,', 'score': 0.748190701007843}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不可一槪論이라', 'tgt': '일률적으로 논해서는 안 된다.', 'score': 0.7488504648208618}]</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3630,12 +3630,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['음(陰)이 양(陽)을 도와 만물을 이루는 것이', '군자(君子)이고, 음(陰)이', '양(陽)을 해치는 것이', '소인(小人)이다.']</t>
+          <t>['음(陰)이 양(陽)을 도와 만물을 이루는 것이', '군자(君子)이고, 음(陰)이', '양(陽)을 해치는', '것이 소인(小人)이다.']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '夫陰助陽以成物者가', 'tgt': '음(陰)이 양(陽)을 도와 만물을 이루는 것이', 'score': 0.5734579239961899}, {'src_idx': 1, 'tgt_idx': 1, 'src': '君子也요', 'tgt': '군자(君子)이고, 음(陰)이', 'score': 0.5317268680477322}, {'src_idx': 2, 'tgt_idx': 2, 'src': '其害陽者가', 'tgt': '양(陽)을 해치는 것이', 'score': 0.5525040792470909}, {'src_idx': 3, 'tgt_idx': 3, 'src': '小人也라', 'tgt': '소인(小人)이다.', 'score': 0.6504258698404551}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '夫陰助陽以成物者가', 'tgt': '음(陰)이 양(陽)을 도와 만물을 이루는 것이', 'score': 0.7892242670059204}, {'src_idx': 1, 'tgt_idx': 1, 'src': '君子也요', 'tgt': '군자(君子)이고, 음(陰)이', 'score': 0.595568060874939}, {'src_idx': 2, 'tgt_idx': 2, 'src': '其害陽者가', 'tgt': '양(陽)을 해치는', 'score': 0.7998095750808716}, {'src_idx': 3, 'tgt_idx': 3, 'src': '小人也라', 'tgt': '것이 소인(小人)이다.', 'score': 0.5452096462249756}]</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3674,12 +3674,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['이(利)가 의(義)에 조화로운 것이', '선(善)이고,', '이(利)가 의(義)를 해치는 것이', '불선(不善)이다.']</t>
+          <t>['이(利)가 의(義)에 조화로운', '것이 선(善)이고, 이(利)가', '의(義)를 해치는 것이', '불선(不善)이다.']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '夫利和義者가', 'tgt': '이(利)가 의(義)에 조화로운 것이', 'score': 0.5016373198652305}, {'src_idx': 2, 'tgt_idx': 2, 'src': '其害義者가', 'tgt': '이(利)가 의(義)를 해치는 것이', 'score': 0.5166569282663768}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '夫利和義者가', 'tgt': '이(利)가 의(義)에 조화로운', 'score': 0.6298532485961914}, {'src_idx': 2, 'tgt_idx': 2, 'src': '其害義者가', 'tgt': '의(義)를 해치는 것이', 'score': 0.7391080856323242}, {'src_idx': 3, 'tgt_idx': 3, 'src': '不善也라', 'tgt': '불선(不善)이다.', 'score': 0.6376217007637024}]</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3689,7 +3689,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 2, 'src': '利貞者는', 'tgt': '정(貞)이', 'score': 0.5012454399799873}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言利貞이', 'tgt': '정(貞)이', 'score': 0.5487254565067421}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是乾之性情이라', 'tgt': '곧 건(乾)의 성정(性情)임을 말한다.”', 'score': 0.6165992372154988}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 2, 'src': '利貞者는', 'tgt': '정(貞)이', 'score': 0.559318482875824}, {'src_idx': 1, 'tgt_idx': 1, 'src': '性情也라함은', 'tgt': '성정(性情)이다.’ 라는 것은 이(利)와', 'score': 0.6218908429145813}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言利貞이', 'tgt': '정(貞)이', 'score': 0.6229609251022339}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是乾之性情이라', 'tgt': '곧 건(乾)의 성정(性情)임을 말한다.”', 'score': 0.711169421672821}]</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3733,7 +3733,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3762,12 +3762,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['인하여 선생에게 물었다. “이 이(利)와', '‘이(利)를 근본으로 삼는다.’ 라는 말의 이(利)는', '같습니까?”']</t>
+          <t>['인하여 선생에게 물었다.', '“이 이(利)와 ‘이(利)를 근본으로 삼는다.’ 라는 말의', '이(利)는 같습니까?”']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '利與以利爲本之利는', 'tgt': '‘이(利)를 근본으로 삼는다.’ 라는 말의 이(利)는', 'score': 0.6572623615545898}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '因問호되', 'tgt': '인하여 선생에게 물었다.', 'score': 0.5713143348693848}, {'src_idx': 1, 'tgt_idx': 1, 'src': '利與以利爲本之利는', 'tgt': '“이 이(利)와 ‘이(利)를 근본으로 삼는다.’ 라는 말의', 'score': 0.7397149205207825}]</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '用有不同하니', 'tgt': '쓰임에는 같지 않음이 있으니,', 'score': 0.5071732611645435}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只看如何用이라', 'tgt': '어떻게 쓰는지를 볼 뿐이다.', 'score': 0.6299823311204087}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先生曰', 'tgt': '선생이 말하였다.', 'score': 0.7168222665786743}, {'src_idx': 1, 'tgt_idx': 1, 'src': '凡字只有一箇나', 'tgt': '“무릇 글자는 하나이지만', 'score': 0.5933250784873962}, {'src_idx': 2, 'tgt_idx': 2, 'src': '用有不同하니', 'tgt': '쓰임에는 같지 않음이 있으니,', 'score': 0.7667536735534668}, {'src_idx': 3, 'tgt_idx': 3, 'src': '只看如何用이라', 'tgt': '어떻게 쓰는지를 볼 뿐이다.', 'score': 0.8350691795349121}]</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3821,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '便是利니', 'tgt': '이(利)이니,', 'score': 0.5169611991084793}, {'src_idx': 2, 'tgt_idx': 2, 'src': '君子未嘗不欲利라', 'tgt': '군자(君子)는 일찍이 이(利)를 바라지 않은 적이 없다.', 'score': 0.5878066377889426}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '凡順理無害處가', 'tgt': '무릇 이치에 순응하여 해침이 없는 것이 곧', 'score': 0.6684669852256775}, {'src_idx': 1, 'tgt_idx': 1, 'src': '便是利니', 'tgt': '이(利)이니,', 'score': 0.6262971758842468}, {'src_idx': 2, 'tgt_idx': 2, 'src': '君子未嘗不欲利라', 'tgt': '군자(君子)는 일찍이 이(利)를 바라지 않은 적이 없다.', 'score': 0.7063402533531189}]</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3865,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3894,12 +3894,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’ 라고 말한', '경우는 대개 이(利)만을 마음에 두면', '해로움이 있기 때문이다.']</t>
+          <t>['그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’', '라고 말한 경우는 대개 이(利)만을 마음에 두면', '해로움이 있기 때문이다.']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然孟子言何必曰利者는', 'tgt': '그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’ 라고 말한', 'score': 0.5425640587062547}, {'src_idx': 1, 'tgt_idx': 1, 'src': '蓋只以利爲心이면', 'tgt': '경우는 대개 이(利)만을 마음에 두면', 'score': 0.552670206300659}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然孟子言何必曰利者는', 'tgt': '그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’', 'score': 0.7244635820388794}, {'src_idx': 1, 'tgt_idx': 1, 'src': '蓋只以利爲心이면', 'tgt': '라고 말한 경우는 대개 이(利)만을 마음에 두면', 'score': 0.7144119739532471}, {'src_idx': 2, 'tgt_idx': 2, 'src': '則有害일새라', 'tgt': '해로움이 있기 때문이다.', 'score': 0.6013092398643494}]</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3909,7 +3909,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如上下交征利而國危는', 'tgt': '예컨대 ‘윗사람과 아랫사람이 서로 이(利)를 취한다면 나라가 위태로울', 'score': 0.7491796016693115}, {'src_idx': 1, 'tgt_idx': 1, 'src': '便是有害라', 'tgt': '것이다.’ 라는 것은 바로 해로움이 있는 것이다.', 'score': 0.6449279189109802}]</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3953,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3982,12 +3982,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['‘인(仁)하면서도 자기 어버이를 버리는 자는 있지 않으며, 의로우면서도', '자기 임금을 뒤로하는 자는 있지 않다.’ 라고', '하였으니, 자기 어버이를 버리지 않고', '자기 임금을 뒤로하지 않는 것이 곧', '이(利)이다.']</t>
+          <t>['‘인(仁)하면서도 자기 어버이를 버리는 자는', '있지 않으며, 의로우면서도 자기 임금을 뒤로하는 자는', '있지 않다.’ 라고 하였으니, 자기 어버이를 버리지 않고', '자기 임금을 뒤로하지 않는 것이 곧', '이(利)이다.']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '未有仁而遺其親이며', 'tgt': '‘인(仁)하면서도 자기 어버이를 버리는 자는 있지 않으며, 의로우면서도', 'score': 0.5377928934059717}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不遺其親하고', 'tgt': '하였으니, 자기 어버이를 버리지 않고', 'score': 0.5113320271066581}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '未有仁而遺其親이며', 'tgt': '‘인(仁)하면서도 자기 어버이를 버리는 자는', 'score': 0.6662394404411316}, {'src_idx': 1, 'tgt_idx': 1, 'src': '未有義而後其君이라하니', 'tgt': '있지 않으며, 의로우면서도 자기 임금을 뒤로하는 자는', 'score': 0.6268171668052673}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不遺其親하고', 'tgt': '있지 않다.’ 라고 하였으니, 자기 어버이를 버리지 않고', 'score': 0.7118130922317505}, {'src_idx': 3, 'tgt_idx': 1, 'src': '不後其君이', 'tgt': '있지 않으며, 의로우면서도 자기 임금을 뒤로하는 자는', 'score': 0.5446709990501404}, {'src_idx': 4, 'tgt_idx': 4, 'src': '便是利라', 'tgt': '이(利)이다.', 'score': 0.5679092407226562}]</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3997,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '仁義는', 'tgt': '인(仁)과 의(義)는', 'score': 0.6910577045514334}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '仁義는', 'tgt': '인(仁)과 의(義)는', 'score': 0.7065170407295227}, {'src_idx': 1, 'tgt_idx': 1, 'src': '未嘗不利라', 'tgt': '일찍이 이롭지 않은 적이 없다.”', 'score': 0.5397334694862366}]</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -4041,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['사사직(謝師直)(사영온(謝景溫))은', '장안(長安)의 조사(漕司)이고', '명도(明道)는', '호현(鄠縣)의 주부(主簿)였을 적에', '≪주역(周易)≫과 ≪춘추(春秋)≫를 논하였는데,', '명도가', '말하기를', '“전운사(轉運使)께서는', '≪춘추≫에는', '오히려 장점이 있으나, ≪주역≫은 전혀', '이해를', '못하십니다.” 라고 하였다.']</t>
+          <t>['사사직(謝師直)(사영온(謝景溫))은', '장안(長安)의 조사(漕司)이고', '명도(明道)는', '호현(鄠縣)의 주부(主簿)였을 적에', '≪주역(周易)≫과 ≪춘추(春秋)≫를 논하였는데,', '명도가', '말하기를', '“전운사(轉運使)께서는', '≪춘추≫에는', '오히려 장점이 있으나,', '≪주역≫은', '전혀 이해를 못하십니다.” 라고 하였다.']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '謝師直은', 'tgt': '사사직(謝師直)(사영온(謝景溫))은', 'score': 0.6618159526391757}, {'src_idx': 1, 'tgt_idx': 1, 'src': '爲長安漕하고', 'tgt': '장안(長安)의 조사(漕司)이고', 'score': 0.5156618235972776}, {'src_idx': 2, 'tgt_idx': 2, 'src': '明道는', 'tgt': '명도(明道)는', 'score': 0.6113440980793339}, {'src_idx': 4, 'tgt_idx': 4, 'src': '論易及春秋라', 'tgt': '≪주역(周易)≫과 ≪춘추(春秋)≫를 논하였는데,', 'score': 0.59600841289149}, {'src_idx': 5, 'tgt_idx': 2, 'src': '明道가', 'tgt': '명도(明道)는', 'score': 0.5611354459660229}, {'src_idx': 7, 'tgt_idx': 7, 'src': '運使는', 'tgt': '“전운사(轉運使)께서는', 'score': 0.5545049417880219}, {'src_idx': 9, 'tgt_idx': 9, 'src': '猶有所長이나', 'tgt': '오히려 장점이 있으나, ≪주역≫은 전혀', 'score': 0.5072925631742194}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '謝師直은', 'tgt': '사사직(謝師直)(사영온(謝景溫))은', 'score': 0.5794575214385986}, {'src_idx': 1, 'tgt_idx': 1, 'src': '爲長安漕하고', 'tgt': '장안(長安)의 조사(漕司)이고', 'score': 0.6550487875938416}, {'src_idx': 2, 'tgt_idx': 2, 'src': '明道는', 'tgt': '명도(明道)는', 'score': 0.8150568604469299}, {'src_idx': 3, 'tgt_idx': 3, 'src': '爲鄠縣簿할새', 'tgt': '호현(鄠縣)의 주부(主簿)였을 적에', 'score': 0.6511561274528503}, {'src_idx': 4, 'tgt_idx': 4, 'src': '論易及春秋라', 'tgt': '≪주역(周易)≫과 ≪춘추(春秋)≫를 논하였는데,', 'score': 0.6612653136253357}, {'src_idx': 5, 'tgt_idx': 2, 'src': '明道가', 'tgt': '명도(明道)는', 'score': 0.6706324815750122}, {'src_idx': 7, 'tgt_idx': 7, 'src': '運使는', 'tgt': '“전운사(轉運使)께서는', 'score': 0.6190937757492065}, {'src_idx': 8, 'tgt_idx': 8, 'src': '春秋엔', 'tgt': '≪춘추≫에는', 'score': 0.5619093775749207}, {'src_idx': 9, 'tgt_idx': 9, 'src': '猶有所長이나', 'tgt': '오히려 장점이 있으나,', 'score': 0.5383531451225281}, {'src_idx': 11, 'tgt_idx': 11, 'src': '則全理會不得이라', 'tgt': '전혀 이해를 못하십니다.” 라고 하였다.', 'score': 0.5283613204956055}]</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -4085,7 +4085,7 @@
         <v>12</v>
       </c>
       <c r="I83" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4114,12 +4114,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['사직(師直)이', '어느 날 선생에게 그 말을 하자,', '선생이', '답하였다. “제가', '보기로는', '두 분 모두 ≪주역≫을 깊이 아는 분입니다.”']</t>
+          <t>['사직(師直)이', '어느 날 선생에게 그 말을 하자,', '선생이', '답하였다.', '“제가 보기로는', '두 분 모두 ≪주역≫을 깊이 아는 분입니다.”']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '師直이', 'tgt': '사직(師直)이', 'score': 0.7658790031704541}, {'src_idx': 2, 'tgt_idx': 2, 'src': '先生이', 'tgt': '선생이', 'score': 0.6303623388829723}, {'src_idx': 5, 'tgt_idx': 5, 'src': '二公皆深知易者라', 'tgt': '두 분 모두 ≪주역≫을 깊이 아는 분입니다.”', 'score': 0.5150063051752297}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '師直이', 'tgt': '사직(師直)이', 'score': 0.690252423286438}, {'src_idx': 1, 'tgt_idx': 1, 'src': '一日說與先生하니', 'tgt': '어느 날 선생에게 그 말을 하자,', 'score': 0.7459617257118225}, {'src_idx': 2, 'tgt_idx': 2, 'src': '先生이', 'tgt': '선생이', 'score': 0.6870141625404358}, {'src_idx': 3, 'tgt_idx': 3, 'src': '答曰', 'tgt': '답하였다.', 'score': 0.7355242371559143}, {'src_idx': 4, 'tgt_idx': 4, 'src': '據某所見컨대', 'tgt': '“제가 보기로는', 'score': 0.7801850438117981}, {'src_idx': 5, 'tgt_idx': 5, 'src': '二公皆深知易者라', 'tgt': '두 분 모두 ≪주역≫을 깊이 아는 분입니다.”', 'score': 0.7211143374443054}]</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -4129,7 +4129,7 @@
         <v>6</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '師直曰', 'tgt': '사직이 말하였다.', 'score': 0.5502676367759705}, {'src_idx': 1, 'tgt_idx': 1, 'src': '何故아', 'tgt': '“어째서입니까?”', 'score': 0.6751439571380615}]</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -4173,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4202,12 +4202,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['선생이 말하였다.', '“전운사로서 능히 절조를 굽혀 일개', '주부에게 물었으며, 일개 주부로서 전운사에게 ≪주역≫을 알지 못한다고 감히 말하였으니, ≪주역≫의 도를', '깊이 아는 사람이 아니라면 그렇게', '할 수 없습니다.”']</t>
+          <t>['선생이 말하였다.', '“전운사로서 능히 절조를 굽혀 일개 주부에게 물었으며, 일개 주부로서 전운사에게 ≪주역≫을', '알지 못한다고 감히 말하였으니, ≪주역≫의', '도를 깊이 아는 사람이 아니라면 그렇게', '할 수 없습니다.”']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[{'src_idx': 4, 'tgt_idx': 4, 'src': '不能이라', 'tgt': '할 수 없습니다.”', 'score': 0.5501015805310907}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先生曰', 'tgt': '선생이 말하였다.', 'score': 0.7168222665786743}, {'src_idx': 1, 'tgt_idx': 1, 'src': '以運使能屈節問一主簿하고', 'tgt': '“전운사로서 능히 절조를 굽혀 일개 주부에게 물었으며, 일개 주부로서 전운사에게 ≪주역≫을', 'score': 0.650571346282959}, {'src_idx': 2, 'tgt_idx': 2, 'src': '以一主簿敢言運使不知易하니', 'tgt': '알지 못한다고 감히 말하였으니, ≪주역≫의', 'score': 0.6443959474563599}, {'src_idx': 3, 'tgt_idx': 3, 'src': '非深知易道者어든', 'tgt': '도를 깊이 아는 사람이 아니라면 그렇게', 'score': 0.6671199202537537}, {'src_idx': 4, 'tgt_idx': 4, 'src': '不能이라', 'tgt': '할 수 없습니다.”', 'score': 0.7446237206459045}]</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -4217,7 +4217,7 @@
         <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['“구름이 가고 비가 내린다.” 라는', '것은 건(乾)이 형통한 것이다.']</t>
+          <t>['“구름이 가고 비가 내린다.” 라는 것은', '건(乾)이 형통한 것이다.']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '雲行雨施는', 'tgt': '“구름이 가고 비가 내린다.” 라는 것은', 'score': 0.5394626259803772}, {'src_idx': 1, 'tgt_idx': 1, 'src': '是乾之亨處라', 'tgt': '건(乾)이 형통한 것이다.', 'score': 0.6203395128250122}]</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -4261,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4290,12 +4290,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['건괘(乾卦)의 여섯 효(爻)에서', '만일 성인(聖人)이 일찍이 실천한 점을 보고자 한다면', '마땅히 순(舜)임금의 일에서 볼 수 있다.']</t>
+          <t>['건괘(乾卦)의 여섯 효(爻)에서', '만일 성인(聖人)이 일찍이 실천한 점을 보고자', '한다면 마땅히 순(舜)임금의 일에서 볼 수 있다.']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '乾六爻에', 'tgt': '건괘(乾卦)의 여섯 효(爻)에서', 'score': 0.647498811005428}, {'src_idx': 2, 'tgt_idx': 2, 'src': '當以舜可見이라', 'tgt': '마땅히 순(舜)임금의 일에서 볼 수 있다.', 'score': 0.5309788036928609}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '乾六爻에', 'tgt': '건괘(乾卦)의 여섯 효(爻)에서', 'score': 0.7437262535095215}, {'src_idx': 1, 'tgt_idx': 1, 'src': '如欲見聖人曾履處어든', 'tgt': '만일 성인(聖人)이 일찍이 실천한 점을 보고자', 'score': 0.6767378449440002}, {'src_idx': 2, 'tgt_idx': 2, 'src': '當以舜可見이라', 'tgt': '한다면 마땅히 순(舜)임금의 일에서 볼 수 있다.', 'score': 0.7604378461837769}]</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -4305,7 +4305,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['순임금이 미천한 지위에', '있었던 것이 곧 ‘잠(潛)’ 이고, 질그릇을', '굽고 물고기를 잡았을 때가', '곧 ‘견(見)’ 이고, 그윽한 덕이 위로 올라가 알려진', '때가', '곧 ‘건건(乾乾)’', '이고, 대록(大麓)에 들어갔을 때가', '곧 ‘약(躍)’이다.']</t>
+          <t>['순임금이 미천한 지위에', '있었던 것이 곧 ‘잠(潛)’ 이고, 질그릇을 굽고', '물고기를 잡았을 때가', '곧 ‘견(見)’ 이고, 그윽한 덕이', '위로 올라가 알려진 때가', '곧 ‘건건(乾乾)’ 이고,', '대록(大麓)에 들어갔을 때가', '곧 ‘약(躍)’이다.']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '陶漁時가', 'tgt': '굽고 물고기를 잡았을 때가', 'score': 0.5177518780388678}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是見(현)이요', 'tgt': '곧 ‘견(見)’ 이고, 그윽한 덕이 위로 올라가 알려진', 'score': 0.5133104949670142}, {'src_idx': 5, 'tgt_idx': 5, 'src': '便是乾乾이요', 'tgt': '곧 ‘건건(乾乾)’', 'score': 0.5866886230728213}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '在側陋가', 'tgt': '순임금이 미천한 지위에', 'score': 0.5141801834106445}, {'src_idx': 1, 'tgt_idx': 1, 'src': '便是潛이요', 'tgt': '있었던 것이 곧 ‘잠(潛)’ 이고, 질그릇을 굽고', 'score': 0.6994742751121521}, {'src_idx': 2, 'tgt_idx': 2, 'src': '陶漁時가', 'tgt': '물고기를 잡았을 때가', 'score': 0.5599207282066345}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是見(현)이요', 'tgt': '곧 ‘견(見)’ 이고, 그윽한 덕이', 'score': 0.7038788199424744}, {'src_idx': 4, 'tgt_idx': 4, 'src': '升聞時가', 'tgt': '위로 올라가 알려진 때가', 'score': 0.647572934627533}, {'src_idx': 5, 'tgt_idx': 5, 'src': '便是乾乾이요', 'tgt': '곧 ‘건건(乾乾)’ 이고,', 'score': 0.721021831035614}, {'src_idx': 6, 'tgt_idx': 6, 'src': '納于大麓時가', 'tgt': '대록(大麓)에 들어갔을 때가', 'score': 0.6921574473381042}, {'src_idx': 7, 'tgt_idx': 7, 'src': '便是躍이라', 'tgt': '곧 ‘약(躍)’이다.', 'score': 0.7544378042221069}]</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -4349,7 +4349,7 @@
         <v>8</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4378,12 +4378,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['개보(介甫)(왕안석(王安石))는', '무왕(武王)이 군대를', '사열한 것을 건괘(乾卦) 구사효(九四爻)의', '의미로 여겼으니, 이는 대단히 의리가 없다.']</t>
+          <t>['개보(介甫)(왕안석(王安石))는', '무왕(武王)이 군대를 사열한 것을 건괘(乾卦)', '구사효(九四爻)의 의미로 여겼으니,', '이는 대단히 의리가 없다.']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以武王觀兵으로', 'tgt': '무왕(武王)이 군대를', 'score': 0.6188382972570446}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以武王觀兵으로', 'tgt': '무왕(武王)이 군대를 사열한 것을 건괘(乾卦)', 'score': 0.5840269923210144}, {'src_idx': 2, 'tgt_idx': 2, 'src': '爲九四하니', 'tgt': '구사효(九四爻)의 의미로 여겼으니,', 'score': 0.5661984086036682}, {'src_idx': 3, 'tgt_idx': 3, 'src': '大無義理요', 'tgt': '이는 대단히 의리가 없다.', 'score': 0.5356764197349548}]</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4393,7 +4393,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '兼觀兵之說도', 'tgt': '아울러 무왕이 군대를 사열했다는 설', 'score': 0.5347241759300232}, {'src_idx': 1, 'tgt_idx': 1, 'src': '亦自無此事라', 'tgt': '또한 본래 그런 일이 없었다.', 'score': 0.6591343879699707}]</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4437,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如今日天命絶이면', 'tgt': '만약 오늘 천명(天命)이 끊어졌다면', 'score': 0.6975741746794508}, {'src_idx': 1, 'tgt_idx': 1, 'src': '則今日便是獨夫니', 'tgt': '오늘 바로 독부(獨夫)이니,', 'score': 0.6235139222032032}, {'src_idx': 2, 'tgt_idx': 2, 'src': '豈容更留之三年이리오', 'tgt': '그가 다시 3년 동안 제위에 머무는 것을 어찌 용납하겠는가?', 'score': 0.5420147595333984}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '如今日天命絶이면', 'tgt': '만약 오늘 천명(天命)이 끊어졌다면', 'score': 0.7430886030197144}, {'src_idx': 1, 'tgt_idx': 1, 'src': '則今日便是獨夫니', 'tgt': '오늘 바로 독부(獨夫)이니,', 'score': 0.8398463129997253}, {'src_idx': 2, 'tgt_idx': 2, 'src': '豈容更留之三年이리오', 'tgt': '그가 다시 3년 동안 제위에 머무는 것을 어찌 용납하겠는가?', 'score': 0.5865291953086853}]</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -4510,12 +4510,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['오늘 천명(天命)이 아직 끊어지지 않았다면 아직', '임금이니,', '신하된 자가', '어찌 군대를 이끌고 자기 임금을 협박할 수 있겠는가.']</t>
+          <t>['오늘 천명(天命)이 아직 끊어지지 않았다면 아직', '임금이니, 신하된', '자가 어찌', '군대를 이끌고 자기 임금을 협박할 수 있겠는가.']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今日天命未絶이면', 'tgt': '오늘 천명(天命)이 아직 끊어지지 않았다면 아직', 'score': 0.6679280785085487}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今日天命未絶이면', 'tgt': '오늘 천명(天命)이 아직 끊어지지 않았다면 아직', 'score': 0.8208111524581909}, {'src_idx': 1, 'tgt_idx': 1, 'src': '便是君也니', 'tgt': '임금이니, 신하된', 'score': 0.5226303935050964}, {'src_idx': 2, 'tgt_idx': 2, 'src': '爲人臣子가', 'tgt': '자가 어찌', 'score': 0.6135466694831848}, {'src_idx': 3, 'tgt_idx': 3, 'src': '豈可以兵脅其君이리오', 'tgt': '군대를 이끌고 자기 임금을 협박할 수 있겠는가.', 'score': 0.6570221185684204}]</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4525,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4598,12 +4598,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['또 주(紂)는', '사나움이 이와 같았는데 태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고', '하였으니, 옳은지 알 수 없다.']</t>
+          <t>['또 주(紂)는 사나움이 이와 같았는데', '태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고 하였으니,', '옳은지 알 수 없다.']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '太史公謂有七十萬衆이라하니', 'tgt': '사나움이 이와 같았는데 태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고', 'score': 0.5531504813280341}, {'src_idx': 2, 'tgt_idx': 2, 'src': '未知是否라', 'tgt': '하였으니, 옳은지 알 수 없다.', 'score': 0.5011343199215351}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '又紂鷙很若此한대', 'tgt': '또 주(紂)는 사나움이 이와 같았는데', 'score': 0.7020168900489807}, {'src_idx': 1, 'tgt_idx': 1, 'src': '太史公謂有七十萬衆이라하니', 'tgt': '태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고 하였으니,', 'score': 0.7451109290122986}, {'src_idx': 2, 'tgt_idx': 2, 'src': '未知是否라', 'tgt': '옳은지 알 수 없다.', 'score': 0.6309016942977905}]</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4613,7 +4613,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '紂之衆若林이라하니', 'tgt': '“주(紂)의 무리가 숲처럼 많다.” 고 하였으니,', 'score': 0.5357935956959695}, {'src_idx': 2, 'tgt_idx': 2, 'src': '三年之中에', 'tgt': '3년 동안', 'score': 0.6208542826292135}, {'src_idx': 3, 'tgt_idx': 3, 'src': '豈肯容武王如此便休得也리오', 'tgt': '그가 어찌 무왕(武王)이 이와 같이 하는 것을 용납하여 내버려두려고 하였겠는가.', 'score': 0.5256352768444967}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然書亦自云호되', 'tgt': '그러나 ≪서경(書經)≫에 또한', 'score': 0.6451447010040283}, {'src_idx': 1, 'tgt_idx': 1, 'src': '紂之衆若林이라하니', 'tgt': '“주(紂)의 무리가 숲처럼 많다.” 고 하였으니,', 'score': 0.7590525150299072}, {'src_idx': 2, 'tgt_idx': 2, 'src': '三年之中에', 'tgt': '3년 동안', 'score': 0.724658191204071}, {'src_idx': 3, 'tgt_idx': 3, 'src': '豈肯容武王如此便休得也리오', 'tgt': '그가 어찌 무왕(武王)이 이와 같이 하는 것을 용납하여 내버려두려고 하였겠는가.', 'score': 0.6479735374450684}]</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -4657,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4686,12 +4686,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['단지 &lt;태서(泰誓)&gt; 한 편의 전서(前序)에', '‘십유일년(十有一年)’ 이라 하고,', '그 뒤 정경(正經)에', '‘유십유삼년(惟十有三年)’ 이라 하여', '선유(先儒)들이 잘못', '인식해서 드디어 군대를 사열했다는 설로 변한 것이다.']</t>
+          <t>['단지 &lt;태서(泰誓)&gt; 한 편의 전서(前序)에', '‘십유일년(十有一年)’ 이라 하고, 그', '뒤 정경(正經)에', '‘유십유삼년(惟十有三年)’ 이라', '하여 선유(先儒)들이 잘못', '인식해서 드디어 군대를 사열했다는 설로 변한 것이다.']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '十有一年이라하고', 'tgt': '‘십유일년(十有一年)’ 이라 하고,', 'score': 0.6733361509046848}, {'src_idx': 2, 'tgt_idx': 2, 'src': '後面正經에', 'tgt': '그 뒤 정경(正經)에', 'score': 0.5517502871025743}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便說惟十有三年이라하여', 'tgt': '‘유십유삼년(惟十有三年)’ 이라 하여', 'score': 0.6452441098581372}, {'src_idx': 4, 'tgt_idx': 4, 'src': '先儒誤妄하여', 'tgt': '선유(先儒)들이 잘못', 'score': 0.569954280150373}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '只是太誓一篇前序云', 'tgt': '단지 &lt;태서(泰誓)&gt; 한 편의 전서(前序)에', 'score': 0.7858375906944275}, {'src_idx': 1, 'tgt_idx': 1, 'src': '十有一年이라하고', 'tgt': '‘십유일년(十有一年)’ 이라 하고, 그', 'score': 0.8229864835739136}, {'src_idx': 2, 'tgt_idx': 2, 'src': '後面正經에', 'tgt': '뒤 정경(正經)에', 'score': 0.8352903723716736}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便說惟十有三年이라하여', 'tgt': '‘유십유삼년(惟十有三年)’ 이라', 'score': 0.8357165455818176}, {'src_idx': 4, 'tgt_idx': 4, 'src': '先儒誤妄하여', 'tgt': '하여 선유(先儒)들이 잘못', 'score': 0.8014608025550842}, {'src_idx': 5, 'tgt_idx': 5, 'src': '遂轉爲觀兵之說이라', 'tgt': '인식해서 드디어 군대를 사열했다는 설로 변한 것이다.', 'score': 0.6388800144195557}]</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4701,7 +4701,7 @@
         <v>6</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先王은', 'tgt': '선왕(先王)은', 'score': 0.675724783667581}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不是前序一字錯却이면', 'tgt': '전서(前序)의 ‘일(一)’ 자가 잘못된 것이 아니라면', 'score': 0.5685330317073563}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是後面正經三字錯却이라', 'tgt': '그 뒤 정경(正經)의 ‘삼(三)’ 자가 잘못된 것이다.', 'score': 0.622741469497785}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先王은', 'tgt': '선왕(先王)은', 'score': 0.8127024173736572}, {'src_idx': 1, 'tgt_idx': 1, 'src': '無觀兵之事니', 'tgt': '군대를 사열한 일이 없었으니,', 'score': 0.5607408881187439}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不是前序一字錯却이면', 'tgt': '전서(前序)의 ‘일(一)’ 자가 잘못된 것이 아니라면', 'score': 0.7683010101318359}, {'src_idx': 3, 'tgt_idx': 3, 'src': '便是後面正經三字錯却이라', 'tgt': '그 뒤 정경(正經)의 ‘삼(三)’ 자가 잘못된 것이다.', 'score': 0.704932451248169}]</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4745,7 +4745,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先儒가', 'tgt': '선유(先儒)가', 'score': 0.666319509703569}, {'src_idx': 1, 'tgt_idx': 1, 'src': '以六爲老陰하고', 'tgt': '육(六)을 노음(老陰)이라 하고', 'score': 0.6866173884368193}, {'src_idx': 2, 'tgt_idx': 2, 'src': '八爲少陰하니', 'tgt': '팔(八)을 소음(少陰)이라 하였으니, 참으로', 'score': 0.5406813079746049}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '先儒가', 'tgt': '선유(先儒)가', 'score': 0.8131641149520874}, {'src_idx': 1, 'tgt_idx': 1, 'src': '以六爲老陰하고', 'tgt': '육(六)을 노음(老陰)이라 하고', 'score': 0.8220962285995483}, {'src_idx': 2, 'tgt_idx': 2, 'src': '八爲少陰하니', 'tgt': '팔(八)을 소음(少陰)이라 하였으니, 참으로', 'score': 0.6020482182502747}]</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['개보(介甫)(왕안석(王安石))는', '‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니, 이는', '성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.']</t>
+          <t>['개보(介甫)(왕안석(王安石))는', '‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니,', '이는 성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以爲進君子而退小人하니', 'tgt': '‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니, 이는', 'score': 0.5744441840457051}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '以爲進君子而退小人하니', 'tgt': '‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니,', 'score': 0.6918029189109802}, {'src_idx': 2, 'tgt_idx': 2, 'src': '則是聖人旋安排義理也라', 'tgt': '이는 성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.', 'score': 0.701453447341919}]</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4833,7 +4833,7 @@
         <v>3</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4862,12 +4862,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['이는', '음양(陰陽)의 수를 정한', '것이니, 어찌 의리를 말한 것이겠는가.']</t>
+          <t>['이는', '음양(陰陽)의 수를 정한 것이니,', '어찌 의리를 말한 것이겠는가.']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此는', 'tgt': '이는', 'score': 0.8462833429025385}, {'src_idx': 1, 'tgt_idx': 1, 'src': '且定陰陽之數니', 'tgt': '음양(陰陽)의 수를 정한', 'score': 0.5882152038392583}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此는', 'tgt': '이는', 'score': 0.9053776860237122}, {'src_idx': 1, 'tgt_idx': 1, 'src': '且定陰陽之數니', 'tgt': '음양(陰陽)의 수를 정한 것이니,', 'score': 0.7823042869567871}, {'src_idx': 2, 'tgt_idx': 2, 'src': '豈便說得義理리오', 'tgt': '어찌 의리를 말한 것이겠는가.', 'score': 0.6236481666564941}]</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4877,7 +4877,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '九六은', 'tgt': '구(九)와 육(六)은', 'score': 0.5402171282122058}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只是取純陰純陽이라', 'tgt': '단지 순음(純陰)과 순양(純陽)에서 취한 것이다.', 'score': 0.5994242017624432}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '九六은', 'tgt': '구(九)와 육(六)은', 'score': 0.5338205695152283}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只是取純陰純陽이라', 'tgt': '단지 순음(純陰)과 순양(純陽)에서 취한 것이다.', 'score': 0.7986483573913574}]</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4950,12 +4950,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['오직 육(六)만이 순음(純陰)이', '되니, 단지 하도(河圖)의 수(數)에서 취하여', '살펴보건대 육(六)을 지나면 하나의 양(陽)이 생겨나니,', '팔(八)에 이르면 곧', '순음(純陰)이 아니다.']</t>
+          <t>['오직 육(六)만이 순음(純陰)이', '되니, 단지 하도(河圖)의 수(數)에서 취하여 살펴보건대', '육(六)을 지나면 하나의 양(陽)이 생겨나니,', '팔(八)에 이르면', '곧 순음(純陰)이 아니다.']</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '惟六爲純陰이니', 'tgt': '오직 육(六)만이 순음(純陰)이', 'score': 0.7213009093040569}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只取河圖數見之컨대', 'tgt': '되니, 단지 하도(河圖)의 수(數)에서 취하여', 'score': 0.6061722876563085}, {'src_idx': 2, 'tgt_idx': 2, 'src': '過六則一陽生하니', 'tgt': '살펴보건대 육(六)을 지나면 하나의 양(陽)이 생겨나니,', 'score': 0.580553233642126}, {'src_idx': 3, 'tgt_idx': 3, 'src': '至八이면', 'tgt': '팔(八)에 이르면 곧', 'score': 0.5666911706090173}, {'src_idx': 4, 'tgt_idx': 4, 'src': '便不是純陰이라', 'tgt': '순음(純陰)이 아니다.', 'score': 0.6319199226944423}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '惟六爲純陰이니', 'tgt': '오직 육(六)만이 순음(純陰)이', 'score': 0.8404458165168762}, {'src_idx': 1, 'tgt_idx': 1, 'src': '只取河圖數見之컨대', 'tgt': '되니, 단지 하도(河圖)의 수(數)에서 취하여 살펴보건대', 'score': 0.8350622653961182}, {'src_idx': 2, 'tgt_idx': 2, 'src': '過六則一陽生하니', 'tgt': '육(六)을 지나면 하나의 양(陽)이 생겨나니,', 'score': 0.7651396989822388}, {'src_idx': 3, 'tgt_idx': 3, 'src': '至八이면', 'tgt': '팔(八)에 이르면', 'score': 0.7430368661880493}, {'src_idx': 4, 'tgt_idx': 4, 'src': '便不是純陰이라', 'tgt': '곧 순음(純陰)이 아니다.', 'score': 0.7415586709976196}]</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘湄', 'tgt': '전(傳)의 [미(湄)', 'score': 0.7275981683773499}, {'src_idx': 1, 'tgt_idx': 1, 'src': '水隒’', 'tgt': '수엄(水隒)]', 'score': 0.5370298545004953}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘湄', 'tgt': '전(傳)의 [미(湄)', 'score': 0.7240756154060364}, {'src_idx': 1, 'tgt_idx': 1, 'src': '水隒’', 'tgt': '수엄(水隒)]', 'score': 0.7202783226966858}]</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['정의왈(正義曰)：≪이아(爾雅)≫', '&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고 하였으니', '물과 풀이 만나는 곳을 말하니', '강기슭이다.']</t>
+          <t>['정의왈(正義曰)：≪이아(爾雅)≫', '&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고', '하였으니 물과 풀이 만나는 곳을 말하니', '강기슭이다.']</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰', 'tgt': '정의왈(正義曰)：≪이아(爾雅)≫', 'score': 0.5716891622291173}, {'src_idx': 1, 'tgt_idx': 1, 'src': '釋水云“水草交爲湄.”', 'tgt': '&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고 하였으니', 'score': 0.5270516527810607}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰', 'tgt': '정의왈(正義曰)：≪이아(爾雅)≫', 'score': 0.7334356904029846}, {'src_idx': 1, 'tgt_idx': 1, 'src': '釋水云“水草交爲湄.”', 'tgt': '&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고', 'score': 0.6297219395637512}, {'src_idx': 2, 'tgt_idx': 2, 'src': '謂水草交際之處,', 'tgt': '하였으니 물과 풀이 만나는 곳을 말하니', 'score': 0.8086572289466858}, {'src_idx': 3, 'tgt_idx': 3, 'src': '水之岸也.', 'tgt': '강기슭이다.', 'score': 0.7370167374610901}]</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -5053,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['≪이아(爾雅)≫ &lt;석산(釋山)&gt;에', '“두 개의 시루가 포개진 것과 같은 곳이', '엄(隒)이다.”라고 하였으니', '엄(隒)은', '산기슭이고', '미(湄)는', '강기슭이다.']</t>
+          <t>['≪이아(爾雅)≫ &lt;석산(釋山)&gt;에', '“두 개의 시루가 포개진 것과 같은 곳이', '엄(隒)이다.”라고', '하였으니 엄(隒)은', '산기슭이고', '미(湄)는', '강기슭이다.']</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[{'src_idx': 2, 'tgt_idx': 2, 'src': '隒(엄).”', 'tgt': '엄(隒)이다.”라고 하였으니', 'score': 0.7035896038535772}, {'src_idx': 3, 'tgt_idx': 3, 'src': '隒,', 'tgt': '엄(隒)은', 'score': 0.5400372135301672}, {'src_idx': 5, 'tgt_idx': 5, 'src': '湄,', 'tgt': '미(湄)는', 'score': 0.6792358169451176}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 2, 'src': '“重甗(언),', 'tgt': '엄(隒)이다.”라고', 'score': 0.6806216239929199}, {'src_idx': 2, 'tgt_idx': 2, 'src': '隒(엄).”', 'tgt': '엄(隒)이다.”라고', 'score': 0.9011611342430115}, {'src_idx': 3, 'tgt_idx': 3, 'src': '隒,', 'tgt': '하였으니 엄(隒)은', 'score': 0.6333503127098083}, {'src_idx': 4, 'tgt_idx': 4, 'src': '是山岸,', 'tgt': '산기슭이고', 'score': 0.7588856220245361}, {'src_idx': 5, 'tgt_idx': 5, 'src': '湄,', 'tgt': '미(湄)는', 'score': 0.7868242859840393}, {'src_idx': 6, 'tgt_idx': 6, 'src': '是水岸,', 'tgt': '강기슭이다.', 'score': 0.7666710615158081}]</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -5097,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故云‘水隒.’', 'tgt': '그리하여 ‘수엄(水隒)’이라고 한 것이다.', 'score': 0.6203263784571073}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故云‘水隒.’', 'tgt': '그리하여 ‘수엄(水隒)’이라고 한 것이다.', 'score': 0.6598244905471802}]</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡洄從之하니', 'tgt': '거슬러 올라가 따르려하니', 'score': 0.6287033557891846}, {'src_idx': 1, 'tgt_idx': 1, 'src': '道阻且躋러니', 'tgt': '길은 험하고 오르막이더니', 'score': 0.6071471571922302}]</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -5185,7 +5185,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '躋는', 'tgt': '제(躋)는', 'score': 0.6843381782920488}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '躋는', 'tgt': '제(躋)는', 'score': 0.672304093837738}]</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -5258,12 +5258,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['승(升)은 이르기', '어려움을', '말하니', '비탈을 오르는 것과 같은 것이다.']</t>
+          <t>['승(升)은', '이르기', '어려움을 말하니', '비탈을 오르는 것과 같은 것이다.']</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 0, 'src': '升者는', 'tgt': '승(升)은 이르기', 'score': 0.5114923402971174}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 0, 'src': '升者는', 'tgt': '승(升)은', 'score': 0.7075110673904419}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言其難至니', 'tgt': '어려움을 말하니', 'score': 0.7245628237724304}, {'src_idx': 3, 'tgt_idx': 3, 'src': '如升阪이라', 'tgt': '비탈을 오르는 것과 같은 것이다.', 'score': 0.6190617680549622}]</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -5273,7 +5273,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '躋는', 'tgt': '제(躋)는', 'score': 0.6843381782920488}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '躋는', 'tgt': '제(躋)는', 'score': 0.672304093837738}, {'src_idx': 1, 'tgt_idx': 1, 'src': '本又作隮라', 'tgt': '제(隮)로 되어 있는 본도 있다.', 'score': 0.5912370085716248}]</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡游從之하니', 'tgt': '물살 따라 가니', 'score': 0.5528984665870667}, {'src_idx': 1, 'tgt_idx': 1, 'src': '宛在水中坻(지)로다', 'tgt': '가만히 강 가운데 모래톱에 있다네', 'score': 0.5766439437866211}]</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -5361,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '坻는', 'tgt': '지(坻)는', 'score': 0.5771957606595481}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '坻는', 'tgt': '지(坻)는', 'score': 0.7001045942306519}]</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘坻', 'tgt': '전(傳)의', 'score': 0.530710428929088}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘坻', 'tgt': '전(傳)의', 'score': 0.6216915845870972}, {'src_idx': 1, 'tgt_idx': 1, 'src': '小渚’', 'tgt': '[지소저(坻小渚)]', 'score': 0.7279961705207825}]</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -5449,7 +5449,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5478,12 +5478,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['정의왈(正義曰)：≪이아(爾雅)≫', '&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라', '하고, 저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은', '모래톱[소지(小沚)]을 지(坻)라고 한다.”라고 하였다. 그렇다면', '지(坻)는']</t>
+          <t>['정의왈(正義曰)：≪이아(爾雅)≫', '&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라 하고,', '저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은 모래톱[소지(小沚)]을', '지(坻)라고 한다.”라고', '하였다. 그렇다면 지(坻)는']</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '정의왈(正義曰)：≪이아(爾雅)≫', 'score': 0.5686394892995523}, {'src_idx': 1, 'tgt_idx': 1, 'src': '釋水云“小洲曰渚,', 'tgt': '&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라', 'score': 0.5715376381573453}, {'src_idx': 2, 'tgt_idx': 2, 'src': '小渚曰沚,', 'tgt': '하고, 저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은', 'score': 0.5601782148479313}, {'src_idx': 3, 'tgt_idx': 3, 'src': '小沚曰坻.”', 'tgt': '모래톱[소지(小沚)]을 지(坻)라고 한다.”라고 하였다. 그렇다면', 'score': 0.5557303112307799}, {'src_idx': 4, 'tgt_idx': 4, 'src': '然則坻,', 'tgt': '지(坻)는', 'score': 0.551107047325382}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '정의왈(正義曰)：≪이아(爾雅)≫', 'score': 0.7153371572494507}, {'src_idx': 1, 'tgt_idx': 1, 'src': '釋水云“小洲曰渚,', 'tgt': '&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라 하고,', 'score': 0.6922142505645752}, {'src_idx': 2, 'tgt_idx': 2, 'src': '小渚曰沚,', 'tgt': '저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은 모래톱[소지(小沚)]을', 'score': 0.696499228477478}, {'src_idx': 3, 'tgt_idx': 3, 'src': '小沚曰坻.”', 'tgt': '지(坻)라고 한다.”라고', 'score': 0.6796399354934692}, {'src_idx': 4, 'tgt_idx': 4, 'src': '然則坻,', 'tgt': '하였다. 그렇다면 지(坻)는', 'score': 0.6225979328155518}]</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -5522,12 +5522,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['‘소지(小沚)’인데', '&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은, 저(渚)나', '지(沚)가', '모두 물 가운데 있는 땅으로', '그 크기가 다른데', '‘저(渚)’가 알기 쉽기', '때문에 저(渚)를 붙여 말한 것이다.']</t>
+          <t>['‘소지(小沚)’인데', '&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은,', '저(渚)나 지(沚)가', '모두 물 가운데 있는 땅으로 그', '크기가 다른데', '‘저(渚)’가 알기 쉽기', '때문에 저(渚)를 붙여 말한 것이다.']</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '言小渚者,', 'tgt': '&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은, 저(渚)나', 'score': 0.5712918206106274}, {'src_idx': 2, 'tgt_idx': 2, 'src': '渚․沚', 'tgt': '지(沚)가', 'score': 0.5461217630025857}, {'src_idx': 3, 'tgt_idx': 3, 'src': '皆水中之地,', 'tgt': '모두 물 가운데 있는 땅으로', 'score': 0.5908038457726768}, {'src_idx': 5, 'tgt_idx': 5, 'src': '以渚易知,', 'tgt': '‘저(渚)’가 알기 쉽기', 'score': 0.513844007803037}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '是小沚,', 'tgt': '‘소지(小沚)’인데', 'score': 0.7589940428733826}, {'src_idx': 1, 'tgt_idx': 1, 'src': '言小渚者,', 'tgt': '&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은,', 'score': 0.6998279094696045}, {'src_idx': 2, 'tgt_idx': 2, 'src': '渚․沚', 'tgt': '저(渚)나 지(沚)가', 'score': 0.7236635684967041}, {'src_idx': 3, 'tgt_idx': 3, 'src': '皆水中之地,', 'tgt': '모두 물 가운데 있는 땅으로 그', 'score': 0.7875041365623474}, {'src_idx': 4, 'tgt_idx': 4, 'src': '小大異也.', 'tgt': '크기가 다른데', 'score': 0.7761346101760864}, {'src_idx': 5, 'tgt_idx': 5, 'src': '以渚易知,', 'tgt': '‘저(渚)’가 알기 쉽기', 'score': 0.7243633270263672}, {'src_idx': 6, 'tgt_idx': 6, 'src': '故繫渚言之.', 'tgt': '때문에 저(渚)를 붙여 말한 것이다.', 'score': 0.8171143531799316}]</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -5537,7 +5537,7 @@
         <v>7</v>
       </c>
       <c r="I116" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '白露未已로다', 'tgt': '백로(白露) 아직 그치지 않았네', 'score': 0.5807940409944778}]</t>
+          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '白露未已로다', 'tgt': '백로(白露) 아직 그치지 않았네', 'score': 0.7051782011985779}]</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '采采는', 'tgt': '‘채채(采采)’는', 'score': 0.5849349166075112}, {'src_idx': 1, 'tgt_idx': 1, 'src': '猶萋萋也라', 'tgt': '‘처처(萋萋)’와 같다.', 'score': 0.5102156306332434}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '采采는', 'tgt': '‘채채(采采)’는', 'score': 0.8164939284324646}]</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -5625,7 +5625,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '未已는', 'tgt': '‘미이(未已)’는', 'score': 0.5081757013766639}, {'src_idx': 1, 'tgt_idx': 1, 'src': '猶未止也라', 'tgt': '‘미지(未止)’와 같다.', 'score': 0.5457066008372539}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '未已는', 'tgt': '‘미이(未已)’는', 'score': 0.7363498210906982}, {'src_idx': 1, 'tgt_idx': 1, 'src': '猶未止也라', 'tgt': '‘미지(未止)’와 같다.', 'score': 0.6250771880149841}]</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '所謂伊人이', 'tgt': '이른바 그 분이', 'score': 0.6210605502128601}]</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '涘는', 'tgt': '사(涘)는', 'score': 0.6328112254354776}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '涘는', 'tgt': '사(涘)는', 'score': 0.6993296146392822}]</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡洄從之하니', 'tgt': '물살 거슬러 따라가니', 'score': 0.6031478047370911}, {'src_idx': 1, 'tgt_idx': 1, 'src': '道阻且右러니', 'tgt': '길이 험하고 우회하더니', 'score': 0.600148618221283}]</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -5801,7 +5801,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '右는', 'tgt': '우(右)는', 'score': 0.7066582091315746}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '右는', 'tgt': '우(右)는', 'score': 0.8370348215103149}, {'src_idx': 1, 'tgt_idx': 1, 'src': '出其右也라', 'tgt': '우측으로 돌아서 나가는 것이다.', 'score': 0.6182308793067932}]</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -5845,7 +5845,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 0, 'src': '右者는', 'tgt': '전운(箋云)：우(右)는', 'score': 0.5354953685727056}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '전운(箋云)：우(右)는', 'score': 0.594976007938385}, {'src_idx': 1, 'tgt_idx': 0, 'src': '右者는', 'tgt': '전운(箋云)：우(右)는', 'score': 0.6266927719116211}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言其迂迴也라', 'tgt': '말한 것이다.', 'score': 0.5192189812660217}]</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -5889,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘右', 'tgt': '전(傳)의 [우(右)', 'score': 0.7017144363424485}, {'src_idx': 1, 'tgt_idx': 1, 'src': '出其右’', 'tgt': '출기우(出其右)]', 'score': 0.6786485451734554}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘右', 'tgt': '전(傳)의 [우(右)', 'score': 0.7217444181442261}, {'src_idx': 1, 'tgt_idx': 1, 'src': '出其右’', 'tgt': '출기우(出其右)]', 'score': 0.7568116784095764}]</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -5962,12 +5962,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['정의왈(正義曰)：이는', '길이 험난함을 말하면서', '‘차우(且右)’라고 하였기', '때문에 우(右)가 우측으로 돌아 나가는 것임을 안 것이다.']</t>
+          <t>['정의왈(正義曰)：이는', '길이 험난함을 말하면서', '‘차우(且右)’라고', '하였기 때문에 우(右)가 우측으로 돌아 나가는 것임을 안 것이다.']</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '정의왈(正義曰)：이는', 'score': 0.5824349554096911}, {'src_idx': 2, 'tgt_idx': 2, 'src': '而云‘且右’,', 'tgt': '‘차우(且右)’라고 하였기', 'score': 0.5196010632920008}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '정의왈(正義曰)：이는', 'score': 0.7920371890068054}, {'src_idx': 1, 'tgt_idx': 1, 'src': '此說道路艱難,', 'tgt': '길이 험난함을 말하면서', 'score': 0.8146439790725708}, {'src_idx': 2, 'tgt_idx': 2, 'src': '而云‘且右’,', 'tgt': '‘차우(且右)’라고', 'score': 0.7969789505004883}, {'src_idx': 3, 'tgt_idx': 3, 'src': '故知右謂出其右也.', 'tgt': '하였기 때문에 우(右)가 우측으로 돌아 나가는 것임을 안 것이다.', 'score': 0.7433897852897644}]</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -5977,7 +5977,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -6006,12 +6006,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['만약 물살 흐르는 대로', '따라가면 쉽게', '이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기', '어려운 것이다.']</t>
+          <t>['만약 물살 흐르는 대로', '따라가면 쉽게 이르는데', '지금 오히려 우측으로 돌아 나가니 이는 이르기', '어려운 것이다.']</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 1, 'src': '若正與相當,', 'tgt': '따라가면 쉽게 이르는데', 'score': 0.595382809638977}, {'src_idx': 1, 'tgt_idx': 1, 'src': '行則易到,', 'tgt': '따라가면 쉽게 이르는데', 'score': 0.7157405018806458}, {'src_idx': 2, 'tgt_idx': 2, 'src': '今乃出其右廂,', 'tgt': '지금 오히려 우측으로 돌아 나가니 이는 이르기', 'score': 0.7075985670089722}, {'src_idx': 3, 'tgt_idx': 3, 'src': '是難至也.', 'tgt': '어려운 것이다.', 'score': 0.7732477188110352}]</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -6021,7 +6021,7 @@
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -6050,12 +6050,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['전(箋)에', '‘우(右)는', '우회함을 말한 것이다.’라고 하였는데,', '좌측으로', '돌아 나가는 것도 역시 우회하는 것이다.']</t>
+          <t>['전(箋)에', '‘우(右)는', '우회함을 말한 것이다.’라고 하였는데,', '좌측으로 돌아 나가는 것도', '역시 우회하는 것이다.']</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '전(箋)에', 'score': 0.5378014727720111}, {'src_idx': 1, 'tgt_idx': 1, 'src': '‘右', 'tgt': '‘우(右)는', 'score': 0.700133039385562}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '전(箋)에', 'score': 0.5747604370117188}, {'src_idx': 1, 'tgt_idx': 1, 'src': '‘右', 'tgt': '‘우(右)는', 'score': 0.8415429592132568}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言其迂迴’,', 'tgt': '우회함을 말한 것이다.’라고 하였는데,', 'score': 0.7114217877388}, {'src_idx': 3, 'tgt_idx': 3, 'src': '出其左,', 'tgt': '좌측으로 돌아 나가는 것도', 'score': 0.7146120071411133}, {'src_idx': 4, 'tgt_idx': 4, 'src': '亦迂迴,', 'tgt': '역시 우회하는 것이다.', 'score': 0.7555068731307983}]</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -6065,7 +6065,7 @@
         <v>5</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -6094,12 +6094,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['그런데 우(右)라고 한 것은', '사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.']</t>
+          <t>['그런데 우(右)라고 한', '것은 사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.']</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '取其與涘․沚爲韻.', 'tgt': '사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.', 'score': 0.5968758982373628}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '言右,', 'tgt': '그런데 우(右)라고 한', 'score': 0.770452082157135}, {'src_idx': 1, 'tgt_idx': 1, 'src': '取其與涘․沚爲韻.', 'tgt': '것은 사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.', 'score': 0.7104290723800659}]</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -6109,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡游從之하니', 'tgt': '물살 따라 가니', 'score': 0.5528984665870667}, {'src_idx': 1, 'tgt_idx': 1, 'src': '宛在水中沚로다', 'tgt': '가만히 물 가운데 작은 모래톱에 있네', 'score': 0.5634428858757019}]</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -6153,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '小渚曰沚라', 'tgt': '작은 모래톱을 지(沚)라고 한다.', 'score': 0.5498697757720947}]</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '三章이니', 'tgt': '3장(章)이니', 'score': 0.7683697025803298}, {'src_idx': 2, 'tgt_idx': 2, 'src': '章八句라', 'tgt': '장(章)마다 8구(句)이다.', 'score': 0.5176316016660634}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '蒹葭', 'tgt': '&lt;겸가(蒹葭)&gt;', 'score': 0.5692887902259827}, {'src_idx': 1, 'tgt_idx': 1, 'src': '三章이니', 'tgt': '3장(章)이니', 'score': 0.7587043046951294}, {'src_idx': 2, 'tgt_idx': 2, 'src': '章八句라', 'tgt': '장(章)마다 8구(句)이다.', 'score': 0.5795555114746094}]</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -6241,7 +6241,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
